--- a/static/files/FOMC_Bauer_Swanson.xlsx
+++ b/static/files/FOMC_Bauer_Swanson.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2430645-FD4F-4F6C-A655-8E50F30B39E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="693" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23020" windowHeight="8470" tabRatio="693"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="3" r:id="rId1"/>
@@ -21,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Author</author>
+    <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="J67" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="J67" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -43,7 +42,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J92" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="J92" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A171" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="A171" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="82">
   <si>
     <t>Date</t>
   </si>
@@ -343,11 +342,20 @@
   <si>
     <t>Columns R through W report the six macroeconomic and financial variables from Table 1 of Bauer-Swanson (2022), used to perform the orthogonalization described above:</t>
   </si>
+  <si>
+    <t>Change log:</t>
+  </si>
+  <si>
+    <t>5/9/2020 corrected timing of NFP surprise (use current report if released morning of FOMC), affects columns MPS_ORTH, NFP_SURP</t>
+  </si>
+  <si>
+    <t>4/28/2020 initial release</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -510,8 +518,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -788,164 +796,179 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:B32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="195.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.36328125" customWidth="1"/>
+    <col min="2" max="2" width="195.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B4" s="16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B7" s="24"/>
     </row>
-    <row r="8" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2" ht="29" x14ac:dyDescent="0.35">
       <c r="B8" s="25" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B9" s="25" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:2" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="25" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B11" s="25"/>
     </row>
-    <row r="12" spans="2:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:2" ht="75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="25" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B13" s="25" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B14" s="25" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B15" s="25" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="25" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="25" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" ht="29" x14ac:dyDescent="0.35">
       <c r="B18" s="25" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" ht="58" x14ac:dyDescent="0.35">
       <c r="B19" s="25" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="25" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="25" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B22" s="25" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B23" s="25" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B24" s="25" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B25" s="25" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B26" s="25" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B27" s="25" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B28" s="25" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B29" s="25"/>
     </row>
-    <row r="30" spans="2:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B30" s="26" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B31" s="26"/>
     </row>
-    <row r="32" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" ht="29" x14ac:dyDescent="0.35">
       <c r="B32" s="26" t="s">
         <v>76</v>
       </c>
     </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B34" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B35" s="26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B36" s="26" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" display="(link to working paper version of Bauer and Swanson, 2022)" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId1" display="(link to working paper version of Bauer and Swanson, 2022)"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -953,28 +976,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W330"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A84" sqref="A84"/>
-      <selection pane="bottomRight" activeCell="P6" sqref="P6"/>
+      <selection pane="bottomRight" activeCell="Q1" sqref="Q1:R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="17" width="10.42578125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.42578125" style="15" customWidth="1"/>
-    <col min="19" max="23" width="10.42578125" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="13.453125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="23" width="10.453125" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.6328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1045,7 +1066,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18">
         <v>32177</v>
       </c>
@@ -1095,9 +1116,9 @@
         <v>-1.7579717003537099E-2</v>
       </c>
       <c r="Q2" s="5">
-        <v>-3.80563487499379E-2</v>
-      </c>
-      <c r="R2" s="15">
+        <v>-3.8071699884985002E-2</v>
+      </c>
+      <c r="R2" s="5">
         <v>151</v>
       </c>
       <c r="S2" s="5">
@@ -1116,7 +1137,7 @@
         <v>0.24065017485693099</v>
       </c>
     </row>
-    <row r="3" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18">
         <v>32178</v>
       </c>
@@ -1166,13 +1187,13 @@
         <v>2.4710027670263E-3</v>
       </c>
       <c r="Q3" s="5">
-        <v>5.1782681892981299E-3</v>
-      </c>
-      <c r="R3" s="15">
+        <v>5.4282905849017803E-3</v>
+      </c>
+      <c r="R3" s="5">
         <v>-93</v>
       </c>
       <c r="S3" s="5">
-        <v>3.0878683909286102</v>
+        <v>3.0085769204157802</v>
       </c>
       <c r="T3" s="5">
         <v>-1.3938303261772599E-2</v>
@@ -1187,7 +1208,7 @@
         <v>0.232826151751165</v>
       </c>
     </row>
-    <row r="4" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="18">
         <v>32184</v>
       </c>
@@ -1237,9 +1258,9 @@
         <v>3.7277410354340403E-4</v>
       </c>
       <c r="Q4" s="5">
-        <v>2.1993397862450099E-3</v>
-      </c>
-      <c r="R4" s="15">
+        <v>2.03029077651979E-3</v>
+      </c>
+      <c r="R4" s="5">
         <v>-93</v>
       </c>
       <c r="S4" s="5">
@@ -1258,7 +1279,7 @@
         <v>0.295690816944993</v>
       </c>
     </row>
-    <row r="5" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18">
         <v>32237</v>
       </c>
@@ -1308,9 +1329,9 @@
         <v>2.1228762851966499E-2</v>
       </c>
       <c r="Q5" s="5">
-        <v>-7.1001653661467096E-3</v>
-      </c>
-      <c r="R5" s="15">
+        <v>-7.2918108947671E-3</v>
+      </c>
+      <c r="R5" s="5">
         <v>62</v>
       </c>
       <c r="S5" s="5">
@@ -1329,7 +1350,7 @@
         <v>0.70322096558823299</v>
       </c>
     </row>
-    <row r="6" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="18">
         <v>32238</v>
       </c>
@@ -1379,9 +1400,9 @@
         <v>2.7333028456602501E-2</v>
       </c>
       <c r="Q6" s="5">
-        <v>4.1119046043018399E-3</v>
-      </c>
-      <c r="R6" s="15">
+        <v>3.9136353266834897E-3</v>
+      </c>
+      <c r="R6" s="5">
         <v>62</v>
       </c>
       <c r="S6" s="5">
@@ -1400,7 +1421,7 @@
         <v>0.70101974141718704</v>
       </c>
     </row>
-    <row r="7" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="18">
         <v>32239</v>
       </c>
@@ -1450,9 +1471,9 @@
         <v>-1.4257753533230199E-2</v>
       </c>
       <c r="Q7" s="5">
-        <v>-3.78358235503077E-2</v>
-      </c>
-      <c r="R7" s="15">
+        <v>-3.80389358263441E-2</v>
+      </c>
+      <c r="R7" s="5">
         <v>62</v>
       </c>
       <c r="S7" s="5">
@@ -1471,7 +1492,7 @@
         <v>0.69459993209284399</v>
       </c>
     </row>
-    <row r="8" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="18">
         <v>32272</v>
       </c>
@@ -1521,9 +1542,9 @@
         <v>2.3868310158492001E-2</v>
       </c>
       <c r="Q8" s="5">
-        <v>2.13324653896819E-2</v>
-      </c>
-      <c r="R8" s="15">
+        <v>2.11340707129728E-2</v>
+      </c>
+      <c r="R8" s="5">
         <v>-80</v>
       </c>
       <c r="S8" s="5">
@@ -1542,7 +1563,7 @@
         <v>0.41264449192276498</v>
       </c>
     </row>
-    <row r="9" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="18">
         <v>32273</v>
       </c>
@@ -1592,9 +1613,9 @@
         <v>-5.3043538424038597E-3</v>
       </c>
       <c r="Q9" s="5">
-        <v>-7.1502450399729802E-3</v>
-      </c>
-      <c r="R9" s="15">
+        <v>-7.3410470179555102E-3</v>
+      </c>
+      <c r="R9" s="5">
         <v>-80</v>
       </c>
       <c r="S9" s="5">
@@ -1613,7 +1634,7 @@
         <v>0.39351508986800998</v>
       </c>
     </row>
-    <row r="10" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="18">
         <v>32281</v>
       </c>
@@ -1663,9 +1684,9 @@
         <v>1.96621626562038E-2</v>
       </c>
       <c r="Q10" s="5">
-        <v>1.9279033559076099E-2</v>
-      </c>
-      <c r="R10" s="15">
+        <v>1.9135874684469801E-2</v>
+      </c>
+      <c r="R10" s="5">
         <v>-80</v>
       </c>
       <c r="S10" s="5">
@@ -1684,7 +1705,7 @@
         <v>0.29545504159395097</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="18">
         <v>32282</v>
       </c>
@@ -1734,9 +1755,9 @@
         <v>3.1727622512111697E-2</v>
       </c>
       <c r="Q11" s="5">
-        <v>3.5237929817165503E-2</v>
-      </c>
-      <c r="R11" s="15">
+        <v>3.5102827783595802E-2</v>
+      </c>
+      <c r="R11" s="5">
         <v>-80</v>
       </c>
       <c r="S11" s="5">
@@ -1755,7 +1776,7 @@
         <v>0.27365854052477101</v>
       </c>
     </row>
-    <row r="12" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="18">
         <v>32283</v>
       </c>
@@ -1805,9 +1826,9 @@
         <v>2.4766765082143401E-3</v>
       </c>
       <c r="Q12" s="5">
-        <v>3.7531754386473199E-3</v>
-      </c>
-      <c r="R12" s="15">
+        <v>3.63096218975981E-3</v>
+      </c>
+      <c r="R12" s="5">
         <v>-80</v>
       </c>
       <c r="S12" s="5">
@@ -1826,7 +1847,7 @@
         <v>0.25421113624506703</v>
       </c>
     </row>
-    <row r="13" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="18">
         <v>32288</v>
       </c>
@@ -1876,9 +1897,9 @@
         <v>2.6013571328892499E-2</v>
       </c>
       <c r="Q13" s="5">
-        <v>3.0049874999194499E-2</v>
-      </c>
-      <c r="R13" s="15">
+        <v>2.9942497852491302E-2</v>
+      </c>
+      <c r="R13" s="5">
         <v>-80</v>
       </c>
       <c r="S13" s="5">
@@ -1897,7 +1918,7 @@
         <v>0.218245836864492</v>
       </c>
     </row>
-    <row r="14" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="18">
         <v>32289</v>
       </c>
@@ -1947,9 +1968,9 @@
         <v>2.1207306099962301E-2</v>
       </c>
       <c r="Q14" s="5">
-        <v>2.59955448878725E-2</v>
-      </c>
-      <c r="R14" s="15">
+        <v>2.58816391503955E-2</v>
+      </c>
+      <c r="R14" s="5">
         <v>-80</v>
       </c>
       <c r="S14" s="5">
@@ -1968,7 +1989,7 @@
         <v>0.21540335204473199</v>
       </c>
     </row>
-    <row r="15" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="18">
         <v>32311</v>
       </c>
@@ -2018,9 +2039,9 @@
         <v>2.7348811467425901E-2</v>
       </c>
       <c r="Q15" s="5">
-        <v>1.11787451077471E-2</v>
-      </c>
-      <c r="R15" s="15">
+        <v>1.1147162247386299E-2</v>
+      </c>
+      <c r="R15" s="5">
         <v>-13.5</v>
       </c>
       <c r="S15" s="5">
@@ -2039,7 +2060,7 @@
         <v>0.17276955500570901</v>
       </c>
     </row>
-    <row r="16" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="18">
         <v>32314</v>
       </c>
@@ -2089,9 +2110,9 @@
         <v>-1.6587342253956899E-2</v>
       </c>
       <c r="Q16" s="5">
-        <v>-3.37114797485066E-2</v>
-      </c>
-      <c r="R16" s="15">
+        <v>-3.37305014675158E-2</v>
+      </c>
+      <c r="R16" s="5">
         <v>-13.5</v>
       </c>
       <c r="S16" s="5">
@@ -2110,7 +2131,7 @@
         <v>0.17646195281089999</v>
       </c>
     </row>
-    <row r="17" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="18">
         <v>32325</v>
       </c>
@@ -2160,9 +2181,9 @@
         <v>1.15872732561747E-2</v>
       </c>
       <c r="Q17" s="5">
-        <v>-6.6369511402836296E-3</v>
-      </c>
-      <c r="R17" s="15">
+        <v>-6.68049312263716E-3</v>
+      </c>
+      <c r="R17" s="5">
         <v>-13.5</v>
       </c>
       <c r="S17" s="5">
@@ -2181,7 +2202,7 @@
         <v>0.16167920236865799</v>
       </c>
     </row>
-    <row r="18" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="18">
         <v>32343</v>
       </c>
@@ -2231,9 +2252,9 @@
         <v>2.3852527147665E-2</v>
       </c>
       <c r="Q18" s="5">
-        <v>-6.2470772064232901E-3</v>
-      </c>
-      <c r="R18" s="15">
+        <v>-6.2613739715097301E-3</v>
+      </c>
+      <c r="R18" s="5">
         <v>121</v>
       </c>
       <c r="S18" s="5">
@@ -2252,7 +2273,7 @@
         <v>0.24230111331781801</v>
       </c>
     </row>
-    <row r="19" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="18">
         <v>32344</v>
       </c>
@@ -2302,9 +2323,9 @@
         <v>1.0357445613834599E-2</v>
       </c>
       <c r="Q19" s="5">
-        <v>-1.85850373875961E-2</v>
-      </c>
-      <c r="R19" s="15">
+        <v>-1.8597982640274801E-2</v>
+      </c>
+      <c r="R19" s="5">
         <v>121</v>
       </c>
       <c r="S19" s="5">
@@ -2323,7 +2344,7 @@
         <v>0.245311793081714</v>
       </c>
     </row>
-    <row r="20" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="18">
         <v>32364</v>
       </c>
@@ -2373,9 +2394,9 @@
         <v>0.116370690716899</v>
       </c>
       <c r="Q20" s="5">
-        <v>9.3550287791235795E-2</v>
-      </c>
-      <c r="R20" s="15">
+        <v>9.3478198292056003E-2</v>
+      </c>
+      <c r="R20" s="5">
         <v>35</v>
       </c>
       <c r="S20" s="5">
@@ -2394,7 +2415,7 @@
         <v>0.37004980898869499</v>
       </c>
     </row>
-    <row r="21" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="18">
         <v>32364</v>
       </c>
@@ -2444,9 +2465,9 @@
         <v>2.0844641266065701E-2</v>
       </c>
       <c r="Q21" s="5">
-        <v>-1.9757616595978801E-3</v>
-      </c>
-      <c r="R21" s="15">
+        <v>-2.0478511587776198E-3</v>
+      </c>
+      <c r="R21" s="5">
         <v>35</v>
       </c>
       <c r="S21" s="5">
@@ -2465,7 +2486,7 @@
         <v>0.37004980898869499</v>
       </c>
     </row>
-    <row r="22" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="18">
         <v>32372</v>
       </c>
@@ -2515,9 +2536,9 @@
         <v>2.7333028456602598E-2</v>
       </c>
       <c r="Q22" s="5">
-        <v>1.0853136646709101E-2</v>
-      </c>
-      <c r="R22" s="15">
+        <v>1.0784084509145401E-2</v>
+      </c>
+      <c r="R22" s="5">
         <v>35</v>
       </c>
       <c r="S22" s="5">
@@ -2536,7 +2557,7 @@
         <v>0.33551781638861</v>
       </c>
     </row>
-    <row r="23" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="18">
         <v>32407</v>
       </c>
@@ -2586,9 +2607,9 @@
         <v>-1.3522263311403E-2</v>
       </c>
       <c r="Q23" s="5">
-        <v>-1.68935233647597E-3</v>
-      </c>
-      <c r="R23" s="15">
+        <v>-1.83710679549518E-3</v>
+      </c>
+      <c r="R23" s="5">
         <v>-10</v>
       </c>
       <c r="S23" s="5">
@@ -2607,7 +2628,7 @@
         <v>0.140542180314252</v>
       </c>
     </row>
-    <row r="24" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="18">
         <v>32449</v>
       </c>
@@ -2657,9 +2678,9 @@
         <v>1.3091057934188599E-2</v>
       </c>
       <c r="Q24" s="5">
-        <v>1.0580430824304999E-2</v>
-      </c>
-      <c r="R24" s="15">
+        <v>1.04333738275257E-2</v>
+      </c>
+      <c r="R24" s="5">
         <v>-27.5</v>
       </c>
       <c r="S24" s="5">
@@ -2678,7 +2699,7 @@
         <v>0.29254284561914801</v>
       </c>
     </row>
-    <row r="25" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="18">
         <v>32454</v>
       </c>
@@ -2728,9 +2749,9 @@
         <v>2.33898070331943E-2</v>
       </c>
       <c r="Q25" s="5">
-        <v>1.08932728109665E-2</v>
-      </c>
-      <c r="R25" s="15">
+        <v>1.0810432051049999E-2</v>
+      </c>
+      <c r="R25" s="5">
         <v>93</v>
       </c>
       <c r="S25" s="5">
@@ -2749,7 +2770,7 @@
         <v>0.32615131602538999</v>
       </c>
     </row>
-    <row r="26" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="18">
         <v>32455</v>
       </c>
@@ -2799,9 +2820,9 @@
         <v>3.2921448604339001E-2</v>
       </c>
       <c r="Q26" s="5">
-        <v>1.9648121599294001E-2</v>
-      </c>
-      <c r="R26" s="15">
+        <v>1.95708794186004E-2</v>
+      </c>
+      <c r="R26" s="5">
         <v>93</v>
       </c>
       <c r="S26" s="5">
@@ -2820,7 +2841,7 @@
         <v>0.34259966722331098</v>
       </c>
     </row>
-    <row r="27" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="18">
         <v>32492</v>
       </c>
@@ -2870,9 +2891,9 @@
         <v>4.0759304205950003E-2</v>
       </c>
       <c r="Q27" s="5">
-        <v>1.2161638598463399E-2</v>
-      </c>
-      <c r="R27" s="15">
+        <v>1.21799980758047E-2</v>
+      </c>
+      <c r="R27" s="5">
         <v>213</v>
       </c>
       <c r="S27" s="5">
@@ -2891,7 +2912,7 @@
         <v>0.21948237923010899</v>
       </c>
     </row>
-    <row r="28" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="18">
         <v>32514</v>
       </c>
@@ -2941,13 +2962,13 @@
         <v>4.3472450230423801E-3</v>
       </c>
       <c r="Q28" s="5">
-        <v>-1.8766005026078399E-2</v>
-      </c>
-      <c r="R28" s="15">
+        <v>-1.8714977102703201E-2</v>
+      </c>
+      <c r="R28" s="5">
         <v>29</v>
       </c>
       <c r="S28" s="5">
-        <v>3.0908841322157001</v>
+        <v>3.0749149144421399</v>
       </c>
       <c r="T28" s="5">
         <v>3.13052813880779E-2</v>
@@ -2962,7 +2983,7 @@
         <v>0.258062296668083</v>
       </c>
     </row>
-    <row r="29" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="18">
         <v>32517</v>
       </c>
@@ -3012,9 +3033,9 @@
         <v>-5.4356586190601802E-3</v>
       </c>
       <c r="Q29" s="5">
-        <v>-2.98934264230198E-2</v>
-      </c>
-      <c r="R29" s="15">
+        <v>-2.99107521016744E-2</v>
+      </c>
+      <c r="R29" s="5">
         <v>29</v>
       </c>
       <c r="S29" s="5">
@@ -3033,7 +3054,7 @@
         <v>0.25861641297676302</v>
       </c>
     </row>
-    <row r="30" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="18">
         <v>32518</v>
       </c>
@@ -3083,9 +3104,9 @@
         <v>1.3185122948031701E-2</v>
       </c>
       <c r="Q30" s="5">
-        <v>-9.7289879808459493E-3</v>
-      </c>
-      <c r="R30" s="15">
+        <v>-9.7554973921152605E-3</v>
+      </c>
+      <c r="R30" s="5">
         <v>29</v>
       </c>
       <c r="S30" s="5">
@@ -3104,7 +3125,7 @@
         <v>0.27122216737043298</v>
       </c>
     </row>
-    <row r="31" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="18">
         <v>32548</v>
       </c>
@@ -3154,9 +3175,9 @@
         <v>-2.7784401088707299E-2</v>
       </c>
       <c r="Q31" s="5">
-        <v>-6.4583976921637198E-2</v>
-      </c>
-      <c r="R31" s="15">
+        <v>-6.4589831558675107E-2</v>
+      </c>
+      <c r="R31" s="5">
         <v>153</v>
       </c>
       <c r="S31" s="5">
@@ -3175,7 +3196,7 @@
         <v>0.28017196397692601</v>
       </c>
     </row>
-    <row r="32" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="18">
         <v>32553</v>
       </c>
@@ -3225,9 +3246,9 @@
         <v>3.0004141784771399E-2</v>
       </c>
       <c r="Q32" s="5">
-        <v>-5.5214889661827802E-4</v>
-      </c>
-      <c r="R32" s="15">
+        <v>-5.8035571196947498E-4</v>
+      </c>
+      <c r="R32" s="5">
         <v>153</v>
       </c>
       <c r="S32" s="5">
@@ -3246,7 +3267,7 @@
         <v>0.248414954361831</v>
       </c>
     </row>
-    <row r="33" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="18">
         <v>32562</v>
       </c>
@@ -3296,9 +3317,9 @@
         <v>8.6582442504090695E-2</v>
       </c>
       <c r="Q33" s="5">
-        <v>5.1081439620055701E-2</v>
-      </c>
-      <c r="R33" s="15">
+        <v>5.1050131849108303E-2</v>
+      </c>
+      <c r="R33" s="5">
         <v>153</v>
       </c>
       <c r="S33" s="5">
@@ -3317,7 +3338,7 @@
         <v>0.23211176439425801</v>
       </c>
     </row>
-    <row r="34" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="18">
         <v>32563</v>
       </c>
@@ -3367,9 +3388,9 @@
         <v>6.5080960829153295E-2</v>
       </c>
       <c r="Q34" s="5">
-        <v>2.8904975356773801E-2</v>
-      </c>
-      <c r="R34" s="15">
+        <v>2.88864742129783E-2</v>
+      </c>
+      <c r="R34" s="5">
         <v>153</v>
       </c>
       <c r="S34" s="5">
@@ -3388,7 +3409,7 @@
         <v>0.22256226445510399</v>
       </c>
     </row>
-    <row r="35" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="18">
         <v>32563</v>
       </c>
@@ -3438,9 +3459,9 @@
         <v>-4.3640320839343702E-2</v>
       </c>
       <c r="Q35" s="5">
-        <v>-7.9816306311723206E-2</v>
-      </c>
-      <c r="R35" s="15">
+        <v>-7.98348074555187E-2</v>
+      </c>
+      <c r="R35" s="5">
         <v>153</v>
       </c>
       <c r="S35" s="5">
@@ -3459,7 +3480,7 @@
         <v>0.22256226445510399</v>
       </c>
     </row>
-    <row r="36" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="18">
         <v>32596</v>
       </c>
@@ -3509,9 +3530,9 @@
         <v>-2.20918066574874E-2</v>
       </c>
       <c r="Q36" s="5">
-        <v>-4.0323653802646901E-2</v>
-      </c>
-      <c r="R36" s="15">
+        <v>-4.0380391247823798E-2</v>
+      </c>
+      <c r="R36" s="5">
         <v>46.5</v>
       </c>
       <c r="S36" s="5">
@@ -3530,7 +3551,7 @@
         <v>0.23147795418492001</v>
       </c>
     </row>
-    <row r="37" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="18">
         <v>32645</v>
       </c>
@@ -3580,9 +3601,9 @@
         <v>-1.5577527186489E-2</v>
       </c>
       <c r="Q37" s="5">
-        <v>-1.65486313629872E-2</v>
-      </c>
-      <c r="R37" s="15">
+        <v>-1.6731759376159401E-2</v>
+      </c>
+      <c r="R37" s="5">
         <v>-103</v>
       </c>
       <c r="S37" s="5">
@@ -3601,7 +3622,7 @@
         <v>0.236802277083659</v>
       </c>
     </row>
-    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="18">
         <v>32665</v>
       </c>
@@ -3651,9 +3672,9 @@
         <v>-5.2289752211116897E-2</v>
       </c>
       <c r="Q38" s="5">
-        <v>-4.79541041233284E-2</v>
-      </c>
-      <c r="R38" s="15">
+        <v>-4.8194754329368601E-2</v>
+      </c>
+      <c r="R38" s="5">
         <v>-99</v>
       </c>
       <c r="S38" s="5">
@@ -3672,7 +3693,7 @@
         <v>0.24602539603930701</v>
       </c>
     </row>
-    <row r="39" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="18">
         <v>32696</v>
       </c>
@@ -3722,13 +3743,13 @@
         <v>-3.0050857766132699E-2</v>
       </c>
       <c r="Q39" s="5">
-        <v>-2.2813481097310601E-2</v>
-      </c>
-      <c r="R39" s="15">
+        <v>-2.1942477854892999E-2</v>
+      </c>
+      <c r="R39" s="5">
         <v>-17.5</v>
       </c>
       <c r="S39" s="5">
-        <v>2.7726967042150701</v>
+        <v>2.5320893637392299</v>
       </c>
       <c r="T39" s="5">
         <v>8.5127369990417798E-2</v>
@@ -3743,7 +3764,7 @@
         <v>0.18131071125442899</v>
       </c>
     </row>
-    <row r="40" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="18">
         <v>32714</v>
       </c>
@@ -3793,9 +3814,9 @@
         <v>-2.8437225063451699E-2</v>
       </c>
       <c r="Q40" s="5">
-        <v>-1.7055532855957602E-2</v>
-      </c>
-      <c r="R40" s="15">
+        <v>-1.7275187653192501E-2</v>
+      </c>
+      <c r="R40" s="5">
         <v>-17.5</v>
       </c>
       <c r="S40" s="5">
@@ -3814,7 +3835,7 @@
         <v>0.143099036342447</v>
       </c>
     </row>
-    <row r="41" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="18">
         <v>32715</v>
       </c>
@@ -3864,9 +3885,9 @@
         <v>-1.4332233058889801E-2</v>
       </c>
       <c r="Q41" s="5">
-        <v>7.2230559115102705E-5</v>
-      </c>
-      <c r="R41" s="15">
+        <v>-1.5259640685177299E-4</v>
+      </c>
+      <c r="R41" s="5">
         <v>-17.5</v>
       </c>
       <c r="S41" s="5">
@@ -3885,7 +3906,7 @@
         <v>0.13065570228943299</v>
       </c>
     </row>
-    <row r="42" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="18">
         <v>32716</v>
       </c>
@@ -3935,9 +3956,9 @@
         <v>-1.5530494679578399E-2</v>
       </c>
       <c r="Q42" s="5">
-        <v>-2.1401272224552698E-3</v>
-      </c>
-      <c r="R42" s="15">
+        <v>-2.37069708397718E-3</v>
+      </c>
+      <c r="R42" s="5">
         <v>-17.5</v>
       </c>
       <c r="S42" s="5">
@@ -3956,7 +3977,7 @@
         <v>0.114267050837612</v>
       </c>
     </row>
-    <row r="43" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="18">
         <v>32743</v>
       </c>
@@ -4006,9 +4027,9 @@
         <v>-2.34996550578578E-2</v>
       </c>
       <c r="Q43" s="5">
-        <v>-1.5948965454966699E-2</v>
-      </c>
-      <c r="R43" s="15">
+        <v>-1.60645669233975E-2</v>
+      </c>
+      <c r="R43" s="5">
         <v>9</v>
       </c>
       <c r="S43" s="5">
@@ -4027,7 +4048,7 @@
         <v>1.07383388602059E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="18">
         <v>32785</v>
       </c>
@@ -4077,9 +4098,9 @@
         <v>4.2373969983790999E-3</v>
       </c>
       <c r="Q44" s="5">
-        <v>-3.0432187050895001E-3</v>
-      </c>
-      <c r="R44" s="15">
+        <v>-3.1339595491447899E-3</v>
+      </c>
+      <c r="R44" s="5">
         <v>42</v>
       </c>
       <c r="S44" s="5">
@@ -4098,7 +4119,7 @@
         <v>7.78063774206776E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="18">
         <v>32797</v>
       </c>
@@ -4148,9 +4169,9 @@
         <v>1.6734746566989998E-2</v>
       </c>
       <c r="Q45" s="5">
-        <v>2.8639133923002401E-2</v>
-      </c>
-      <c r="R45" s="15">
+        <v>2.8555970804309699E-2</v>
+      </c>
+      <c r="R45" s="5">
         <v>-66</v>
       </c>
       <c r="S45" s="5">
@@ -4169,7 +4190,7 @@
         <v>7.3977613305449802E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="18">
         <v>32800</v>
       </c>
@@ -4219,9 +4240,9 @@
         <v>6.5398552259170201E-3</v>
       </c>
       <c r="Q46" s="5">
-        <v>1.8890148194599402E-2</v>
-      </c>
-      <c r="R46" s="15">
+        <v>1.8788177632122E-2</v>
+      </c>
+      <c r="R46" s="5">
         <v>-66</v>
       </c>
       <c r="S46" s="5">
@@ -4240,7 +4261,7 @@
         <v>4.0335209250892998E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="18">
         <v>32819</v>
       </c>
@@ -4290,9 +4311,9 @@
         <v>-6.8224270490321898E-2</v>
       </c>
       <c r="Q47" s="5">
-        <v>-6.3253103495084603E-2</v>
-      </c>
-      <c r="R47" s="15">
+        <v>-6.3179434682819904E-2</v>
+      </c>
+      <c r="R47" s="5">
         <v>78</v>
       </c>
       <c r="S47" s="5">
@@ -4311,7 +4332,7 @@
         <v>-0.14553797677289701</v>
       </c>
     </row>
-    <row r="48" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="18">
         <v>32820</v>
       </c>
@@ -4361,9 +4382,9 @@
         <v>4.02181995197309E-3</v>
       </c>
       <c r="Q48" s="5">
-        <v>1.03861199009298E-2</v>
-      </c>
-      <c r="R48" s="15">
+        <v>1.0456076489470599E-2</v>
+      </c>
+      <c r="R48" s="5">
         <v>78</v>
       </c>
       <c r="S48" s="5">
@@ -4382,7 +4403,7 @@
         <v>-0.14049344952039</v>
       </c>
     </row>
-    <row r="49" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="18">
         <v>32821</v>
       </c>
@@ -4432,9 +4453,9 @@
         <v>3.7441673695327103E-2</v>
       </c>
       <c r="Q49" s="5">
-        <v>4.5152133416859197E-2</v>
-      </c>
-      <c r="R49" s="15">
+        <v>4.5194630305089599E-2</v>
+      </c>
+      <c r="R49" s="5">
         <v>78</v>
       </c>
       <c r="S49" s="5">
@@ -4453,7 +4474,7 @@
         <v>-0.133972012973924</v>
       </c>
     </row>
-    <row r="50" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="18">
         <v>32827</v>
       </c>
@@ -4503,9 +4524,9 @@
         <v>1.60872798078734E-2</v>
       </c>
       <c r="Q50" s="5">
-        <v>2.41948690869121E-2</v>
-      </c>
-      <c r="R50" s="15">
+        <v>2.4217471800946098E-2</v>
+      </c>
+      <c r="R50" s="5">
         <v>78</v>
       </c>
       <c r="S50" s="5">
@@ -4524,7 +4545,7 @@
         <v>-0.139948297193877</v>
       </c>
     </row>
-    <row r="51" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="18">
         <v>32862</v>
       </c>
@@ -4574,9 +4595,9 @@
         <v>-2.9135424238057799E-2</v>
       </c>
       <c r="Q51" s="5">
-        <v>-2.7076216240819299E-2</v>
-      </c>
-      <c r="R51" s="15">
+        <v>-2.7059147873356101E-2</v>
+      </c>
+      <c r="R51" s="5">
         <v>45</v>
       </c>
       <c r="S51" s="5">
@@ -4595,7 +4616,7 @@
         <v>4.7635909374107499E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A52" s="18">
         <v>32912</v>
       </c>
@@ -4645,9 +4666,9 @@
         <v>1.08457414832184E-2</v>
       </c>
       <c r="Q52" s="5">
-        <v>1.0467227119681399E-2</v>
-      </c>
-      <c r="R52" s="15">
+        <v>1.0466287745384301E-2</v>
+      </c>
+      <c r="R52" s="5">
         <v>102.5</v>
       </c>
       <c r="S52" s="5">
@@ -4666,7 +4687,7 @@
         <v>0.12252831555862501</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A53" s="18">
         <v>32960</v>
       </c>
@@ -4716,9 +4737,9 @@
         <v>-2.47723962042024E-2</v>
       </c>
       <c r="Q53" s="5">
-        <v>-2.5716287194349399E-2</v>
-      </c>
-      <c r="R53" s="15">
+        <v>-2.5683169930848699E-2</v>
+      </c>
+      <c r="R53" s="5">
         <v>149.5</v>
       </c>
       <c r="S53" s="5">
@@ -4737,7 +4758,7 @@
         <v>3.5372756840896698E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A54" s="18">
         <v>33009</v>
       </c>
@@ -4787,9 +4808,9 @@
         <v>-1.7144127382248402E-2</v>
       </c>
       <c r="Q54" s="5">
-        <v>1.8040678864918901E-2</v>
-      </c>
-      <c r="R54" s="15">
+        <v>1.7824606988455501E-2</v>
+      </c>
+      <c r="R54" s="5">
         <v>-306</v>
       </c>
       <c r="S54" s="5">
@@ -4808,7 +4829,7 @@
         <v>4.0416210248652003E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A55" s="18">
         <v>33059</v>
       </c>
@@ -4858,9 +4879,9 @@
         <v>6.6926167545814401E-3</v>
       </c>
       <c r="Q55" s="5">
-        <v>2.1582239702345501E-2</v>
-      </c>
-      <c r="R55" s="15">
+        <v>2.1434223839850101E-2</v>
+      </c>
+      <c r="R55" s="5">
         <v>-68.5</v>
       </c>
       <c r="S55" s="5">
@@ -4879,7 +4900,7 @@
         <v>0.155180244674469</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A56" s="18">
         <v>33067</v>
       </c>
@@ -4929,9 +4950,9 @@
         <v>-3.3135787438025401E-2</v>
       </c>
       <c r="Q56" s="5">
-        <v>-2.2046648002268202E-2</v>
-      </c>
-      <c r="R56" s="15">
+        <v>-2.21787964530634E-2</v>
+      </c>
+      <c r="R56" s="5">
         <v>-60</v>
       </c>
       <c r="S56" s="5">
@@ -4950,7 +4971,7 @@
         <v>0.154871407677971</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A57" s="18">
         <v>33107</v>
       </c>
@@ -5000,9 +5021,9 @@
         <v>3.9220811969527302E-3</v>
       </c>
       <c r="Q57" s="5">
-        <v>3.9107577984399199E-2</v>
-      </c>
-      <c r="R57" s="15">
+        <v>3.9050729210087801E-2</v>
+      </c>
+      <c r="R57" s="5">
         <v>-219</v>
       </c>
       <c r="S57" s="5">
@@ -5021,7 +5042,7 @@
         <v>2.8324185969093699E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A58" s="18">
         <v>33149</v>
       </c>
@@ -5071,9 +5092,9 @@
         <v>-9.3946630532920107E-3</v>
       </c>
       <c r="Q58" s="5">
-        <v>-3.7866060947726299E-3</v>
-      </c>
-      <c r="R58" s="15">
+        <v>-3.7455896910782499E-3</v>
+      </c>
+      <c r="R58" s="5">
         <v>-42</v>
       </c>
       <c r="S58" s="5">
@@ -5092,7 +5113,7 @@
         <v>0.38691168104864399</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A59" s="18">
         <v>33175</v>
       </c>
@@ -5142,9 +5163,9 @@
         <v>4.36302803385778E-3</v>
       </c>
       <c r="Q59" s="5">
-        <v>2.32338572271895E-2</v>
-      </c>
-      <c r="R59" s="15">
+        <v>2.3267291867189701E-2</v>
+      </c>
+      <c r="R59" s="5">
         <v>-101</v>
       </c>
       <c r="S59" s="5">
@@ -5163,7 +5184,7 @@
         <v>0.38318025459949601</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A60" s="18">
         <v>33191</v>
       </c>
@@ -5213,9 +5234,9 @@
         <v>5.1730490657401901E-3</v>
       </c>
       <c r="Q60" s="5">
-        <v>1.36968893730312E-2</v>
-      </c>
-      <c r="R60" s="15">
+        <v>1.3689706862269601E-2</v>
+      </c>
+      <c r="R60" s="5">
         <v>-46</v>
       </c>
       <c r="S60" s="5">
@@ -5234,7 +5255,7 @@
         <v>0.50419741041802102</v>
       </c>
     </row>
-    <row r="61" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="18">
         <v>33192</v>
       </c>
@@ -5284,9 +5305,9 @@
         <v>1.6294157135006799E-3</v>
       </c>
       <c r="Q61" s="5">
-        <v>1.0588157213360601E-2</v>
-      </c>
-      <c r="R61" s="15">
+        <v>1.05756343126604E-2</v>
+      </c>
+      <c r="R61" s="5">
         <v>-46</v>
       </c>
       <c r="S61" s="5">
@@ -5305,7 +5326,7 @@
         <v>0.506069018187428</v>
       </c>
     </row>
-    <row r="62" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="18">
         <v>33193</v>
       </c>
@@ -5355,9 +5376,9 @@
         <v>5.3258105944047601E-3</v>
       </c>
       <c r="Q62" s="5">
-        <v>1.6627986933449801E-2</v>
-      </c>
-      <c r="R62" s="15">
+        <v>1.6616167449712099E-2</v>
+      </c>
+      <c r="R62" s="5">
         <v>-46</v>
       </c>
       <c r="S62" s="5">
@@ -5376,7 +5397,7 @@
         <v>0.505593303237997</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A63" s="18">
         <v>33214</v>
       </c>
@@ -5426,13 +5447,13 @@
         <v>-2.87314006384304E-2</v>
       </c>
       <c r="Q63" s="5">
-        <v>4.1858171314681001E-4</v>
-      </c>
-      <c r="R63" s="15">
+        <v>2.06016830779577E-3</v>
+      </c>
+      <c r="R63" s="5">
         <v>-192</v>
       </c>
       <c r="S63" s="5">
-        <v>0.81802487896549503</v>
+        <v>0.42391996171513602</v>
       </c>
       <c r="T63" s="5">
         <v>1.43239734972314E-2</v>
@@ -5447,7 +5468,7 @@
         <v>0.45379234667160701</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A64" s="18">
         <v>33225</v>
       </c>
@@ -5497,9 +5518,9 @@
         <v>-0.10962938414833499</v>
       </c>
       <c r="Q64" s="5">
-        <v>-7.9778544213463601E-2</v>
-      </c>
-      <c r="R64" s="15">
+        <v>-7.9953121922466702E-2</v>
+      </c>
+      <c r="R64" s="5">
         <v>-192</v>
       </c>
       <c r="S64" s="5">
@@ -5518,7 +5539,7 @@
         <v>0.51252736307160696</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A65" s="18">
         <v>33226</v>
       </c>
@@ -5568,9 +5589,9 @@
         <v>2.7433083737170998E-2</v>
       </c>
       <c r="Q65" s="5">
-        <v>5.52111961765714E-2</v>
-      </c>
-      <c r="R65" s="15">
+        <v>5.5037808970266201E-2</v>
+      </c>
+      <c r="R65" s="5">
         <v>-192</v>
       </c>
       <c r="S65" s="5">
@@ -5589,7 +5610,7 @@
         <v>0.52449275248393901</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A66" s="18">
         <v>33246</v>
       </c>
@@ -5639,9 +5660,9 @@
         <v>-0.109487970102028</v>
       </c>
       <c r="Q66" s="5">
-        <v>-9.3998314360740395E-2</v>
-      </c>
-      <c r="R66" s="15">
+        <v>-9.4107841416189705E-2</v>
+      </c>
+      <c r="R66" s="5">
         <v>75</v>
       </c>
       <c r="S66" s="5">
@@ -5660,7 +5681,7 @@
         <v>0.55799292255090804</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A67" s="18">
         <v>33270</v>
       </c>
@@ -5710,13 +5731,13 @@
         <v>-4.9813075702913601E-2</v>
       </c>
       <c r="Q67" s="5">
-        <v>-1.08227850721154E-2</v>
-      </c>
-      <c r="R67" s="15">
+        <v>-9.1553267486396105E-3</v>
+      </c>
+      <c r="R67" s="5">
         <v>-230</v>
       </c>
       <c r="S67" s="5">
-        <v>0.30274974730311</v>
+        <v>-0.13195636359011301</v>
       </c>
       <c r="T67" s="5">
         <v>0.130408523962219</v>
@@ -5731,7 +5752,7 @@
         <v>0.480941390692808</v>
       </c>
     </row>
-    <row r="68" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="18">
         <v>33270</v>
       </c>
@@ -5781,13 +5802,13 @@
         <v>-3.96500669090291E-2</v>
       </c>
       <c r="Q68" s="5">
-        <v>-6.5977627823086396E-4</v>
-      </c>
-      <c r="R68" s="15">
+        <v>1.0076820452448801E-3</v>
+      </c>
+      <c r="R68" s="5">
         <v>-230</v>
       </c>
       <c r="S68" s="5">
-        <v>0.30274974730311</v>
+        <v>-0.13195636359011301</v>
       </c>
       <c r="T68" s="5">
         <v>0.130408523962219</v>
@@ -5802,7 +5823,7 @@
         <v>0.480941390692808</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A69" s="18">
         <v>33276</v>
       </c>
@@ -5852,9 +5873,9 @@
         <v>-4.9688195016884098E-3</v>
       </c>
       <c r="Q69" s="5">
-        <v>3.4968280739415297E-2</v>
-      </c>
-      <c r="R69" s="15">
+        <v>3.4674968667917902E-2</v>
+      </c>
+      <c r="R69" s="5">
         <v>-230</v>
       </c>
       <c r="S69" s="5">
@@ -5873,7 +5894,7 @@
         <v>0.43575444275757202</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A70" s="18">
         <v>33305</v>
       </c>
@@ -5923,13 +5944,13 @@
         <v>-6.5972963772618298E-2</v>
       </c>
       <c r="Q70" s="5">
-        <v>-4.79747006517545E-2</v>
-      </c>
-      <c r="R70" s="15">
+        <v>-4.5808701709932502E-2</v>
+      </c>
+      <c r="R70" s="5">
         <v>-77</v>
       </c>
       <c r="S70" s="5">
-        <v>-0.13195636359011301</v>
+        <v>-0.64262329881934499</v>
       </c>
       <c r="T70" s="5">
         <v>0.148297635016721</v>
@@ -5944,7 +5965,7 @@
         <v>0.37531333570282699</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A71" s="18">
         <v>33324</v>
       </c>
@@ -5994,9 +6015,9 @@
         <v>-3.7963611987741501E-2</v>
       </c>
       <c r="Q71" s="5">
-        <v>-1.6874393877696198E-2</v>
-      </c>
-      <c r="R71" s="15">
+        <v>-1.7022644301418401E-2</v>
+      </c>
+      <c r="R71" s="5">
         <v>-77</v>
       </c>
       <c r="S71" s="5">
@@ -6015,7 +6036,7 @@
         <v>0.402927022574805</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A72" s="18">
         <v>33358</v>
       </c>
@@ -6065,9 +6086,9 @@
         <v>-0.18824770696423301</v>
       </c>
       <c r="Q72" s="5">
-        <v>-0.17220903615299199</v>
-      </c>
-      <c r="R72" s="15">
+        <v>-0.17224225002235999</v>
+      </c>
+      <c r="R72" s="5">
         <v>-60</v>
       </c>
       <c r="S72" s="5">
@@ -6086,7 +6107,7 @@
         <v>0.293738898456673</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A73" s="18">
         <v>33358</v>
       </c>
@@ -6136,9 +6157,9 @@
         <v>2.73803774890722E-2</v>
       </c>
       <c r="Q73" s="5">
-        <v>4.3419048300312901E-2</v>
-      </c>
-      <c r="R73" s="15">
+        <v>4.3385834430944799E-2</v>
+      </c>
+      <c r="R73" s="5">
         <v>-60</v>
       </c>
       <c r="S73" s="5">
@@ -6157,7 +6178,7 @@
         <v>0.293738898456673</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A74" s="18">
         <v>33373</v>
       </c>
@@ -6207,9 +6228,9 @@
         <v>8.8849104319114105E-3</v>
       </c>
       <c r="Q74" s="5">
-        <v>3.03996543593478E-2</v>
-      </c>
-      <c r="R74" s="15">
+        <v>3.0429405436825201E-2</v>
+      </c>
+      <c r="R74" s="5">
         <v>11</v>
       </c>
       <c r="S74" s="5">
@@ -6228,7 +6249,7 @@
         <v>0.27724591543796601</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A75" s="18">
         <v>33424</v>
       </c>
@@ -6278,13 +6299,13 @@
         <v>9.1790860068859895E-3</v>
       </c>
       <c r="Q75" s="5">
-        <v>4.9496100780642198E-2</v>
-      </c>
-      <c r="R75" s="15">
+        <v>4.9234059566310898E-2</v>
+      </c>
+      <c r="R75" s="5">
         <v>-100</v>
       </c>
       <c r="S75" s="5">
-        <v>-1.4581528302137801</v>
+        <v>-1.39513697864349</v>
       </c>
       <c r="T75" s="5">
         <v>-1.6391884647682702E-2</v>
@@ -6299,7 +6320,7 @@
         <v>0.22707232485634199</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A76" s="18">
         <v>33456</v>
       </c>
@@ -6349,9 +6370,9 @@
         <v>-0.119976720492542</v>
       </c>
       <c r="Q76" s="5">
-        <v>-8.7199135945849202E-2</v>
-      </c>
-      <c r="R76" s="15">
+        <v>-8.7159112045439996E-2</v>
+      </c>
+      <c r="R76" s="5">
         <v>-101</v>
       </c>
       <c r="S76" s="5">
@@ -6370,7 +6391,7 @@
         <v>0.22410626906271799</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A77" s="18">
         <v>33471</v>
       </c>
@@ -6420,9 +6441,9 @@
         <v>1.6865734818108599E-2</v>
       </c>
       <c r="Q77" s="5">
-        <v>5.1433428715891398E-2</v>
-      </c>
-      <c r="R77" s="15">
+        <v>5.1465158208575702E-2</v>
+      </c>
+      <c r="R77" s="5">
         <v>-101</v>
       </c>
       <c r="S77" s="5">
@@ -6441,7 +6462,7 @@
         <v>0.17227703755086499</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A78" s="18">
         <v>33494</v>
       </c>
@@ -6491,9 +6512,9 @@
         <v>5.2942445727575003E-3</v>
       </c>
       <c r="Q78" s="5">
-        <v>2.7180966531499502E-2</v>
-      </c>
-      <c r="R78" s="15">
+        <v>2.72992663156423E-2</v>
+      </c>
+      <c r="R78" s="5">
         <v>-6</v>
       </c>
       <c r="S78" s="5">
@@ -6512,7 +6533,7 @@
         <v>7.1450227602845306E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="18">
         <v>33494</v>
       </c>
@@ -6562,9 +6583,9 @@
         <v>8.5809421128432602E-3</v>
       </c>
       <c r="Q79" s="5">
-        <v>3.0467664071585299E-2</v>
-      </c>
-      <c r="R79" s="15">
+        <v>3.05859638557281E-2</v>
+      </c>
+      <c r="R79" s="5">
         <v>-6</v>
       </c>
       <c r="S79" s="5">
@@ -6583,7 +6604,7 @@
         <v>7.1450227602845306E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A80" s="18">
         <v>33513</v>
       </c>
@@ -6633,9 +6654,9 @@
         <v>7.7810303506110198E-3</v>
       </c>
       <c r="Q80" s="5">
-        <v>2.38539757811424E-2</v>
-      </c>
-      <c r="R80" s="15">
+        <v>2.3999336945085398E-2</v>
+      </c>
+      <c r="R80" s="5">
         <v>-6</v>
       </c>
       <c r="S80" s="5">
@@ -6654,7 +6675,7 @@
         <v>1.09366028565534E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A81" s="18">
         <v>33541</v>
       </c>
@@ -6704,9 +6725,9 @@
         <v>-6.7080832398561802E-3</v>
       </c>
       <c r="Q81" s="5">
-        <v>1.7082327723404799E-2</v>
-      </c>
-      <c r="R81" s="15">
+        <v>1.71898558456689E-2</v>
+      </c>
+      <c r="R81" s="5">
         <v>-16</v>
       </c>
       <c r="S81" s="5">
@@ -6725,7 +6746,7 @@
         <v>1.65089124019082E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A82" s="18">
         <v>33548</v>
       </c>
@@ -6775,9 +6796,9 @@
         <v>-0.101008740576812</v>
       </c>
       <c r="Q82" s="5">
-        <v>-7.5657065674364393E-2</v>
-      </c>
-      <c r="R82" s="15">
+        <v>-7.5565911063832605E-2</v>
+      </c>
+      <c r="R82" s="5">
         <v>-26</v>
       </c>
       <c r="S82" s="5">
@@ -6796,7 +6817,7 @@
         <v>1.5267013587267101E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="18">
         <v>33548</v>
       </c>
@@ -6846,9 +6867,9 @@
         <v>1.4294993296061599E-2</v>
       </c>
       <c r="Q83" s="5">
-        <v>3.9646668198509302E-2</v>
-      </c>
-      <c r="R83" s="15">
+        <v>3.9737822809041097E-2</v>
+      </c>
+      <c r="R83" s="5">
         <v>-26</v>
       </c>
       <c r="S83" s="5">
@@ -6867,7 +6888,7 @@
         <v>1.5267013587267101E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A84" s="18">
         <v>33578</v>
       </c>
@@ -6917,13 +6938,13 @@
         <v>1.4179471530221499E-2</v>
       </c>
       <c r="Q84" s="5">
-        <v>6.4320589512250004E-2</v>
-      </c>
-      <c r="R84" s="15">
+        <v>6.3912206980371894E-2</v>
+      </c>
+      <c r="R84" s="5">
         <v>-211</v>
       </c>
       <c r="S84" s="5">
-        <v>-0.92778678047249497</v>
+        <v>-0.84410413379494298</v>
       </c>
       <c r="T84" s="5">
         <v>-3.2790640407582401E-2</v>
@@ -6938,7 +6959,7 @@
         <v>0.118362573485726</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A85" s="18">
         <v>33590</v>
       </c>
@@ -6988,9 +7009,9 @@
         <v>9.1162704891356392E-3</v>
       </c>
       <c r="Q85" s="5">
-        <v>6.4299556357016105E-2</v>
-      </c>
-      <c r="R85" s="15">
+        <v>6.4208002375582399E-2</v>
+      </c>
+      <c r="R85" s="5">
         <v>-211</v>
       </c>
       <c r="S85" s="5">
@@ -7009,7 +7030,7 @@
         <v>0.11400571400765901</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A86" s="18">
         <v>33592</v>
       </c>
@@ -7059,9 +7080,9 @@
         <v>-0.29430262735857399</v>
       </c>
       <c r="Q86" s="5">
-        <v>-0.23753587751990399</v>
-      </c>
-      <c r="R86" s="15">
+        <v>-0.23763167406892199</v>
+      </c>
+      <c r="R86" s="5">
         <v>-211</v>
       </c>
       <c r="S86" s="5">
@@ -7080,7 +7101,7 @@
         <v>0.11621359603149101</v>
       </c>
     </row>
-    <row r="87" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="18">
         <v>33592</v>
       </c>
@@ -7130,9 +7151,9 @@
         <v>-3.7279609025498098E-3</v>
       </c>
       <c r="Q87" s="5">
-        <v>5.3038788936120199E-2</v>
-      </c>
-      <c r="R87" s="15">
+        <v>5.2942992387102601E-2</v>
+      </c>
+      <c r="R87" s="5">
         <v>-211</v>
       </c>
       <c r="S87" s="5">
@@ -7151,7 +7172,7 @@
         <v>0.11621359603149101</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A88" s="18">
         <v>33640</v>
       </c>
@@ -7201,9 +7222,9 @@
         <v>-2.5335017592146999E-3</v>
       </c>
       <c r="Q88" s="5">
-        <v>1.86705087462368E-2</v>
-      </c>
-      <c r="R88" s="15">
+        <v>1.86856307992356E-2</v>
+      </c>
+      <c r="R88" s="5">
         <v>81</v>
       </c>
       <c r="S88" s="5">
@@ -7222,7 +7243,7 @@
         <v>0.115556100767435</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A89" s="18">
         <v>33695</v>
       </c>
@@ -7272,9 +7293,9 @@
         <v>1.8295356496026999E-2</v>
       </c>
       <c r="Q89" s="5">
-        <v>2.3508835944071001E-2</v>
-      </c>
-      <c r="R89" s="15">
+        <v>2.3682164008345701E-2</v>
+      </c>
+      <c r="R89" s="5">
         <v>140</v>
       </c>
       <c r="S89" s="5">
@@ -7293,7 +7314,7 @@
         <v>6.0289835950788802E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A90" s="18">
         <v>33703</v>
       </c>
@@ -7343,9 +7364,9 @@
         <v>-0.249617225521539</v>
       </c>
       <c r="Q90" s="5">
-        <v>-0.224883855579358</v>
-      </c>
-      <c r="R90" s="15">
+        <v>-0.22478737681175501</v>
+      </c>
+      <c r="R90" s="5">
         <v>-49</v>
       </c>
       <c r="S90" s="5">
@@ -7364,7 +7385,7 @@
         <v>8.1214606029385406E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A91" s="18">
         <v>33744</v>
       </c>
@@ -7414,9 +7435,9 @@
         <v>2.5035005757526201E-2</v>
       </c>
       <c r="Q91" s="5">
-        <v>3.3005484956863999E-2</v>
-      </c>
-      <c r="R91" s="15">
+        <v>3.30888708692837E-2</v>
+      </c>
+      <c r="R91" s="5">
         <v>51</v>
       </c>
       <c r="S91" s="5">
@@ -7435,7 +7456,7 @@
         <v>0.120981671326408</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A92" s="18">
         <v>33787</v>
       </c>
@@ -7485,13 +7506,13 @@
         <v>3.6949677917379901E-2</v>
       </c>
       <c r="Q92" s="5">
-        <v>7.0126316375847306E-2</v>
-      </c>
-      <c r="R92" s="15">
+        <v>7.0112258018135504E-2</v>
+      </c>
+      <c r="R92" s="5">
         <v>-212</v>
       </c>
       <c r="S92" s="5">
-        <v>0.368837382981901</v>
+        <v>0.351073159817616</v>
       </c>
       <c r="T92" s="5">
         <v>2.4220444003844901E-2</v>
@@ -7506,7 +7527,7 @@
         <v>0.13169145776282701</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A93" s="18">
         <v>33835</v>
       </c>
@@ -7556,9 +7577,9 @@
         <v>-2.6395473065179598E-3</v>
       </c>
       <c r="Q93" s="5">
-        <v>1.7343940995691201E-3</v>
-      </c>
-      <c r="R93" s="15">
+        <v>1.7879435911592901E-3</v>
+      </c>
+      <c r="R93" s="5">
         <v>88</v>
       </c>
       <c r="S93" s="5">
@@ -7577,7 +7598,7 @@
         <v>0.13062798391987299</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A94" s="18">
         <v>33851</v>
       </c>
@@ -7627,13 +7648,13 @@
         <v>-1.6628701019683102E-2</v>
       </c>
       <c r="Q94" s="5">
-        <v>2.5854086070036E-2</v>
-      </c>
-      <c r="R94" s="15">
+        <v>2.5258731228814599E-2</v>
+      </c>
+      <c r="R94" s="5">
         <v>-233</v>
       </c>
       <c r="S94" s="5">
-        <v>0.46157117209837401</v>
+        <v>0.56620861558602797</v>
       </c>
       <c r="T94" s="5">
         <v>8.1435403778247206E-3</v>
@@ -7648,7 +7669,7 @@
         <v>7.6867080938262E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A95" s="18">
         <v>33884</v>
       </c>
@@ -7698,9 +7719,9 @@
         <v>7.7810303506110198E-3</v>
       </c>
       <c r="Q95" s="5">
-        <v>2.72203226158057E-2</v>
-      </c>
-      <c r="R95" s="15">
+        <v>2.72403824884557E-2</v>
+      </c>
+      <c r="R95" s="5">
         <v>-7</v>
       </c>
       <c r="S95" s="5">
@@ -7719,7 +7740,7 @@
         <v>8.7351717985330396E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A96" s="18">
         <v>33926</v>
       </c>
@@ -7769,9 +7790,9 @@
         <v>2.4239702601046402E-3</v>
       </c>
       <c r="Q96" s="5">
-        <v>1.77962165350464E-2</v>
-      </c>
-      <c r="R96" s="15">
+        <v>1.7824828079397E-2</v>
+      </c>
+      <c r="R96" s="5">
         <v>2</v>
       </c>
       <c r="S96" s="5">
@@ -7790,7 +7811,7 @@
         <v>8.9874719903071304E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A97" s="18">
         <v>33961</v>
       </c>
@@ -7840,9 +7861,9 @@
         <v>-6.4454736865271096E-3</v>
       </c>
       <c r="Q97" s="5">
-        <v>-1.0177609829897199E-3</v>
-      </c>
-      <c r="R97" s="15">
+        <v>-1.0073987800363899E-3</v>
+      </c>
+      <c r="R97" s="5">
         <v>45</v>
       </c>
       <c r="S97" s="5">
@@ -7861,7 +7882,7 @@
         <v>0.15882207246539301</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A98" s="18">
         <v>34004</v>
       </c>
@@ -7911,9 +7932,9 @@
         <v>-1.6079589614999201E-3</v>
       </c>
       <c r="Q98" s="5">
-        <v>5.0677537479340796E-3</v>
-      </c>
-      <c r="R98" s="15">
+        <v>5.0263026611721403E-3</v>
+      </c>
+      <c r="R98" s="5">
         <v>-27</v>
       </c>
       <c r="S98" s="5">
@@ -7932,7 +7953,7 @@
         <v>0.181864751992172</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A99" s="18">
         <v>34052</v>
       </c>
@@ -7982,9 +8003,9 @@
         <v>0</v>
       </c>
       <c r="Q99" s="5">
-        <v>-1.7780196778390399E-2</v>
-      </c>
-      <c r="R99" s="15">
+        <v>-1.7673892293430301E-2</v>
+      </c>
+      <c r="R99" s="5">
         <v>243</v>
       </c>
       <c r="S99" s="5">
@@ -8003,7 +8024,7 @@
         <v>6.1398906445158302E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A100" s="18">
         <v>34108</v>
       </c>
@@ -8053,9 +8074,9 @@
         <v>-1.8232540978281499E-2</v>
       </c>
       <c r="Q100" s="5">
-        <v>-1.14634761438277E-2</v>
-      </c>
-      <c r="R100" s="15">
+        <v>-1.1473040754526501E-2</v>
+      </c>
+      <c r="R100" s="5">
         <v>-31</v>
       </c>
       <c r="S100" s="5">
@@ -8074,7 +8095,7 @@
         <v>0.16282031531876101</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A101" s="18">
         <v>34158</v>
       </c>
@@ -8124,9 +8145,9 @@
         <v>-1.45361460973739E-2</v>
       </c>
       <c r="Q101" s="5">
-        <v>-5.7212199838004704E-3</v>
-      </c>
-      <c r="R101" s="15">
+        <v>-5.76861261748704E-3</v>
+      </c>
+      <c r="R101" s="5">
         <v>-137</v>
       </c>
       <c r="S101" s="5">
@@ -8145,7 +8166,7 @@
         <v>0.212938228872282</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A102" s="18">
         <v>34199</v>
       </c>
@@ -8195,9 +8216,9 @@
         <v>6.5082892042660498E-3</v>
       </c>
       <c r="Q102" s="5">
-        <v>-3.4545940639768498E-4</v>
-      </c>
-      <c r="R102" s="15">
+        <v>-3.7161583501830499E-4</v>
+      </c>
+      <c r="R102" s="5">
         <v>12</v>
       </c>
       <c r="S102" s="5">
@@ -8216,7 +8237,7 @@
         <v>0.25656874225495402</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A103" s="18">
         <v>34234</v>
       </c>
@@ -8266,9 +8287,9 @@
         <v>-6.1516146371077898E-3</v>
       </c>
       <c r="Q103" s="5">
-        <v>1.14510438936061E-2</v>
-      </c>
-      <c r="R103" s="15">
+        <v>1.1320047296274701E-2</v>
+      </c>
+      <c r="R103" s="5">
         <v>-189</v>
       </c>
       <c r="S103" s="5">
@@ -8287,7 +8308,7 @@
         <v>0.18817786463036301</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A104" s="18">
         <v>34290</v>
       </c>
@@ -8337,9 +8358,9 @@
         <v>2.00110561135096E-4</v>
       </c>
       <c r="Q104" s="5">
-        <v>-3.1066294454797599E-3</v>
-      </c>
-      <c r="R104" s="15">
+        <v>-3.1861522691693398E-3</v>
+      </c>
+      <c r="R104" s="5">
         <v>17</v>
       </c>
       <c r="S104" s="5">
@@ -8358,7 +8379,7 @@
         <v>0.24337397644837599</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A105" s="19">
         <v>34325</v>
       </c>
@@ -8408,9 +8429,9 @@
         <v>-3.0456367335167699E-3</v>
       </c>
       <c r="Q105" s="5">
-        <v>-5.7558572807141998E-3</v>
-      </c>
-      <c r="R105" s="15">
+        <v>-5.86348273200286E-3</v>
+      </c>
+      <c r="R105" s="5">
         <v>37</v>
       </c>
       <c r="S105" s="5">
@@ -8429,7 +8450,7 @@
         <v>0.27221765335014902</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A106" s="18">
         <v>34369</v>
       </c>
@@ -8479,13 +8500,13 @@
         <v>0.15041211893890299</v>
       </c>
       <c r="Q106" s="5">
-        <v>0.15176244157292401</v>
-      </c>
-      <c r="R106" s="15">
+        <v>0.15172060084063399</v>
+      </c>
+      <c r="R106" s="5">
         <v>-118</v>
       </c>
       <c r="S106" s="5">
-        <v>2.54196339336925</v>
+        <v>2.51914269726967</v>
       </c>
       <c r="T106" s="5">
         <v>2.5856129513433902E-2</v>
@@ -8500,7 +8521,7 @@
         <v>0.330375361763665</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A107" s="18">
         <v>34415</v>
       </c>
@@ -8550,9 +8571,9 @@
         <v>-5.43171092627752E-2</v>
       </c>
       <c r="Q107" s="5">
-        <v>-6.7437744759759402E-2</v>
-      </c>
-      <c r="R107" s="15">
+        <v>-6.74824561732177E-2</v>
+      </c>
+      <c r="R107" s="5">
         <v>67</v>
       </c>
       <c r="S107" s="5">
@@ -8571,7 +8592,7 @@
         <v>0.32039786752073901</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A108" s="18">
         <v>34442</v>
       </c>
@@ -8621,9 +8642,9 @@
         <v>9.0100183575856002E-2</v>
       </c>
       <c r="Q108" s="5">
-        <v>7.0721354872359601E-2</v>
-      </c>
-      <c r="R108" s="15">
+        <v>7.0725153623653197E-2</v>
+      </c>
+      <c r="R108" s="5">
         <v>226.5</v>
       </c>
       <c r="S108" s="5">
@@ -8642,7 +8663,7 @@
         <v>0.35813394913503899</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A109" s="18">
         <v>34471</v>
       </c>
@@ -8692,9 +8713,9 @@
         <v>-5.5980156825279903E-2</v>
       </c>
       <c r="Q109" s="5">
-        <v>-7.2844549130978598E-2</v>
-      </c>
-      <c r="R109" s="15">
+        <v>-7.2849930683302394E-2</v>
+      </c>
+      <c r="R109" s="5">
         <v>92</v>
       </c>
       <c r="S109" s="5">
@@ -8713,7 +8734,7 @@
         <v>0.385898127843537</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A110" s="18">
         <v>34521</v>
       </c>
@@ -8763,9 +8784,9 @@
         <v>1.05684757437845E-3</v>
       </c>
       <c r="Q110" s="5">
-        <v>-1.2840477963431201E-2</v>
-      </c>
-      <c r="R110" s="15">
+        <v>-1.2939349243823201E-2</v>
+      </c>
+      <c r="R110" s="5">
         <v>-84</v>
       </c>
       <c r="S110" s="5">
@@ -8784,7 +8805,7 @@
         <v>0.47968497470161298</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A111" s="18">
         <v>34562</v>
       </c>
@@ -8834,9 +8855,9 @@
         <v>2.33411172192231E-2</v>
       </c>
       <c r="Q111" s="5">
-        <v>5.7589785290337696E-3</v>
-      </c>
-      <c r="R111" s="15">
+        <v>5.6393508196292902E-3</v>
+      </c>
+      <c r="R111" s="5">
         <v>49</v>
       </c>
       <c r="S111" s="5">
@@ -8855,7 +8876,7 @@
         <v>0.39924042585915098</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A112" s="18">
         <v>34604</v>
       </c>
@@ -8905,9 +8926,9 @@
         <v>-1.3604929558489401E-2</v>
       </c>
       <c r="Q112" s="5">
-        <v>-1.9968744139368399E-2</v>
-      </c>
-      <c r="R112" s="15">
+        <v>-2.0162103148211999E-2</v>
+      </c>
+      <c r="R112" s="5">
         <v>-53.5</v>
       </c>
       <c r="S112" s="5">
@@ -8926,7 +8947,7 @@
         <v>0.44581863358236001</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A113" s="18">
         <v>34653</v>
       </c>
@@ -8976,9 +8997,9 @@
         <v>3.6916454588671502E-2</v>
       </c>
       <c r="Q113" s="5">
-        <v>3.5481211441771299E-2</v>
-      </c>
-      <c r="R113" s="15">
+        <v>3.5360473802021598E-2</v>
+      </c>
+      <c r="R113" s="5">
         <v>-51</v>
       </c>
       <c r="S113" s="5">
@@ -8997,7 +9018,7 @@
         <v>0.17100858364779101</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A114" s="18">
         <v>34688</v>
       </c>
@@ -9047,9 +9068,9 @@
         <v>-2.3535071685810301E-3</v>
       </c>
       <c r="Q114" s="5">
-        <v>-2.5150776091515802E-2</v>
-      </c>
-      <c r="R114" s="15">
+        <v>-2.5108373681375699E-2</v>
+      </c>
+      <c r="R114" s="5">
         <v>100</v>
       </c>
       <c r="S114" s="5">
@@ -9068,7 +9089,7 @@
         <v>0.22261213290628801</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A115" s="18">
         <v>34731</v>
       </c>
@@ -9118,9 +9139,9 @@
         <v>5.7725410830181498E-2</v>
       </c>
       <c r="Q115" s="5">
-        <v>4.4287927895270397E-2</v>
-      </c>
-      <c r="R115" s="15">
+        <v>4.4226235644262403E-2</v>
+      </c>
+      <c r="R115" s="5">
         <v>-4</v>
       </c>
       <c r="S115" s="5">
@@ -9139,7 +9160,7 @@
         <v>0.25749906556802499</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A116" s="18">
         <v>34786</v>
       </c>
@@ -9189,9 +9210,9 @@
         <v>2.3458296292122899E-2</v>
       </c>
       <c r="Q116" s="5">
-        <v>2.6169417061681398E-3</v>
-      </c>
-      <c r="R116" s="15">
+        <v>2.4519238877853599E-3</v>
+      </c>
+      <c r="R116" s="5">
         <v>86</v>
       </c>
       <c r="S116" s="5">
@@ -9210,7 +9231,7 @@
         <v>0.301481705224668</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A117" s="18">
         <v>34842</v>
       </c>
@@ -9260,9 +9281,9 @@
         <v>-6.6553769917536698E-3</v>
       </c>
       <c r="Q117" s="5">
-        <v>-2.7056266599014799E-3</v>
-      </c>
-      <c r="R117" s="15">
+        <v>-2.9128307356316701E-3</v>
+      </c>
+      <c r="R117" s="5">
         <v>-159</v>
       </c>
       <c r="S117" s="5">
@@ -9281,7 +9302,7 @@
         <v>0.21036273618263401</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A118" s="18">
         <v>34886</v>
       </c>
@@ -9331,9 +9352,9 @@
         <v>-0.25215196549347202</v>
       </c>
       <c r="Q118" s="5">
-        <v>-0.22766176421731199</v>
-      </c>
-      <c r="R118" s="15">
+        <v>-0.227930682611128</v>
+      </c>
+      <c r="R118" s="5">
         <v>-273.5</v>
       </c>
       <c r="S118" s="5">
@@ -9352,7 +9373,7 @@
         <v>0.112132737417891</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A119" s="18">
         <v>34933</v>
       </c>
@@ -9402,9 +9423,9 @@
         <v>5.4860493733159599E-2</v>
       </c>
       <c r="Q119" s="5">
-        <v>6.1989854033284698E-2</v>
-      </c>
-      <c r="R119" s="15">
+        <v>6.18267706980472E-2</v>
+      </c>
+      <c r="R119" s="5">
         <v>-70</v>
       </c>
       <c r="S119" s="5">
@@ -9423,7 +9444,7 @@
         <v>0.14810214695568799</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A120" s="18">
         <v>34968</v>
       </c>
@@ -9473,9 +9494,9 @@
         <v>6.7088824387379203E-2</v>
       </c>
       <c r="Q120" s="5">
-        <v>6.1464117446076098E-2</v>
-      </c>
-      <c r="R120" s="15">
+        <v>6.1416917514200503E-2</v>
+      </c>
+      <c r="R120" s="5">
         <v>84</v>
       </c>
       <c r="S120" s="5">
@@ -9494,7 +9515,7 @@
         <v>4.5102525257361997E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A121" s="18">
         <v>35018</v>
       </c>
@@ -9544,9 +9565,9 @@
         <v>3.5543974687313698E-2</v>
       </c>
       <c r="Q121" s="5">
-        <v>3.4582770302629302E-2</v>
-      </c>
-      <c r="R121" s="15">
+        <v>3.4545381767790199E-2</v>
+      </c>
+      <c r="R121" s="5">
         <v>-14</v>
       </c>
       <c r="S121" s="5">
@@ -9565,7 +9586,7 @@
         <v>4.2660749979937601E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A122" s="18">
         <v>35052</v>
       </c>
@@ -9615,9 +9636,9 @@
         <v>-4.3687261351516703E-2</v>
       </c>
       <c r="Q122" s="5">
-        <v>-4.0117442372984403E-2</v>
-      </c>
-      <c r="R122" s="15">
+        <v>-4.01423933888026E-2</v>
+      </c>
+      <c r="R122" s="5">
         <v>6</v>
       </c>
       <c r="S122" s="5">
@@ -9636,7 +9657,7 @@
         <v>-1.10095964337671E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A123" s="18">
         <v>35095</v>
       </c>
@@ -9686,9 +9707,9 @@
         <v>-3.9004573982519199E-2</v>
       </c>
       <c r="Q123" s="5">
-        <v>-3.7981286987086797E-2</v>
-      </c>
-      <c r="R123" s="15">
+        <v>-3.8060327189403199E-2</v>
+      </c>
+      <c r="R123" s="5">
         <v>11</v>
       </c>
       <c r="S123" s="5">
@@ -9707,7 +9728,7 @@
         <v>3.5633876659969199E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A124" s="18">
         <v>35150</v>
       </c>
@@ -9757,9 +9778,9 @@
         <v>2.6013571328892E-2</v>
       </c>
       <c r="Q124" s="5">
-        <v>-1.2663172728559701E-2</v>
-      </c>
-      <c r="R124" s="15">
+        <v>-1.25409954767283E-2</v>
+      </c>
+      <c r="R124" s="5">
         <v>408.5</v>
       </c>
       <c r="S124" s="5">
@@ -9778,7 +9799,7 @@
         <v>0.123506671847452</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A125" s="18">
         <v>35206</v>
       </c>
@@ -9828,9 +9849,9 @@
         <v>1.4179155004669101E-2</v>
       </c>
       <c r="Q125" s="5">
-        <v>2.0067149061408999E-2</v>
-      </c>
-      <c r="R125" s="15">
+        <v>1.9985937314954801E-2</v>
+      </c>
+      <c r="R125" s="5">
         <v>-125.5</v>
       </c>
       <c r="S125" s="5">
@@ -9849,7 +9870,7 @@
         <v>0.22304151713022</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A126" s="18">
         <v>35249</v>
       </c>
@@ -9899,9 +9920,9 @@
         <v>-3.0518013409064602E-2</v>
       </c>
       <c r="Q126" s="5">
-        <v>-3.9470663731293001E-2</v>
-      </c>
-      <c r="R126" s="15">
+        <v>-3.9511162327191603E-2</v>
+      </c>
+      <c r="R126" s="5">
         <v>178</v>
       </c>
       <c r="S126" s="5">
@@ -9920,7 +9941,7 @@
         <v>0.20295930777710999</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A127" s="18">
         <v>35297</v>
       </c>
@@ -9970,9 +9991,9 @@
         <v>2.5764152632274501E-3</v>
       </c>
       <c r="Q127" s="5">
-        <v>1.13020661831474E-2</v>
-      </c>
-      <c r="R127" s="15">
+        <v>1.12116946536433E-2</v>
+      </c>
+      <c r="R127" s="5">
         <v>3</v>
       </c>
       <c r="S127" s="5">
@@ -9991,7 +10012,7 @@
         <v>0.18099787593125899</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A128" s="18">
         <v>35332</v>
       </c>
@@ -10041,9 +10062,9 @@
         <v>-8.4058733488964602E-2</v>
       </c>
       <c r="Q128" s="5">
-        <v>-8.5388905798690795E-2</v>
-      </c>
-      <c r="R128" s="15">
+        <v>-8.5451528684484301E-2</v>
+      </c>
+      <c r="R128" s="5">
         <v>12.5</v>
       </c>
       <c r="S128" s="5">
@@ -10062,7 +10083,7 @@
         <v>0.17166322283329899</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A129" s="18">
         <v>35382</v>
       </c>
@@ -10112,9 +10133,9 @@
         <v>-1.9367987081232701E-2</v>
       </c>
       <c r="Q129" s="5">
-        <v>-2.4971649055828798E-2</v>
-      </c>
-      <c r="R129" s="15">
+        <v>-2.5077463271617698E-2</v>
+      </c>
+      <c r="R129" s="5">
         <v>15</v>
       </c>
       <c r="S129" s="5">
@@ -10133,7 +10154,7 @@
         <v>0.19351291080376901</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A130" s="18">
         <v>35416</v>
       </c>
@@ -10183,9 +10204,9 @@
         <v>-4.5137263210229099E-4</v>
       </c>
       <c r="Q130" s="5">
-        <v>1.8705931704287499E-3</v>
-      </c>
-      <c r="R130" s="15">
+        <v>1.77921687569351E-3</v>
+      </c>
+      <c r="R130" s="5">
         <v>-57</v>
       </c>
       <c r="S130" s="5">
@@ -10204,7 +10225,7 @@
         <v>9.2765460373854802E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A131" s="18">
         <v>35466</v>
       </c>
@@ -10254,9 +10275,9 @@
         <v>7.2826252115912801E-3</v>
       </c>
       <c r="Q131" s="5">
-        <v>-1.6445963249238402E-2</v>
-      </c>
-      <c r="R131" s="15">
+        <v>-1.6517986098627299E-2</v>
+      </c>
+      <c r="R131" s="5">
         <v>87</v>
       </c>
       <c r="S131" s="5">
@@ -10275,7 +10296,7 @@
         <v>0.28131189749338698</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A132" s="18">
         <v>35514</v>
       </c>
@@ -10325,9 +10346,9 @@
         <v>6.6319140820484096E-2</v>
       </c>
       <c r="Q132" s="5">
-        <v>4.8082940275334302E-2</v>
-      </c>
-      <c r="R132" s="15">
+        <v>4.8005627231535702E-2</v>
+      </c>
+      <c r="R132" s="5">
         <v>116</v>
       </c>
       <c r="S132" s="5">
@@ -10346,7 +10367,7 @@
         <v>0.28712384215062298</v>
       </c>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A133" s="18">
         <v>35570</v>
       </c>
@@ -10396,9 +10417,9 @@
         <v>-6.1969921964828298E-2</v>
       </c>
       <c r="Q133" s="5">
-        <v>-6.2988824071134694E-2</v>
-      </c>
-      <c r="R133" s="15">
+        <v>-6.3087812601170704E-2</v>
+      </c>
+      <c r="R133" s="5">
         <v>-56</v>
       </c>
       <c r="S133" s="5">
@@ -10417,7 +10438,7 @@
         <v>0.200212963870227</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A134" s="18">
         <v>35613</v>
       </c>
@@ -10467,9 +10488,9 @@
         <v>-6.9129458550017597E-4</v>
       </c>
       <c r="Q134" s="5">
-        <v>5.8206564673587797E-3</v>
-      </c>
-      <c r="R134" s="15">
+        <v>5.5671154232583503E-3</v>
+      </c>
+      <c r="R134" s="5">
         <v>-87</v>
       </c>
       <c r="S134" s="5">
@@ -10488,7 +10509,7 @@
         <v>0.142044709688428</v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A135" s="18">
         <v>35661</v>
       </c>
@@ -10538,9 +10559,9 @@
         <v>3.6962366181314001E-3</v>
       </c>
       <c r="Q135" s="5">
-        <v>2.8382552274740201E-3</v>
-      </c>
-      <c r="R135" s="15">
+        <v>2.7233708666209999E-3</v>
+      </c>
+      <c r="R135" s="5">
         <v>118</v>
       </c>
       <c r="S135" s="5">
@@ -10559,7 +10580,7 @@
         <v>5.7310590911736799E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A136" s="18">
         <v>35703</v>
       </c>
@@ -10609,9 +10630,9 @@
         <v>-4.7522555389756102E-3</v>
       </c>
       <c r="Q136" s="5">
-        <v>-7.2220024906206898E-3</v>
-      </c>
-      <c r="R136" s="15">
+        <v>-7.3121210740528103E-3</v>
+      </c>
+      <c r="R136" s="5">
         <v>-31</v>
       </c>
       <c r="S136" s="5">
@@ -10630,7 +10651,7 @@
         <v>0.104205843051107</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A137" s="18">
         <v>35746</v>
       </c>
@@ -10680,9 +10701,9 @@
         <v>-3.0024662904863199E-2</v>
       </c>
       <c r="Q137" s="5">
-        <v>-3.0504677834303402E-2</v>
-      </c>
-      <c r="R137" s="15">
+        <v>-3.05113243543499E-2</v>
+      </c>
+      <c r="R137" s="5">
         <v>74</v>
       </c>
       <c r="S137" s="5">
@@ -10701,7 +10722,7 @@
         <v>7.2605029264435003E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A138" s="18">
         <v>35780</v>
       </c>
@@ -10751,9 +10772,9 @@
         <v>-6.5376374616835696E-3</v>
       </c>
       <c r="Q138" s="5">
-        <v>-2.0123991799851901E-2</v>
-      </c>
-      <c r="R138" s="15">
+        <v>-2.0098468824996999E-2</v>
+      </c>
+      <c r="R138" s="5">
         <v>204</v>
       </c>
       <c r="S138" s="5">
@@ -10772,7 +10793,7 @@
         <v>-3.5042217965933001E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A139" s="18">
         <v>35830</v>
       </c>
@@ -10822,9 +10843,9 @@
         <v>1.8800264029760899E-2</v>
       </c>
       <c r="Q139" s="5">
-        <v>1.4011718150861399E-2</v>
-      </c>
-      <c r="R139" s="15">
+        <v>1.3928161731578501E-2</v>
+      </c>
+      <c r="R139" s="5">
         <v>170</v>
       </c>
       <c r="S139" s="5">
@@ -10843,7 +10864,7 @@
         <v>-7.0429609709455596E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A140" s="18">
         <v>35885</v>
       </c>
@@ -10893,9 +10914,9 @@
         <v>4.65766532229229E-4</v>
       </c>
       <c r="Q140" s="5">
-        <v>-6.81831926354099E-3</v>
-      </c>
-      <c r="R140" s="15">
+        <v>-6.9911352975073598E-3</v>
+      </c>
+      <c r="R140" s="5">
         <v>60</v>
       </c>
       <c r="S140" s="5">
@@ -10914,7 +10935,7 @@
         <v>5.5464393270370602E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A141" s="18">
         <v>35934</v>
       </c>
@@ -10964,9 +10985,9 @@
         <v>-1.6610029853885901E-2</v>
       </c>
       <c r="Q141" s="5">
-        <v>-1.0459248533735199E-2</v>
-      </c>
-      <c r="R141" s="15">
+        <v>-1.0633467344855299E-2</v>
+      </c>
+      <c r="R141" s="5">
         <v>-8</v>
       </c>
       <c r="S141" s="5">
@@ -10985,7 +11006,7 @@
         <v>0.15012510976843599</v>
       </c>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A142" s="18">
         <v>35977</v>
       </c>
@@ -11035,9 +11056,9 @@
         <v>3.9796838170925997E-3</v>
       </c>
       <c r="Q142" s="5">
-        <v>1.1044496858369701E-2</v>
-      </c>
-      <c r="R142" s="15">
+        <v>1.09614631939151E-2</v>
+      </c>
+      <c r="R142" s="5">
         <v>71</v>
       </c>
       <c r="S142" s="5">
@@ -11056,7 +11077,7 @@
         <v>-5.9574310522990698E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A143" s="18">
         <v>36025</v>
       </c>
@@ -11106,9 +11127,9 @@
         <v>0</v>
       </c>
       <c r="Q143" s="5">
-        <v>2.0870003946123001E-2</v>
-      </c>
-      <c r="R143" s="15">
+        <v>2.0786685222657999E-2</v>
+      </c>
+      <c r="R143" s="5">
         <v>11</v>
       </c>
       <c r="S143" s="5">
@@ -11127,7 +11148,7 @@
         <v>-3.18002266610629E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A144" s="18">
         <v>36067</v>
       </c>
@@ -11177,9 +11198,9 @@
         <v>2.1409792688107099E-2</v>
       </c>
       <c r="Q144" s="5">
-        <v>5.0468696463404197E-2</v>
-      </c>
-      <c r="R144" s="15">
+        <v>5.0454120869158403E-2</v>
+      </c>
+      <c r="R144" s="5">
         <v>15</v>
       </c>
       <c r="S144" s="5">
@@ -11198,7 +11219,7 @@
         <v>-0.369353548586557</v>
       </c>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A145" s="18">
         <v>36083</v>
       </c>
@@ -11248,9 +11269,9 @@
         <v>-0.28331218147966503</v>
       </c>
       <c r="Q145" s="5">
-        <v>-0.23401810054401201</v>
-      </c>
-      <c r="R145" s="15">
+        <v>-0.234067397132217</v>
+      </c>
+      <c r="R145" s="5">
         <v>-131</v>
       </c>
       <c r="S145" s="5">
@@ -11269,7 +11290,7 @@
         <v>-0.28622214863809797</v>
       </c>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A146" s="18">
         <v>36116</v>
       </c>
@@ -11319,9 +11340,9 @@
         <v>-2.3590831916712299E-2</v>
       </c>
       <c r="Q146" s="5">
-        <v>-1.1578514143398101E-2</v>
-      </c>
-      <c r="R146" s="15">
+        <v>-1.1724831324122E-2</v>
+      </c>
+      <c r="R146" s="5">
         <v>-59</v>
       </c>
       <c r="S146" s="5">
@@ -11340,7 +11361,7 @@
         <v>-5.3491745059905896E-3</v>
       </c>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A147" s="18">
         <v>36151</v>
       </c>
@@ -11390,9 +11411,9 @@
         <v>1.4875408236142899E-3</v>
       </c>
       <c r="Q147" s="5">
-        <v>6.7335284656157698E-3</v>
-      </c>
-      <c r="R147" s="15">
+        <v>6.5518168458430798E-3</v>
+      </c>
+      <c r="R147" s="5">
         <v>97</v>
       </c>
       <c r="S147" s="5">
@@ -11411,7 +11432,7 @@
         <v>-0.115181660802941</v>
       </c>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A148" s="18">
         <v>36194</v>
       </c>
@@ -11461,9 +11482,9 @@
         <v>2.46089349738344E-3</v>
       </c>
       <c r="Q148" s="5">
-        <v>-6.4956601443827101E-3</v>
-      </c>
-      <c r="R148" s="15">
+        <v>-6.5995629801638899E-3</v>
+      </c>
+      <c r="R148" s="5">
         <v>178</v>
       </c>
       <c r="S148" s="5">
@@ -11482,7 +11503,7 @@
         <v>-9.8333171823071205E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A149" s="18">
         <v>36249</v>
       </c>
@@ -11532,9 +11553,9 @@
         <v>-2.59977883180726E-2</v>
       </c>
       <c r="Q149" s="5">
-        <v>-3.6990199893151499E-2</v>
-      </c>
-      <c r="R149" s="15">
+        <v>-3.7097916408473E-2</v>
+      </c>
+      <c r="R149" s="5">
         <v>25</v>
       </c>
       <c r="S149" s="5">
@@ -11553,7 +11574,7 @@
         <v>0.181229772847429</v>
       </c>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A150" s="18">
         <v>36298</v>
       </c>
@@ -11603,9 +11624,9 @@
         <v>0.114505077223303</v>
       </c>
       <c r="Q150" s="5">
-        <v>0.109544325021985</v>
-      </c>
-      <c r="R150" s="15">
+        <v>0.109461557186085</v>
+      </c>
+      <c r="R150" s="5">
         <v>9</v>
       </c>
       <c r="S150" s="5">
@@ -11624,7 +11645,7 @@
         <v>4.2339269879591801E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A151" s="18">
         <v>36341</v>
       </c>
@@ -11674,9 +11695,9 @@
         <v>-0.108994829145</v>
       </c>
       <c r="Q151" s="5">
-        <v>-9.3132871313048496E-2</v>
-      </c>
-      <c r="R151" s="15">
+        <v>-9.33598110955004E-2</v>
+      </c>
+      <c r="R151" s="5">
         <v>-209</v>
       </c>
       <c r="S151" s="5">
@@ -11695,7 +11716,7 @@
         <v>0.29427656335896901</v>
       </c>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A152" s="18">
         <v>36396</v>
       </c>
@@ -11745,9 +11766,9 @@
         <v>-2.0245265069775802E-3</v>
       </c>
       <c r="Q152" s="5">
-        <v>-2.1644758400830601E-2</v>
-      </c>
-      <c r="R152" s="15">
+        <v>-2.1599107118487299E-2</v>
+      </c>
+      <c r="R152" s="5">
         <v>110</v>
       </c>
       <c r="S152" s="5">
@@ -11766,7 +11787,7 @@
         <v>9.2041649023758401E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A153" s="18">
         <v>36438</v>
       </c>
@@ -11816,9 +11837,9 @@
         <v>8.1014089997654706E-2</v>
       </c>
       <c r="Q153" s="5">
-        <v>8.6258650338447804E-2</v>
-      </c>
-      <c r="R153" s="15">
+        <v>8.6237161831777903E-2</v>
+      </c>
+      <c r="R153" s="5">
         <v>-91</v>
       </c>
       <c r="S153" s="5">
@@ -11837,7 +11858,7 @@
         <v>0.167138921835319</v>
       </c>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A154" s="18">
         <v>36480</v>
       </c>
@@ -11887,9 +11908,9 @@
         <v>6.8763264390740805E-2</v>
       </c>
       <c r="Q154" s="5">
-        <v>5.9036374739022401E-2</v>
-      </c>
-      <c r="R154" s="15">
+        <v>5.9017232873180697E-2</v>
+      </c>
+      <c r="R154" s="5">
         <v>12</v>
       </c>
       <c r="S154" s="5">
@@ -11908,7 +11929,7 @@
         <v>7.1746677326678499E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A155" s="18">
         <v>36515</v>
       </c>
@@ -11958,9 +11979,9 @@
         <v>3.5098275796392298E-2</v>
       </c>
       <c r="Q155" s="5">
-        <v>2.1013028276959701E-2</v>
-      </c>
-      <c r="R155" s="15">
+        <v>2.0936100205642402E-2</v>
+      </c>
+      <c r="R155" s="5">
         <v>24</v>
       </c>
       <c r="S155" s="5">
@@ -11979,7 +12000,7 @@
         <v>0.28925777288753601</v>
       </c>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A156" s="18">
         <v>36558</v>
       </c>
@@ -12029,9 +12050,9 @@
         <v>1.88832535825777E-3</v>
       </c>
       <c r="Q156" s="5">
-        <v>-2.2472606363240201E-2</v>
-      </c>
-      <c r="R156" s="15">
+        <v>-2.2429123886522299E-2</v>
+      </c>
+      <c r="R156" s="5">
         <v>90</v>
       </c>
       <c r="S156" s="5">
@@ -12050,7 +12071,7 @@
         <v>0.15557652439029501</v>
       </c>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A157" s="18">
         <v>36606</v>
       </c>
@@ -12100,9 +12121,9 @@
         <v>-4.0846354697107396E-3</v>
       </c>
       <c r="Q157" s="5">
-        <v>7.8857639188171305E-3</v>
-      </c>
-      <c r="R157" s="15">
+        <v>7.8138438542705198E-3</v>
+      </c>
+      <c r="R157" s="5">
         <v>-180</v>
       </c>
       <c r="S157" s="5">
@@ -12121,7 +12142,7 @@
         <v>1.4094889807285699E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A158" s="18">
         <v>36662</v>
       </c>
@@ -12171,9 +12192,9 @@
         <v>5.6087274957733899E-2</v>
       </c>
       <c r="Q158" s="5">
-        <v>4.5320134948397997E-2</v>
-      </c>
-      <c r="R158" s="15">
+        <v>4.5309660541225198E-2</v>
+      </c>
+      <c r="R158" s="5">
         <v>20</v>
       </c>
       <c r="S158" s="5">
@@ -12192,7 +12213,7 @@
         <v>0.166028368832949</v>
       </c>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A159" s="18">
         <v>36705</v>
       </c>
@@ -12242,9 +12263,9 @@
         <v>-3.0679495096667599E-2</v>
       </c>
       <c r="Q159" s="5">
-        <v>-2.19056180833898E-2</v>
-      </c>
-      <c r="R159" s="15">
+        <v>-2.19777000894338E-2</v>
+      </c>
+      <c r="R159" s="5">
         <v>-129</v>
       </c>
       <c r="S159" s="5">
@@ -12263,7 +12284,7 @@
         <v>0.242478782030736</v>
       </c>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A160" s="18">
         <v>36760</v>
       </c>
@@ -12313,9 +12334,9 @@
         <v>1.4668596053124599E-2</v>
       </c>
       <c r="Q160" s="5">
-        <v>2.9501094634869499E-2</v>
-      </c>
-      <c r="R160" s="15">
+        <v>2.9364595925639801E-2</v>
+      </c>
+      <c r="R160" s="5">
         <v>-182</v>
       </c>
       <c r="S160" s="5">
@@ -12334,7 +12355,7 @@
         <v>0.15159955873615999</v>
       </c>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A161" s="18">
         <v>36802</v>
       </c>
@@ -12384,9 +12405,9 @@
         <v>4.38020120741257E-2</v>
       </c>
       <c r="Q161" s="5">
-        <v>5.6030998433776298E-2</v>
-      </c>
-      <c r="R161" s="15">
+        <v>5.5956895298045102E-2</v>
+      </c>
+      <c r="R161" s="5">
         <v>-70</v>
       </c>
       <c r="S161" s="5">
@@ -12405,7 +12426,7 @@
         <v>0.114086885763902</v>
       </c>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A162" s="18">
         <v>36845</v>
       </c>
@@ -12455,9 +12476,9 @@
         <v>5.2257553138354102E-3</v>
       </c>
       <c r="Q162" s="5">
-        <v>1.9096107248134101E-2</v>
-      </c>
-      <c r="R162" s="15">
+        <v>1.9125474686801799E-2</v>
+      </c>
+      <c r="R162" s="5">
         <v>-46</v>
       </c>
       <c r="S162" s="5">
@@ -12476,7 +12497,7 @@
         <v>8.3015202871917299E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A163" s="18">
         <v>36879</v>
       </c>
@@ -12526,9 +12547,9 @@
         <v>2.23957749765584E-2</v>
       </c>
       <c r="Q163" s="5">
-        <v>5.16259509233934E-2</v>
-      </c>
-      <c r="R163" s="15">
+        <v>5.1663481644588297E-2</v>
+      </c>
+      <c r="R163" s="5">
         <v>-54</v>
       </c>
       <c r="S163" s="5">
@@ -12547,7 +12568,7 @@
         <v>-8.8927536844124799E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A164" s="18">
         <v>36894</v>
       </c>
@@ -12597,9 +12618,9 @@
         <v>-0.13473066140056</v>
       </c>
       <c r="Q164" s="5">
-        <v>-9.9153925042615804E-2</v>
-      </c>
-      <c r="R164" s="15">
+        <v>-9.9094627663623203E-2</v>
+      </c>
+      <c r="R164" s="5">
         <v>-54</v>
       </c>
       <c r="S164" s="5">
@@ -12618,7 +12639,7 @@
         <v>-0.21412137488518701</v>
       </c>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A165" s="18">
         <v>36922</v>
       </c>
@@ -12668,9 +12689,9 @@
         <v>-1.11946484232855E-2</v>
       </c>
       <c r="Q165" s="5">
-        <v>9.1329607157861203E-3</v>
-      </c>
-      <c r="R165" s="15">
+        <v>9.0952871017578093E-3</v>
+      </c>
+      <c r="R165" s="5">
         <v>-10</v>
       </c>
       <c r="S165" s="5">
@@ -12689,7 +12710,7 @@
         <v>-0.14804862028561999</v>
       </c>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A166" s="18">
         <v>36970</v>
       </c>
@@ -12739,9 +12760,9 @@
         <v>-7.4526480176260304E-2</v>
       </c>
       <c r="Q166" s="5">
-        <v>-2.79971199360784E-2</v>
-      </c>
-      <c r="R166" s="15">
+        <v>-2.7985477120797402E-2</v>
+      </c>
+      <c r="R166" s="5">
         <v>60</v>
       </c>
       <c r="S166" s="5">
@@ -12760,7 +12781,7 @@
         <v>-0.20486524279208501</v>
       </c>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A167" s="18">
         <v>36999</v>
       </c>
@@ -12810,9 +12831,9 @@
         <v>-0.31069606327489302</v>
       </c>
       <c r="Q167" s="5">
-        <v>-0.248758343382876</v>
-      </c>
-      <c r="R167" s="15">
+        <v>-0.24880703561019801</v>
+      </c>
+      <c r="R167" s="5">
         <v>-149</v>
       </c>
       <c r="S167" s="5">
@@ -12831,7 +12852,7 @@
         <v>-0.29695385919296402</v>
       </c>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A168" s="18">
         <v>37026</v>
       </c>
@@ -12881,9 +12902,9 @@
         <v>-0.13740048818679901</v>
       </c>
       <c r="Q168" s="5">
-        <v>-7.2989482556644406E-2</v>
-      </c>
-      <c r="R168" s="15">
+        <v>-7.31554224397888E-2</v>
+      </c>
+      <c r="R168" s="5">
         <v>-258</v>
       </c>
       <c r="S168" s="5">
@@ -12902,7 +12923,7 @@
         <v>-5.84189103824576E-3</v>
       </c>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A169" s="18">
         <v>37069</v>
       </c>
@@ -12952,9 +12973,9 @@
         <v>7.6806443451090597E-2</v>
       </c>
       <c r="Q169" s="5">
-        <v>0.109078855559728</v>
-      </c>
-      <c r="R169" s="15">
+        <v>0.10899169235448999</v>
+      </c>
+      <c r="R169" s="5">
         <v>6</v>
       </c>
       <c r="S169" s="5">
@@ -12973,7 +12994,7 @@
         <v>-8.4712078113713701E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A170" s="18">
         <v>37124</v>
       </c>
@@ -13023,9 +13044,9 @@
         <v>-3.6339450921091497E-2</v>
       </c>
       <c r="Q170" s="5">
-        <v>1.9629146841251E-3</v>
-      </c>
-      <c r="R170" s="15">
+        <v>2.0481610771130999E-3</v>
+      </c>
+      <c r="R170" s="5">
         <v>8</v>
       </c>
       <c r="S170" s="5">
@@ -13044,7 +13065,7 @@
         <v>-3.0800844701350399E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A171" s="20">
         <v>37151</v>
       </c>
@@ -13096,7 +13117,7 @@
       <c r="Q171" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="R171" s="14">
+      <c r="R171" s="6">
         <v>-68</v>
       </c>
       <c r="S171" s="6">
@@ -13115,7 +13136,7 @@
         <v>-0.136249711714689</v>
       </c>
     </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A172" s="18">
         <v>37166</v>
       </c>
@@ -13165,9 +13186,9 @@
         <v>-6.2751372108426198E-2</v>
       </c>
       <c r="Q172" s="5">
-        <v>-2.3733015118144601E-3</v>
-      </c>
-      <c r="R172" s="15">
+        <v>-2.32115501471898E-3</v>
+      </c>
+      <c r="R172" s="5">
         <v>-68</v>
       </c>
       <c r="S172" s="5">
@@ -13186,7 +13207,7 @@
         <v>-0.122475771933742</v>
       </c>
     </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A173" s="18">
         <v>37201</v>
       </c>
@@ -13236,9 +13257,9 @@
         <v>-0.16123672019566601</v>
       </c>
       <c r="Q173" s="5">
-        <v>-9.0492627293543404E-2</v>
-      </c>
-      <c r="R173" s="15">
+        <v>-9.0539044920573394E-2</v>
+      </c>
+      <c r="R173" s="5">
         <v>-140</v>
       </c>
       <c r="S173" s="5">
@@ -13257,7 +13278,7 @@
         <v>-0.115300509613309</v>
       </c>
     </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A174" s="18">
         <v>37236</v>
       </c>
@@ -13307,9 +13328,9 @@
         <v>-7.0266186030778499E-2</v>
       </c>
       <c r="Q174" s="5">
-        <v>-2.42713984708252E-3</v>
-      </c>
-      <c r="R174" s="15">
+        <v>-2.5713094015034099E-3</v>
+      </c>
+      <c r="R174" s="5">
         <v>-131</v>
       </c>
       <c r="S174" s="5">
@@ -13328,7 +13349,7 @@
         <v>-4.4802772977370502E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A175" s="18">
         <v>37286</v>
       </c>
@@ -13378,9 +13399,9 @@
         <v>2.74431930068108E-2</v>
       </c>
       <c r="Q175" s="5">
-        <v>5.1801051164316603E-2</v>
-      </c>
-      <c r="R175" s="15">
+        <v>5.1902719263175502E-2</v>
+      </c>
+      <c r="R175" s="5">
         <v>46</v>
       </c>
       <c r="S175" s="5">
@@ -13399,7 +13420,7 @@
         <v>7.9869667028929794E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A176" s="18">
         <v>37334</v>
       </c>
@@ -13449,9 +13470,9 @@
         <v>-6.9265335053882701E-2</v>
       </c>
       <c r="Q176" s="5">
-        <v>-7.3380685846876501E-2</v>
-      </c>
-      <c r="R176" s="15">
+        <v>-7.3082229485927602E-2</v>
+      </c>
+      <c r="R176" s="5">
         <v>66</v>
       </c>
       <c r="S176" s="5">
@@ -13470,7 +13491,7 @@
         <v>9.6740966727959996E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A177" s="18">
         <v>37383</v>
       </c>
@@ -13520,9 +13541,9 @@
         <v>-4.5077590091061E-2</v>
       </c>
       <c r="Q177" s="5">
-        <v>-3.0085282623365999E-2</v>
-      </c>
-      <c r="R177" s="15">
+        <v>-2.9840238180246E-2</v>
+      </c>
+      <c r="R177" s="5">
         <v>-10</v>
       </c>
       <c r="S177" s="5">
@@ -13541,7 +13562,7 @@
         <v>0.168316176961115</v>
       </c>
     </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A178" s="18">
         <v>37433</v>
       </c>
@@ -13591,9 +13612,9 @@
         <v>1.1849882809493201E-2</v>
       </c>
       <c r="Q178" s="5">
-        <v>4.8045521917246099E-2</v>
-      </c>
-      <c r="R178" s="15">
+        <v>4.8268641584863298E-2</v>
+      </c>
+      <c r="R178" s="5">
         <v>-24</v>
       </c>
       <c r="S178" s="5">
@@ -13612,7 +13633,7 @@
         <v>0.14499135625517301</v>
       </c>
     </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A179" s="18">
         <v>37481</v>
       </c>
@@ -13662,9 +13683,9 @@
         <v>-0.11883553187950301</v>
       </c>
       <c r="Q179" s="5">
-        <v>-7.3793199496373599E-2</v>
-      </c>
-      <c r="R179" s="15">
+        <v>-7.3544127457254999E-2</v>
+      </c>
+      <c r="R179" s="5">
         <v>-49</v>
       </c>
       <c r="S179" s="5">
@@ -13683,7 +13704,7 @@
         <v>-8.6332623979311698E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A180" s="18">
         <v>37523</v>
       </c>
@@ -13733,9 +13754,9 @@
         <v>-1.27810993483951E-2</v>
       </c>
       <c r="Q180" s="5">
-        <v>9.6169877256357707E-3</v>
-      </c>
-      <c r="R180" s="15">
+        <v>9.9769636024275993E-3</v>
+      </c>
+      <c r="R180" s="5">
         <v>9</v>
       </c>
       <c r="S180" s="5">
@@ -13754,7 +13775,7 @@
         <v>4.2209630892592602E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A181" s="18">
         <v>37566</v>
       </c>
@@ -13804,9 +13825,9 @@
         <v>-8.3170640001249505E-2</v>
       </c>
       <c r="Q181" s="5">
-        <v>-8.6218195749143398E-2</v>
-      </c>
-      <c r="R181" s="15">
+        <v>-8.6126728194908603E-2</v>
+      </c>
+      <c r="R181" s="5">
         <v>-5</v>
       </c>
       <c r="S181" s="5">
@@ -13825,7 +13846,7 @@
         <v>0.25900445918897902</v>
       </c>
     </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A182" s="18">
         <v>37600</v>
       </c>
@@ -13875,9 +13896,9 @@
         <v>2.0409368170344298E-2</v>
       </c>
       <c r="Q182" s="5">
-        <v>4.3820767627100403E-2</v>
-      </c>
-      <c r="R182" s="15">
+        <v>4.3831966287785303E-2</v>
+      </c>
+      <c r="R182" s="5">
         <v>-65</v>
       </c>
       <c r="S182" s="5">
@@ -13896,7 +13917,7 @@
         <v>0.25009578097618701</v>
       </c>
     </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A183" s="18">
         <v>37650</v>
       </c>
@@ -13946,9 +13967,9 @@
         <v>5.0689684755028198E-2</v>
       </c>
       <c r="Q183" s="5">
-        <v>6.5231492232572297E-2</v>
-      </c>
-      <c r="R183" s="15">
+        <v>6.5309658725249201E-2</v>
+      </c>
+      <c r="R183" s="5">
         <v>-121</v>
       </c>
       <c r="S183" s="5">
@@ -13967,7 +13988,7 @@
         <v>0.358081827652944</v>
       </c>
     </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A184" s="18">
         <v>37698</v>
       </c>
@@ -14017,9 +14038,9 @@
         <v>-1.2381799913316E-3</v>
       </c>
       <c r="Q184" s="5">
-        <v>4.2911317411986602E-2</v>
-      </c>
-      <c r="R184" s="15">
+        <v>4.28797592188261E-2</v>
+      </c>
+      <c r="R184" s="5">
         <v>-328</v>
       </c>
       <c r="S184" s="5">
@@ -14038,7 +14059,7 @@
         <v>0.21120447864375999</v>
       </c>
     </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A185" s="18">
         <v>37747</v>
       </c>
@@ -14088,9 +14109,9 @@
         <v>-9.3798394026593804E-2</v>
       </c>
       <c r="Q185" s="5">
-        <v>-8.5184933812762306E-2</v>
-      </c>
-      <c r="R185" s="15">
+        <v>-8.5231079865045106E-2</v>
+      </c>
+      <c r="R185" s="5">
         <v>2</v>
       </c>
       <c r="S185" s="5">
@@ -14109,7 +14130,7 @@
         <v>0.413152220294912</v>
       </c>
     </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A186" s="18">
         <v>37797</v>
       </c>
@@ -14159,9 +14180,9 @@
         <v>0.13091603176154901</v>
       </c>
       <c r="Q186" s="5">
-        <v>0.131408205208246</v>
-      </c>
-      <c r="R186" s="15">
+        <v>0.13149181069822199</v>
+      </c>
+      <c r="R186" s="5">
         <v>8</v>
       </c>
       <c r="S186" s="5">
@@ -14180,7 +14201,7 @@
         <v>0.177881093887162</v>
       </c>
     </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A187" s="18">
         <v>37845</v>
       </c>
@@ -14230,9 +14251,9 @@
         <v>-3.9334190650425802E-2</v>
       </c>
       <c r="Q187" s="5">
-        <v>-2.2498151833432699E-2</v>
-      </c>
-      <c r="R187" s="15">
+        <v>-2.25792583965993E-2</v>
+      </c>
+      <c r="R187" s="5">
         <v>-54</v>
       </c>
       <c r="S187" s="5">
@@ -14251,7 +14272,7 @@
         <v>0.388580377779769</v>
       </c>
     </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A188" s="18">
         <v>37880</v>
       </c>
@@ -14301,9 +14322,9 @@
         <v>-2.7178293095339299E-3</v>
       </c>
       <c r="Q188" s="5">
-        <v>2.3999185772825001E-2</v>
-      </c>
-      <c r="R188" s="15">
+        <v>2.38949268297729E-2</v>
+      </c>
+      <c r="R188" s="5">
         <v>-108</v>
       </c>
       <c r="S188" s="5">
@@ -14322,7 +14343,7 @@
         <v>0.41233297090655202</v>
       </c>
     </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A189" s="18">
         <v>37922</v>
       </c>
@@ -14372,9 +14393,9 @@
         <v>-9.0985196261360701E-2</v>
       </c>
       <c r="Q189" s="5">
-        <v>-0.107847387058991</v>
-      </c>
-      <c r="R189" s="15">
+        <v>-0.107724864698936</v>
+      </c>
+      <c r="R189" s="5">
         <v>77</v>
       </c>
       <c r="S189" s="5">
@@ -14393,7 +14414,7 @@
         <v>0.49623275735779998</v>
       </c>
     </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A190" s="18">
         <v>37964</v>
       </c>
@@ -14443,9 +14464,9 @@
         <v>3.4295786001956097E-2</v>
       </c>
       <c r="Q190" s="5">
-        <v>2.9696012570446E-2</v>
-      </c>
-      <c r="R190" s="15">
+        <v>2.9801354161600801E-2</v>
+      </c>
+      <c r="R190" s="5">
         <v>-90</v>
       </c>
       <c r="S190" s="5">
@@ -14464,7 +14485,7 @@
         <v>0.31271487725309599</v>
       </c>
     </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A191" s="18">
         <v>38014</v>
       </c>
@@ -14514,9 +14535,9 @@
         <v>0.142004548968686</v>
       </c>
       <c r="Q191" s="5">
-        <v>0.14149554566103201</v>
-      </c>
-      <c r="R191" s="15">
+        <v>0.14147670804347501</v>
+      </c>
+      <c r="R191" s="5">
         <v>-147</v>
       </c>
       <c r="S191" s="5">
@@ -14535,7 +14556,7 @@
         <v>0.373192777226793</v>
       </c>
     </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A192" s="18">
         <v>38062</v>
       </c>
@@ -14585,9 +14606,9 @@
         <v>-6.8257493819024406E-2</v>
       </c>
       <c r="Q192" s="5">
-        <v>-7.5326964286664203E-2</v>
-      </c>
-      <c r="R192" s="15">
+        <v>-7.5312445100950198E-2</v>
+      </c>
+      <c r="R192" s="5">
         <v>-104</v>
       </c>
       <c r="S192" s="5">
@@ -14606,7 +14627,7 @@
         <v>0.57245410553135601</v>
       </c>
     </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A193" s="18">
         <v>38111</v>
       </c>
@@ -14656,9 +14677,9 @@
         <v>-8.5400712103454095E-4</v>
       </c>
       <c r="Q193" s="5">
-        <v>-2.9333449705184499E-2</v>
-      </c>
-      <c r="R193" s="15">
+        <v>-2.9191966049758301E-2</v>
+      </c>
+      <c r="R193" s="5">
         <v>208</v>
       </c>
       <c r="S193" s="5">
@@ -14677,7 +14698,7 @@
         <v>0.53616992421222998</v>
       </c>
     </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A194" s="18">
         <v>38168</v>
       </c>
@@ -14727,9 +14748,9 @@
         <v>-2.1330877633994199E-2</v>
       </c>
       <c r="Q194" s="5">
-        <v>-1.2170769775156E-2</v>
-      </c>
-      <c r="R194" s="15">
+        <v>-1.2217393659952501E-2</v>
+      </c>
+      <c r="R194" s="5">
         <v>28</v>
       </c>
       <c r="S194" s="5">
@@ -14748,7 +14769,7 @@
         <v>0.235442409816842</v>
       </c>
     </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A195" s="18">
         <v>38209</v>
       </c>
@@ -14798,9 +14819,9 @@
         <v>4.6288430042031301E-2</v>
       </c>
       <c r="Q195" s="5">
-        <v>7.3689907391159395E-2</v>
-      </c>
-      <c r="R195" s="15">
+        <v>7.3643958846517199E-2</v>
+      </c>
+      <c r="R195" s="5">
         <v>-193</v>
       </c>
       <c r="S195" s="5">
@@ -14819,7 +14840,7 @@
         <v>0.227262058082317</v>
       </c>
     </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A196" s="18">
         <v>38251</v>
       </c>
@@ -14869,9 +14890,9 @@
         <v>-2.0240614083685101E-2</v>
       </c>
       <c r="Q196" s="5">
-        <v>-1.31139351592364E-2</v>
-      </c>
-      <c r="R196" s="15">
+        <v>-1.3058585788595299E-2</v>
+      </c>
+      <c r="R196" s="5">
         <v>-6</v>
       </c>
       <c r="S196" s="5">
@@ -14890,7 +14911,7 @@
         <v>5.0357777284215699E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A197" s="18">
         <v>38301</v>
       </c>
@@ -14940,9 +14961,9 @@
         <v>-2.9520584024652699E-2</v>
       </c>
       <c r="Q197" s="5">
-        <v>-5.8980011895784799E-2</v>
-      </c>
-      <c r="R197" s="15">
+        <v>-5.8895290967011002E-2</v>
+      </c>
+      <c r="R197" s="5">
         <v>157</v>
       </c>
       <c r="S197" s="5">
@@ -14961,7 +14982,7 @@
         <v>0.23084989301644801</v>
       </c>
     </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A198" s="18">
         <v>38335</v>
       </c>
@@ -15011,9 +15032,9 @@
         <v>-1.41872047728583E-2</v>
       </c>
       <c r="Q198" s="5">
-        <v>-1.7742721687571999E-2</v>
-      </c>
-      <c r="R198" s="15">
+        <v>-1.7778347753794801E-2</v>
+      </c>
+      <c r="R198" s="5">
         <v>-87</v>
       </c>
       <c r="S198" s="5">
@@ -15032,7 +15053,7 @@
         <v>0.27972229226408302</v>
       </c>
     </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A199" s="18">
         <v>38385</v>
       </c>
@@ -15082,9 +15103,9 @@
         <v>-1.9494395485847901E-2</v>
       </c>
       <c r="Q199" s="5">
-        <v>-2.4485091851694198E-2</v>
-      </c>
-      <c r="R199" s="15">
+        <v>-2.4532985013612001E-2</v>
+      </c>
+      <c r="R199" s="5">
         <v>-18</v>
       </c>
       <c r="S199" s="5">
@@ -15103,7 +15124,7 @@
         <v>0.38277367096471399</v>
       </c>
     </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A200" s="18">
         <v>38433</v>
       </c>
@@ -15153,9 +15174,9 @@
         <v>8.0149354500621495E-2</v>
       </c>
       <c r="Q200" s="5">
-        <v>6.3453476499022901E-2</v>
-      </c>
-      <c r="R200" s="15">
+        <v>6.3512343152116402E-2</v>
+      </c>
+      <c r="R200" s="5">
         <v>43</v>
       </c>
       <c r="S200" s="5">
@@ -15174,7 +15195,7 @@
         <v>0.39072805218724699</v>
       </c>
     </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A201" s="18">
         <v>38475</v>
       </c>
@@ -15224,9 +15245,9 @@
         <v>1.9470879232388601E-2</v>
       </c>
       <c r="Q201" s="5">
-        <v>2.1594885539050701E-2</v>
-      </c>
-      <c r="R201" s="15">
+        <v>2.1588226250711402E-2</v>
+      </c>
+      <c r="R201" s="5">
         <v>-115</v>
       </c>
       <c r="S201" s="5">
@@ -15245,7 +15266,7 @@
         <v>0.31978894881991299</v>
       </c>
     </row>
-    <row r="202" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A202" s="18">
         <v>38533</v>
       </c>
@@ -15295,9 +15316,9 @@
         <v>5.0283738607175103E-2</v>
       </c>
       <c r="Q202" s="5">
-        <v>5.8732523120316502E-2</v>
-      </c>
-      <c r="R202" s="15">
+        <v>5.8699070746647902E-2</v>
+      </c>
+      <c r="R202" s="5">
         <v>-97</v>
       </c>
       <c r="S202" s="5">
@@ -15316,7 +15337,7 @@
         <v>0.17900613396006099</v>
       </c>
     </row>
-    <row r="203" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A203" s="18">
         <v>38573</v>
       </c>
@@ -15366,9 +15387,9 @@
         <v>-1.7386425362658799E-2</v>
       </c>
       <c r="Q203" s="5">
-        <v>-3.2153690459934298E-2</v>
-      </c>
-      <c r="R203" s="15">
+        <v>-3.2123747864615103E-2</v>
+      </c>
+      <c r="R203" s="5">
         <v>27</v>
       </c>
       <c r="S203" s="5">
@@ -15387,7 +15408,7 @@
         <v>0.212175126456152</v>
       </c>
     </row>
-    <row r="204" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A204" s="18">
         <v>38615</v>
       </c>
@@ -15437,9 +15458,9 @@
         <v>1.8450335788918099E-2</v>
       </c>
       <c r="Q204" s="5">
-        <v>1.46757040375793E-2</v>
-      </c>
-      <c r="R204" s="15">
+        <v>1.4675587359118E-2</v>
+      </c>
+      <c r="R204" s="5">
         <v>-21</v>
       </c>
       <c r="S204" s="5">
@@ -15458,7 +15479,7 @@
         <v>0.14149170627997601</v>
       </c>
     </row>
-    <row r="205" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A205" s="18">
         <v>38657</v>
       </c>
@@ -15508,9 +15529,9 @@
         <v>6.3905496741915599E-3</v>
       </c>
       <c r="Q205" s="5">
-        <v>-4.0181814589696904E-3</v>
-      </c>
-      <c r="R205" s="15">
+        <v>-3.9562024539102E-3</v>
+      </c>
+      <c r="R205" s="5">
         <v>108</v>
       </c>
       <c r="S205" s="5">
@@ -15529,7 +15550,7 @@
         <v>0.1846102292914</v>
       </c>
     </row>
-    <row r="206" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A206" s="18">
         <v>38699</v>
       </c>
@@ -15579,9 +15600,9 @@
         <v>-2.7693843336216099E-2</v>
       </c>
       <c r="Q206" s="5">
-        <v>-4.00219833929992E-2</v>
-      </c>
-      <c r="R206" s="15">
+        <v>-4.0019924700125803E-2</v>
+      </c>
+      <c r="R206" s="5">
         <v>6</v>
       </c>
       <c r="S206" s="5">
@@ -15600,7 +15621,7 @@
         <v>0.31797807421930002</v>
       </c>
     </row>
-    <row r="207" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A207" s="18">
         <v>38748</v>
       </c>
@@ -15650,9 +15671,9 @@
         <v>3.2571888173447097E-2</v>
       </c>
       <c r="Q207" s="5">
-        <v>3.0192922779573101E-2</v>
-      </c>
-      <c r="R207" s="15">
+        <v>3.0113670907767801E-2</v>
+      </c>
+      <c r="R207" s="5">
         <v>-92</v>
       </c>
       <c r="S207" s="5">
@@ -15671,7 +15692,7 @@
         <v>0.22569724767521901</v>
       </c>
     </row>
-    <row r="208" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A208" s="18">
         <v>38804</v>
       </c>
@@ -15721,9 +15742,9 @@
         <v>5.01552707011092E-2</v>
       </c>
       <c r="Q208" s="5">
-        <v>4.8090746260520102E-2</v>
-      </c>
-      <c r="R208" s="15">
+        <v>4.8018968681689603E-2</v>
+      </c>
+      <c r="R208" s="5">
         <v>43</v>
       </c>
       <c r="S208" s="5">
@@ -15742,7 +15763,7 @@
         <v>0.25715865463580101</v>
       </c>
     </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A209" s="18">
         <v>38847</v>
       </c>
@@ -15792,9 +15813,9 @@
         <v>5.7326441865364099E-2</v>
       </c>
       <c r="Q209" s="5">
-        <v>5.3890870373715101E-2</v>
-      </c>
-      <c r="R209" s="15">
+        <v>5.3836770157337302E-2</v>
+      </c>
+      <c r="R209" s="5">
         <v>-62</v>
       </c>
       <c r="S209" s="5">
@@ -15813,7 +15834,7 @@
         <v>0.14608577876067699</v>
       </c>
     </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A210" s="18">
         <v>38897</v>
       </c>
@@ -15863,9 +15884,9 @@
         <v>-4.2071502879349999E-2</v>
       </c>
       <c r="Q210" s="5">
-        <v>-2.7519496903904601E-2</v>
-      </c>
-      <c r="R210" s="15">
+        <v>-2.7545007780206601E-2</v>
+      </c>
+      <c r="R210" s="5">
         <v>-105</v>
       </c>
       <c r="S210" s="5">
@@ -15884,7 +15905,7 @@
         <v>9.93106350987637E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A211" s="18">
         <v>38937</v>
       </c>
@@ -15934,9 +15955,9 @@
         <v>-3.3483656177402198E-2</v>
       </c>
       <c r="Q211" s="5">
-        <v>-2.3005254055737299E-2</v>
-      </c>
-      <c r="R211" s="15">
+        <v>-2.2988903431008501E-2</v>
+      </c>
+      <c r="R211" s="5">
         <v>-33</v>
       </c>
       <c r="S211" s="5">
@@ -15955,7 +15976,7 @@
         <v>8.3418326414009897E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A212" s="18">
         <v>38980</v>
       </c>
@@ -16005,9 +16026,9 @@
         <v>1.88502916700381E-2</v>
       </c>
       <c r="Q212" s="5">
-        <v>3.07072143780012E-2</v>
-      </c>
-      <c r="R212" s="15">
+        <v>3.0658438504900298E-2</v>
+      </c>
+      <c r="R212" s="5">
         <v>3</v>
       </c>
       <c r="S212" s="5">
@@ -16026,7 +16047,7 @@
         <v>-3.0621643997641699E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A213" s="18">
         <v>39015</v>
       </c>
@@ -16076,9 +16097,9 @@
         <v>-1.03702334912951E-2</v>
       </c>
       <c r="Q213" s="5">
-        <v>-1.0427652983091499E-3</v>
-      </c>
-      <c r="R213" s="15">
+        <v>-1.1151227669485299E-3</v>
+      </c>
+      <c r="R213" s="5">
         <v>-74</v>
       </c>
       <c r="S213" s="5">
@@ -16097,7 +16118,7 @@
         <v>-4.2710630264817799E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A214" s="18">
         <v>39063</v>
       </c>
@@ -16147,9 +16168,9 @@
         <v>-3.4645034540175701E-2</v>
       </c>
       <c r="Q214" s="5">
-        <v>-3.7803497423560303E-2</v>
-      </c>
-      <c r="R214" s="15">
+        <v>-3.7759645015540202E-2</v>
+      </c>
+      <c r="R214" s="5">
         <v>22</v>
       </c>
       <c r="S214" s="5">
@@ -16168,7 +16189,7 @@
         <v>-0.14264117484854899</v>
       </c>
     </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A215" s="18">
         <v>39113</v>
       </c>
@@ -16218,9 +16239,9 @@
         <v>-9.6134447802357203E-3</v>
       </c>
       <c r="Q215" s="5">
-        <v>-2.8362067643440498E-3</v>
-      </c>
-      <c r="R215" s="15">
+        <v>-2.8398450688046401E-3</v>
+      </c>
+      <c r="R215" s="5">
         <v>52</v>
       </c>
       <c r="S215" s="5">
@@ -16239,7 +16260,7 @@
         <v>-4.2069910757505498E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A216" s="18">
         <v>39162</v>
       </c>
@@ -16289,9 +16310,9 @@
         <v>-9.7927015585465002E-2</v>
       </c>
       <c r="Q216" s="5">
-        <v>-6.9261448162568101E-2</v>
-      </c>
-      <c r="R216" s="15">
+        <v>-6.9211391377176107E-2</v>
+      </c>
+      <c r="R216" s="5">
         <v>-3</v>
       </c>
       <c r="S216" s="5">
@@ -16310,7 +16331,7 @@
         <v>-0.44363812614067399</v>
       </c>
     </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A217" s="18">
         <v>39211</v>
       </c>
@@ -16360,9 +16381,9 @@
         <v>4.1039987128268E-2</v>
       </c>
       <c r="Q217" s="5">
-        <v>4.7753667118996902E-2</v>
-      </c>
-      <c r="R217" s="15">
+        <v>4.7791331668118602E-2</v>
+      </c>
+      <c r="R217" s="5">
         <v>-18</v>
       </c>
       <c r="S217" s="5">
@@ -16381,7 +16402,7 @@
         <v>-7.4969123578710106E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A218" s="18">
         <v>39261</v>
       </c>
@@ -16431,9 +16452,9 @@
         <v>1.5317754503759599E-2</v>
       </c>
       <c r="Q218" s="5">
-        <v>6.9074331334952402E-3</v>
-      </c>
-      <c r="R218" s="15">
+        <v>6.81187758402442E-3</v>
+      </c>
+      <c r="R218" s="5">
         <v>17</v>
       </c>
       <c r="S218" s="5">
@@ -16452,7 +16473,7 @@
         <v>0.56673868285681295</v>
       </c>
     </row>
-    <row r="219" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A219" s="18">
         <v>39301</v>
       </c>
@@ -16502,9 +16523,9 @@
         <v>-1.9048394014117401E-2</v>
       </c>
       <c r="Q219" s="5">
-        <v>1.4316905014856199E-2</v>
-      </c>
-      <c r="R219" s="15">
+        <v>1.4297052453867899E-2</v>
+      </c>
+      <c r="R219" s="5">
         <v>-38</v>
       </c>
       <c r="S219" s="5">
@@ -16523,7 +16544,7 @@
         <v>-0.191985676215113</v>
       </c>
     </row>
-    <row r="220" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A220" s="18">
         <v>39304</v>
       </c>
@@ -16573,9 +16594,9 @@
         <v>3.8905151753018401E-3</v>
       </c>
       <c r="Q220" s="5">
-        <v>4.0792343316446197E-2</v>
-      </c>
-      <c r="R220" s="15">
+        <v>4.0795989268245902E-2</v>
+      </c>
+      <c r="R220" s="5">
         <v>-38</v>
       </c>
       <c r="S220" s="5">
@@ -16594,7 +16615,7 @@
         <v>-0.30491364266791998</v>
       </c>
     </row>
-    <row r="221" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A221" s="18">
         <v>39311</v>
       </c>
@@ -16644,9 +16665,9 @@
         <v>-4.7417005940329E-2</v>
       </c>
       <c r="Q221" s="5">
-        <v>2.8968753336633202E-3</v>
-      </c>
-      <c r="R221" s="15">
+        <v>2.8908773366053001E-3</v>
+      </c>
+      <c r="R221" s="5">
         <v>-38</v>
       </c>
       <c r="S221" s="5">
@@ -16665,7 +16686,7 @@
         <v>-0.46285185258292699</v>
       </c>
     </row>
-    <row r="222" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A222" s="18">
         <v>39343</v>
       </c>
@@ -16715,9 +16736,9 @@
         <v>-0.18059077422036601</v>
       </c>
       <c r="Q222" s="5">
-        <v>-0.12895412087612401</v>
-      </c>
-      <c r="R222" s="15">
+        <v>-0.128892121904053</v>
+      </c>
+      <c r="R222" s="5">
         <v>-117</v>
       </c>
       <c r="S222" s="5">
@@ -16736,7 +16757,7 @@
         <v>-0.70046035714569599</v>
       </c>
     </row>
-    <row r="223" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A223" s="18">
         <v>39386</v>
       </c>
@@ -16786,9 +16807,9 @@
         <v>7.6837290752797105E-2</v>
       </c>
       <c r="Q223" s="5">
-        <v>9.2291545518824902E-2</v>
-      </c>
-      <c r="R223" s="15">
+        <v>9.23485731288676E-2</v>
+      </c>
+      <c r="R223" s="5">
         <v>0</v>
       </c>
       <c r="S223" s="5">
@@ -16807,7 +16828,7 @@
         <v>-0.276912930056609</v>
       </c>
     </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A224" s="18">
         <v>39427</v>
       </c>
@@ -16857,9 +16878,9 @@
         <v>7.2198191072367704E-2</v>
       </c>
       <c r="Q224" s="5">
-        <v>0.103108188159799</v>
-      </c>
-      <c r="R224" s="15">
+        <v>0.103199707175979</v>
+      </c>
+      <c r="R224" s="5">
         <v>29</v>
       </c>
       <c r="S224" s="5">
@@ -16878,7 +16899,7 @@
         <v>-0.74308466618234703</v>
       </c>
     </row>
-    <row r="225" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A225" s="18">
         <v>39469</v>
       </c>
@@ -16928,9 +16949,9 @@
         <v>-9.3238840796603994E-2</v>
       </c>
       <c r="Q225" s="5">
-        <v>-4.3969932475302898E-2</v>
-      </c>
-      <c r="R225" s="15">
+        <v>-4.3849158332496398E-2</v>
+      </c>
+      <c r="R225" s="5">
         <v>-48</v>
       </c>
       <c r="S225" s="5">
@@ -16949,7 +16970,7 @@
         <v>-0.50503309315547096</v>
       </c>
     </row>
-    <row r="226" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A226" s="18">
         <v>39477</v>
       </c>
@@ -16999,9 +17020,9 @@
         <v>-0.11388240589476099</v>
       </c>
       <c r="Q226" s="5">
-        <v>-6.8714244457453E-2</v>
-      </c>
-      <c r="R226" s="15">
+        <v>-6.8640803372464698E-2</v>
+      </c>
+      <c r="R226" s="5">
         <v>-48</v>
       </c>
       <c r="S226" s="5">
@@ -17020,7 +17041,7 @@
         <v>-0.43461733845280498</v>
       </c>
     </row>
-    <row r="227" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A227" s="18">
         <v>39518</v>
       </c>
@@ -17070,9 +17091,9 @@
         <v>8.0322795412158393E-2</v>
       </c>
       <c r="Q227" s="5">
-        <v>0.107450857511891</v>
-      </c>
-      <c r="R227" s="15">
+        <v>0.10756404291728</v>
+      </c>
+      <c r="R227" s="5">
         <v>-93</v>
       </c>
       <c r="S227" s="5">
@@ -17091,7 +17112,7 @@
         <v>-5.2473386985697403E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A228" s="18">
         <v>39525</v>
       </c>
@@ -17141,9 +17162,9 @@
         <v>2.40488652062971E-2</v>
       </c>
       <c r="Q228" s="5">
-        <v>5.84611702405868E-2</v>
-      </c>
-      <c r="R228" s="15">
+        <v>5.85614151009307E-2</v>
+      </c>
+      <c r="R228" s="5">
         <v>-93</v>
       </c>
       <c r="S228" s="5">
@@ -17162,7 +17183,7 @@
         <v>-0.10464066944481699</v>
       </c>
     </row>
-    <row r="229" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A229" s="18">
         <v>39568</v>
       </c>
@@ -17212,9 +17233,9 @@
         <v>-7.3657711345158694E-2</v>
       </c>
       <c r="Q229" s="5">
-        <v>-6.1556935640716702E-2</v>
-      </c>
-      <c r="R229" s="15">
+        <v>-6.1493905300217797E-2</v>
+      </c>
+      <c r="R229" s="5">
         <v>-30</v>
       </c>
       <c r="S229" s="5">
@@ -17233,7 +17254,7 @@
         <v>-0.101253811322283</v>
       </c>
     </row>
-    <row r="230" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A230" s="18">
         <v>39624</v>
       </c>
@@ -17283,9 +17304,9 @@
         <v>-5.8450330938782699E-2</v>
       </c>
       <c r="Q230" s="5">
-        <v>-5.35763191777089E-2</v>
-      </c>
-      <c r="R230" s="15">
+        <v>-5.3358204431879601E-2</v>
+      </c>
+      <c r="R230" s="5">
         <v>1</v>
       </c>
       <c r="S230" s="5">
@@ -17304,7 +17325,7 @@
         <v>-3.20309505553188E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A231" s="18">
         <v>39665</v>
       </c>
@@ -17354,9 +17375,9 @@
         <v>-2.7924426024309799E-2</v>
       </c>
       <c r="Q231" s="5">
-        <v>5.3978724249232404E-3</v>
-      </c>
-      <c r="R231" s="15">
+        <v>5.5216229446751301E-3</v>
+      </c>
+      <c r="R231" s="5">
         <v>14</v>
       </c>
       <c r="S231" s="5">
@@ -17375,7 +17396,7 @@
         <v>0.128514386917428</v>
       </c>
     </row>
-    <row r="232" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A232" s="18">
         <v>39707</v>
       </c>
@@ -17425,9 +17446,9 @@
         <v>8.7384764677786303E-2</v>
       </c>
       <c r="Q232" s="5">
-        <v>0.15470569404420401</v>
-      </c>
-      <c r="R232" s="15">
+        <v>0.15467126927077501</v>
+      </c>
+      <c r="R232" s="5">
         <v>-11</v>
       </c>
       <c r="S232" s="5">
@@ -17446,7 +17467,7 @@
         <v>2.4161016835037099E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A233" s="18">
         <v>39729</v>
       </c>
@@ -17496,9 +17517,9 @@
         <v>7.6223855335945598E-3</v>
       </c>
       <c r="Q233" s="5">
-        <v>0.113536337603472</v>
-      </c>
-      <c r="R233" s="15">
+        <v>0.11346309852671201</v>
+      </c>
+      <c r="R233" s="5">
         <v>-59</v>
       </c>
       <c r="S233" s="5">
@@ -17517,7 +17538,7 @@
         <v>-0.11991530295227</v>
       </c>
     </row>
-    <row r="234" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A234" s="18">
         <v>39750</v>
       </c>
@@ -17567,9 +17588,9 @@
         <v>-5.5569228636537099E-2</v>
       </c>
       <c r="Q234" s="5">
-        <v>6.8706966678225401E-2</v>
-      </c>
-      <c r="R234" s="15">
+        <v>6.8568275069314802E-2</v>
+      </c>
+      <c r="R234" s="5">
         <v>-59</v>
       </c>
       <c r="S234" s="5">
@@ -17588,7 +17609,7 @@
         <v>-0.173734009809562</v>
       </c>
     </row>
-    <row r="235" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A235" s="18">
         <v>39798</v>
       </c>
@@ -17638,9 +17659,9 @@
         <v>-0.26998925136026902</v>
       </c>
       <c r="Q235" s="5">
-        <v>-0.129683542203126</v>
-      </c>
-      <c r="R235" s="15">
+        <v>-0.12973349541785301</v>
+      </c>
+      <c r="R235" s="5">
         <v>-238</v>
       </c>
       <c r="S235" s="5">
@@ -17659,7 +17680,7 @@
         <v>-8.2116987250297702E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A236" s="18">
         <v>39841</v>
       </c>
@@ -17709,9 +17730,9 @@
         <v>-9.5369057531215808E-3</v>
       </c>
       <c r="Q236" s="5">
-        <v>2.7931241091405001E-2</v>
-      </c>
-      <c r="R236" s="15">
+        <v>2.8086672172424901E-2</v>
+      </c>
+      <c r="R236" s="5">
         <v>-44</v>
       </c>
       <c r="S236" s="5">
@@ -17730,7 +17751,7 @@
         <v>0.40133541592472399</v>
       </c>
     </row>
-    <row r="237" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A237" s="18">
         <v>39890</v>
       </c>
@@ -17780,9 +17801,9 @@
         <v>-6.6671077278378899E-2</v>
       </c>
       <c r="Q237" s="5">
-        <v>-2.75976180320117E-2</v>
-      </c>
-      <c r="R237" s="15">
+        <v>-2.7276406440584801E-2</v>
+      </c>
+      <c r="R237" s="5">
         <v>-21</v>
       </c>
       <c r="S237" s="5">
@@ -17801,7 +17822,7 @@
         <v>0.35790882272491198</v>
       </c>
     </row>
-    <row r="238" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A238" s="18">
         <v>39932</v>
       </c>
@@ -17851,9 +17872,9 @@
         <v>1.7042380410179199E-2</v>
       </c>
       <c r="Q238" s="5">
-        <v>3.1857311810451497E-2</v>
-      </c>
-      <c r="R238" s="15">
+        <v>3.2114514950330401E-2</v>
+      </c>
+      <c r="R238" s="5">
         <v>-13</v>
       </c>
       <c r="S238" s="5">
@@ -17872,7 +17893,7 @@
         <v>0.57138996207039905</v>
       </c>
     </row>
-    <row r="239" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A239" s="18">
         <v>39988</v>
       </c>
@@ -17922,9 +17943,9 @@
         <v>4.5660937890575903E-2</v>
       </c>
       <c r="Q239" s="5">
-        <v>5.3873307500390301E-2</v>
-      </c>
-      <c r="R239" s="15">
+        <v>5.4146470470404197E-2</v>
+      </c>
+      <c r="R239" s="5">
         <v>155</v>
       </c>
       <c r="S239" s="5">
@@ -17943,7 +17964,7 @@
         <v>0.156362846021952</v>
       </c>
     </row>
-    <row r="240" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A240" s="18">
         <v>40037</v>
       </c>
@@ -17993,9 +18014,9 @@
         <v>-1.48420369646616E-2</v>
       </c>
       <c r="Q240" s="5">
-        <v>2.4330580325319E-3</v>
-      </c>
-      <c r="R240" s="15">
+        <v>2.7857604305253502E-3</v>
+      </c>
+      <c r="R240" s="5">
         <v>83</v>
       </c>
       <c r="S240" s="5">
@@ -18014,7 +18035,7 @@
         <v>0.22621020620507801</v>
       </c>
     </row>
-    <row r="241" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A241" s="18">
         <v>40079</v>
       </c>
@@ -18064,9 +18085,9 @@
         <v>-0.106904089792526</v>
       </c>
       <c r="Q241" s="5">
-        <v>-9.7088354700146401E-2</v>
-      </c>
-      <c r="R241" s="15">
+        <v>-9.6775195341774298E-2</v>
+      </c>
+      <c r="R241" s="5">
         <v>9</v>
       </c>
       <c r="S241" s="5">
@@ -18085,7 +18106,7 @@
         <v>0.28741573435651901</v>
       </c>
     </row>
-    <row r="242" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A242" s="18">
         <v>40121</v>
       </c>
@@ -18135,9 +18156,9 @@
         <v>-2.1852555094851199E-2</v>
       </c>
       <c r="Q242" s="5">
-        <v>-1.8220148393131E-3</v>
-      </c>
-      <c r="R242" s="15">
+        <v>-1.5650610650928801E-3</v>
+      </c>
+      <c r="R242" s="5">
         <v>-90</v>
       </c>
       <c r="S242" s="5">
@@ -18156,7 +18177,7 @@
         <v>0.60142341252787201</v>
       </c>
     </row>
-    <row r="243" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A243" s="18">
         <v>40163</v>
       </c>
@@ -18206,9 +18227,9 @@
         <v>6.1200486154557397E-3</v>
       </c>
       <c r="Q243" s="5">
-        <v>1.70817811132094E-3</v>
-      </c>
-      <c r="R243" s="15">
+        <v>2.0186605402691799E-3</v>
+      </c>
+      <c r="R243" s="5">
         <v>103</v>
       </c>
       <c r="S243" s="5">
@@ -18227,7 +18248,7 @@
         <v>0.58611172422091395</v>
       </c>
     </row>
-    <row r="244" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A244" s="18">
         <v>40205</v>
       </c>
@@ -18277,9 +18298,9 @@
         <v>2.8908874884028001E-2</v>
       </c>
       <c r="Q244" s="5">
-        <v>6.4034139955661901E-2</v>
-      </c>
-      <c r="R244" s="15">
+        <v>6.4203630889177396E-2</v>
+      </c>
+      <c r="R244" s="5">
         <v>-85</v>
       </c>
       <c r="S244" s="5">
@@ -18298,7 +18319,7 @@
         <v>0.390079724301024</v>
       </c>
     </row>
-    <row r="245" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A245" s="18">
         <v>40253</v>
       </c>
@@ -18348,9 +18369,9 @@
         <v>-3.93309859698842E-2</v>
       </c>
       <c r="Q245" s="5">
-        <v>-1.9711206185354501E-2</v>
-      </c>
-      <c r="R245" s="15">
+        <v>-1.9560152928288301E-2</v>
+      </c>
+      <c r="R245" s="5">
         <v>14</v>
       </c>
       <c r="S245" s="5">
@@ -18369,7 +18390,7 @@
         <v>0.31931072442683001</v>
       </c>
     </row>
-    <row r="246" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A246" s="18">
         <v>40296</v>
       </c>
@@ -18419,9 +18440,9 @@
         <v>-7.8308997281229809E-3</v>
       </c>
       <c r="Q246" s="5">
-        <v>1.57488934481733E-4</v>
-      </c>
-      <c r="R246" s="15">
+        <v>2.6367841843450698E-4</v>
+      </c>
+      <c r="R246" s="5">
         <v>-38</v>
       </c>
       <c r="S246" s="5">
@@ -18440,7 +18461,7 @@
         <v>0.43089669380475998</v>
       </c>
     </row>
-    <row r="247" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A247" s="18">
         <v>40352</v>
       </c>
@@ -18490,9 +18511,9 @@
         <v>6.5690452205569997E-3</v>
       </c>
       <c r="Q247" s="5">
-        <v>3.01440287737854E-2</v>
-      </c>
-      <c r="R247" s="15">
+        <v>3.0253523689922499E-2</v>
+      </c>
+      <c r="R247" s="5">
         <v>-69</v>
       </c>
       <c r="S247" s="5">
@@ -18511,7 +18532,7 @@
         <v>0.26002322066718597</v>
       </c>
     </row>
-    <row r="248" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A248" s="18">
         <v>40400</v>
       </c>
@@ -18561,9 +18582,9 @@
         <v>-2.5020367925782602E-2</v>
       </c>
       <c r="Q248" s="5">
-        <v>-6.9394968632469399E-3</v>
-      </c>
-      <c r="R248" s="15">
+        <v>-6.7957833900500102E-3</v>
+      </c>
+      <c r="R248" s="5">
         <v>-76</v>
       </c>
       <c r="S248" s="5">
@@ -18582,7 +18603,7 @@
         <v>-4.1484539424258997E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A249" s="18">
         <v>40442</v>
       </c>
@@ -18632,9 +18653,9 @@
         <v>-1.10536365713832E-2</v>
       </c>
       <c r="Q249" s="5">
-        <v>-1.8775509956523301E-2</v>
-      </c>
-      <c r="R249" s="15">
+        <v>-1.8610451403285998E-2</v>
+      </c>
+      <c r="R249" s="5">
         <v>44</v>
       </c>
       <c r="S249" s="5">
@@ -18653,7 +18674,7 @@
         <v>0.21979549179468799</v>
       </c>
     </row>
-    <row r="250" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A250" s="18">
         <v>40485</v>
       </c>
@@ -18703,9 +18724,9 @@
         <v>-3.1413014441086899E-3</v>
       </c>
       <c r="Q250" s="5">
-        <v>-6.1797687834669098E-3</v>
-      </c>
-      <c r="R250" s="15">
+        <v>-6.11341206383251E-3</v>
+      </c>
+      <c r="R250" s="5">
         <v>-100</v>
       </c>
       <c r="S250" s="5">
@@ -18724,7 +18745,7 @@
         <v>0.30687756014705703</v>
       </c>
     </row>
-    <row r="251" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A251" s="18">
         <v>40526</v>
       </c>
@@ -18774,9 +18795,9 @@
         <v>-3.7776720172792398E-3</v>
       </c>
       <c r="Q251" s="5">
-        <v>-7.8519764013998492E-3</v>
-      </c>
-      <c r="R251" s="15">
+        <v>-7.9379659464460101E-3</v>
+      </c>
+      <c r="R251" s="5">
         <v>-111</v>
       </c>
       <c r="S251" s="5">
@@ -18795,7 +18816,7 @@
         <v>0.39468693926836501</v>
       </c>
     </row>
-    <row r="252" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A252" s="18">
         <v>40569</v>
       </c>
@@ -18845,9 +18866,9 @@
         <v>-1.1435130833862E-2</v>
       </c>
       <c r="Q252" s="5">
-        <v>-9.0656839752977399E-3</v>
-      </c>
-      <c r="R252" s="15">
+        <v>-9.1795801670024706E-3</v>
+      </c>
+      <c r="R252" s="5">
         <v>-42</v>
       </c>
       <c r="S252" s="5">
@@ -18866,7 +18887,7 @@
         <v>0.336062461770196</v>
       </c>
     </row>
-    <row r="253" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A253" s="18">
         <v>40617</v>
       </c>
@@ -18916,9 +18937,9 @@
         <v>6.7534240552631396E-3</v>
       </c>
       <c r="Q253" s="5">
-        <v>2.99438632844324E-3</v>
-      </c>
-      <c r="R253" s="15">
+        <v>2.98955668631897E-3</v>
+      </c>
+      <c r="R253" s="5">
         <v>17</v>
       </c>
       <c r="S253" s="5">
@@ -18937,7 +18958,7 @@
         <v>0.22918129902791101</v>
       </c>
     </row>
-    <row r="254" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A254" s="18">
         <v>40660</v>
       </c>
@@ -18987,9 +19008,9 @@
         <v>-1.1466538592732899E-2</v>
       </c>
       <c r="Q254" s="5">
-        <v>-2.5648122862203498E-2</v>
-      </c>
-      <c r="R254" s="15">
+        <v>-2.5588607749716101E-2</v>
+      </c>
+      <c r="R254" s="5">
         <v>31</v>
       </c>
       <c r="S254" s="5">
@@ -19008,7 +19029,7 @@
         <v>0.24672560698812701</v>
       </c>
     </row>
-    <row r="255" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A255" s="18">
         <v>40716</v>
       </c>
@@ -19058,9 +19079,9 @@
         <v>4.9631457605077197E-3</v>
       </c>
       <c r="Q255" s="5">
-        <v>2.38291788941731E-2</v>
-      </c>
-      <c r="R255" s="15">
+        <v>2.37397994246491E-2</v>
+      </c>
+      <c r="R255" s="5">
         <v>-144</v>
       </c>
       <c r="S255" s="5">
@@ -19079,7 +19100,7 @@
         <v>0.379623427058496</v>
       </c>
     </row>
-    <row r="256" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A256" s="18">
         <v>40764</v>
       </c>
@@ -19129,9 +19150,9 @@
         <v>-2.0416238374984599E-2</v>
       </c>
       <c r="Q256" s="5">
-        <v>-6.3223682691445297E-3</v>
-      </c>
-      <c r="R256" s="15">
+        <v>-6.2140727935921002E-3</v>
+      </c>
+      <c r="R256" s="5">
         <v>7</v>
       </c>
       <c r="S256" s="5">
@@ -19150,7 +19171,7 @@
         <v>0.411232638539199</v>
       </c>
     </row>
-    <row r="257" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A257" s="18">
         <v>40807</v>
       </c>
@@ -19200,9 +19221,9 @@
         <v>6.05648034566834E-2</v>
       </c>
       <c r="Q257" s="5">
-        <v>6.6824213730882001E-2</v>
-      </c>
-      <c r="R257" s="15">
+        <v>6.6829073950882195E-2</v>
+      </c>
+      <c r="R257" s="5">
         <v>-120</v>
       </c>
       <c r="S257" s="5">
@@ -19221,7 +19242,7 @@
         <v>0.50754284819180595</v>
       </c>
     </row>
-    <row r="258" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A258" s="18">
         <v>40849</v>
       </c>
@@ -19271,9 +19292,9 @@
         <v>1.42579117960067E-2</v>
       </c>
       <c r="Q258" s="5">
-        <v>2.1488148150016099E-2</v>
-      </c>
-      <c r="R258" s="15">
+        <v>2.1528386831507901E-2</v>
+      </c>
+      <c r="R258" s="5">
         <v>47</v>
       </c>
       <c r="S258" s="5">
@@ -19292,7 +19313,7 @@
         <v>0.24886598258592199</v>
       </c>
     </row>
-    <row r="259" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A259" s="18">
         <v>40890</v>
       </c>
@@ -19342,9 +19363,9 @@
         <v>8.4328674090484706E-3</v>
       </c>
       <c r="Q259" s="5">
-        <v>1.8228109716134699E-2</v>
-      </c>
-      <c r="R259" s="15">
+        <v>1.80681135791954E-2</v>
+      </c>
+      <c r="R259" s="5">
         <v>-5</v>
       </c>
       <c r="S259" s="5">
@@ -19363,7 +19384,7 @@
         <v>0.35827276832691102</v>
       </c>
     </row>
-    <row r="260" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A260" s="18">
         <v>40933</v>
       </c>
@@ -19413,9 +19434,9 @@
         <v>-2.0477857429255501E-2</v>
       </c>
       <c r="Q260" s="5">
-        <v>-3.5388800883999399E-2</v>
-      </c>
-      <c r="R260" s="15">
+        <v>-3.54902801244385E-2</v>
+      </c>
+      <c r="R260" s="5">
         <v>50</v>
       </c>
       <c r="S260" s="5">
@@ -19434,7 +19455,7 @@
         <v>0.557081385393977</v>
       </c>
     </row>
-    <row r="261" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A261" s="18">
         <v>40981</v>
       </c>
@@ -19484,9 +19505,9 @@
         <v>1.2444452443175E-2</v>
       </c>
       <c r="Q261" s="5">
-        <v>-9.5349739495070394E-3</v>
-      </c>
-      <c r="R261" s="15">
+        <v>-9.6213590148172805E-3</v>
+      </c>
+      <c r="R261" s="5">
         <v>17</v>
       </c>
       <c r="S261" s="5">
@@ -19505,7 +19526,7 @@
         <v>0.56068648790430697</v>
       </c>
     </row>
-    <row r="262" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A262" s="18">
         <v>41024</v>
       </c>
@@ -19555,9 +19576,9 @@
         <v>3.9796838171003296E-3</v>
       </c>
       <c r="Q262" s="5">
-        <v>2.36306236167081E-3</v>
-      </c>
-      <c r="R262" s="15">
+        <v>2.2055045973686E-3</v>
+      </c>
+      <c r="R262" s="5">
         <v>-90</v>
       </c>
       <c r="S262" s="5">
@@ -19576,7 +19597,7 @@
         <v>0.59005230202847703</v>
       </c>
     </row>
-    <row r="263" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A263" s="18">
         <v>41080</v>
       </c>
@@ -19626,9 +19647,9 @@
         <v>1.9557211003589502E-2</v>
       </c>
       <c r="Q263" s="5">
-        <v>3.8260866234286997E-2</v>
-      </c>
-      <c r="R263" s="15">
+        <v>3.8214425307845801E-2</v>
+      </c>
+      <c r="R263" s="5">
         <v>-89</v>
       </c>
       <c r="S263" s="5">
@@ -19647,7 +19668,7 @@
         <v>0.231028841293688</v>
       </c>
     </row>
-    <row r="264" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A264" s="18">
         <v>41122</v>
       </c>
@@ -19697,9 +19718,9 @@
         <v>1.36822972391229E-2</v>
       </c>
       <c r="Q264" s="5">
-        <v>1.21380905039307E-2</v>
-      </c>
-      <c r="R264" s="15">
+        <v>1.2145884909210499E-2</v>
+      </c>
+      <c r="R264" s="5">
         <v>-10</v>
       </c>
       <c r="S264" s="5">
@@ -19718,7 +19739,7 @@
         <v>0.34659804261324401</v>
       </c>
     </row>
-    <row r="265" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A265" s="18">
         <v>41165</v>
       </c>
@@ -19768,9 +19789,9 @@
         <v>1.4902015611812499E-2</v>
       </c>
       <c r="Q265" s="5">
-        <v>-7.4015885268509697E-3</v>
-      </c>
-      <c r="R265" s="15">
+        <v>-7.4546865737261199E-3</v>
+      </c>
+      <c r="R265" s="5">
         <v>-39</v>
       </c>
       <c r="S265" s="5">
@@ -19789,7 +19810,7 @@
         <v>0.43818928663916101</v>
       </c>
     </row>
-    <row r="266" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A266" s="18">
         <v>41206</v>
       </c>
@@ -19839,9 +19860,9 @@
         <v>-3.1407758870699698E-5</v>
       </c>
       <c r="Q266" s="5">
-        <v>-8.1414091429033806E-3</v>
-      </c>
-      <c r="R266" s="15">
+        <v>-8.2528172320951304E-3</v>
+      </c>
+      <c r="R266" s="5">
         <v>-6</v>
       </c>
       <c r="S266" s="5">
@@ -19860,7 +19881,7 @@
         <v>0.53089529294015203</v>
       </c>
     </row>
-    <row r="267" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A267" s="18">
         <v>41255</v>
       </c>
@@ -19910,9 +19931,9 @@
         <v>-4.8605375203394502E-3</v>
       </c>
       <c r="Q267" s="5">
-        <v>-1.37459426270346E-2</v>
-      </c>
-      <c r="R267" s="15">
+        <v>-1.3855169203579499E-2</v>
+      </c>
+      <c r="R267" s="5">
         <v>36</v>
       </c>
       <c r="S267" s="5">
@@ -19931,7 +19952,7 @@
         <v>0.74281097934756701</v>
       </c>
     </row>
-    <row r="268" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A268" s="18">
         <v>41304</v>
       </c>
@@ -19981,9 +20002,9 @@
         <v>-3.17570433634644E-3</v>
       </c>
       <c r="Q268" s="5">
-        <v>-1.5533330336041099E-2</v>
-      </c>
-      <c r="R268" s="15">
+        <v>-1.5690879147313201E-2</v>
+      </c>
+      <c r="R268" s="5">
         <v>0</v>
       </c>
       <c r="S268" s="5">
@@ -20002,7 +20023,7 @@
         <v>0.75343652834934705</v>
       </c>
     </row>
-    <row r="269" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A269" s="18">
         <v>41353</v>
       </c>
@@ -20052,9 +20073,9 @@
         <v>2.6550137917886901E-3</v>
       </c>
       <c r="Q269" s="5">
-        <v>-1.47590276995109E-2</v>
-      </c>
-      <c r="R269" s="15">
+        <v>-1.4883385498788201E-2</v>
+      </c>
+      <c r="R269" s="5">
         <v>84</v>
       </c>
       <c r="S269" s="5">
@@ -20073,7 +20094,7 @@
         <v>0.64709694198024903</v>
       </c>
     </row>
-    <row r="270" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A270" s="18">
         <v>41395</v>
       </c>
@@ -20123,9 +20144,9 @@
         <v>-1.3668061601807E-3</v>
       </c>
       <c r="Q270" s="5">
-        <v>1.8764026349227601E-3</v>
-      </c>
-      <c r="R270" s="15">
+        <v>1.7280746662291101E-3</v>
+      </c>
+      <c r="R270" s="5">
         <v>-97</v>
       </c>
       <c r="S270" s="5">
@@ -20144,7 +20165,7 @@
         <v>0.52775953816124399</v>
       </c>
     </row>
-    <row r="271" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A271" s="18">
         <v>41444</v>
       </c>
@@ -20194,9 +20215,9 @@
         <v>1.87171369391079E-3</v>
       </c>
       <c r="Q271" s="5">
-        <v>-1.85938230371376E-3</v>
-      </c>
-      <c r="R271" s="15">
+        <v>-2.0581304314677101E-3</v>
+      </c>
+      <c r="R271" s="5">
         <v>5</v>
       </c>
       <c r="S271" s="5">
@@ -20215,7 +20236,7 @@
         <v>0.70906055206284202</v>
       </c>
     </row>
-    <row r="272" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A272" s="18">
         <v>41486</v>
       </c>
@@ -20265,9 +20286,9 @@
         <v>-3.1335682014698302E-3</v>
       </c>
       <c r="Q272" s="5">
-        <v>2.6342099743732598E-4</v>
-      </c>
-      <c r="R272" s="15">
+        <v>-4.4929985134082799E-5</v>
+      </c>
+      <c r="R272" s="5">
         <v>30</v>
       </c>
       <c r="S272" s="5">
@@ -20286,7 +20307,7 @@
         <v>0.77412495678338</v>
       </c>
     </row>
-    <row r="273" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A273" s="18">
         <v>41535</v>
       </c>
@@ -20336,9 +20357,9 @@
         <v>-1.2817561742086101E-2</v>
       </c>
       <c r="Q273" s="5">
-        <v>-1.2761849947818499E-2</v>
-      </c>
-      <c r="R273" s="15">
+        <v>-1.2996371278102501E-2</v>
+      </c>
+      <c r="R273" s="5">
         <v>-8</v>
       </c>
       <c r="S273" s="5">
@@ -20357,7 +20378,7 @@
         <v>0.68817287206917199</v>
       </c>
     </row>
-    <row r="274" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A274" s="18">
         <v>41577</v>
       </c>
@@ -20407,9 +20428,9 @@
         <v>-1.3130477666750299E-4</v>
       </c>
       <c r="Q274" s="5">
-        <v>-1.16427845935395E-2</v>
-      </c>
-      <c r="R274" s="15">
+        <v>-1.17583506143236E-2</v>
+      </c>
+      <c r="R274" s="5">
         <v>-32</v>
       </c>
       <c r="S274" s="5">
@@ -20428,7 +20449,7 @@
         <v>0.62547254325660295</v>
       </c>
     </row>
-    <row r="275" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A275" s="18">
         <v>41626</v>
       </c>
@@ -20478,9 +20499,9 @@
         <v>2.8649170970250098E-3</v>
       </c>
       <c r="Q275" s="5">
-        <v>-1.55183852547616E-2</v>
-      </c>
-      <c r="R275" s="15">
+        <v>-1.5653925621799899E-2</v>
+      </c>
+      <c r="R275" s="5">
         <v>23</v>
       </c>
       <c r="S275" s="5">
@@ -20499,7 +20520,7 @@
         <v>0.77999886528917095</v>
       </c>
     </row>
-    <row r="276" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A276" s="18">
         <v>41668</v>
       </c>
@@ -20549,9 +20570,9 @@
         <v>-6.0985918634480604E-4</v>
       </c>
       <c r="Q276" s="5">
-        <v>1.18450593206061E-2</v>
-      </c>
-      <c r="R276" s="15">
+        <v>1.16789488662404E-2</v>
+      </c>
+      <c r="R276" s="5">
         <v>-122</v>
       </c>
       <c r="S276" s="5">
@@ -20570,7 +20591,7 @@
         <v>0.39246713566267699</v>
       </c>
     </row>
-    <row r="277" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A277" s="18">
         <v>41717</v>
       </c>
@@ -20620,9 +20641,9 @@
         <v>1.6421792847824999E-2</v>
       </c>
       <c r="Q277" s="5">
-        <v>5.0418038986336398E-3</v>
-      </c>
-      <c r="R277" s="15">
+        <v>5.0458960423063904E-3</v>
+      </c>
+      <c r="R277" s="5">
         <v>30</v>
       </c>
       <c r="S277" s="5">
@@ -20641,7 +20662,7 @@
         <v>0.25532347468300998</v>
       </c>
     </row>
-    <row r="278" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A278" s="18">
         <v>41759</v>
       </c>
@@ -20691,9 +20712,9 @@
         <v>2.58936140345686E-3</v>
       </c>
       <c r="Q278" s="5">
-        <v>-5.5565558959324796E-3</v>
-      </c>
-      <c r="R278" s="15">
+        <v>-5.5672265909694199E-3</v>
+      </c>
+      <c r="R278" s="5">
         <v>-3</v>
       </c>
       <c r="S278" s="5">
@@ -20712,7 +20733,7 @@
         <v>0.20895406789104901</v>
       </c>
     </row>
-    <row r="279" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A279" s="18">
         <v>41808</v>
       </c>
@@ -20762,9 +20783,9 @@
         <v>7.6917034460438297E-3</v>
       </c>
       <c r="Q279" s="5">
-        <v>1.3122030464911101E-2</v>
-      </c>
-      <c r="R279" s="15">
+        <v>1.30440209137702E-2</v>
+      </c>
+      <c r="R279" s="5">
         <v>-3</v>
       </c>
       <c r="S279" s="5">
@@ -20783,7 +20804,7 @@
         <v>0.137423761737204</v>
       </c>
     </row>
-    <row r="280" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A280" s="18">
         <v>41850</v>
       </c>
@@ -20833,9 +20854,9 @@
         <v>-6.3984411796070301E-3</v>
       </c>
       <c r="Q280" s="5">
-        <v>-8.1732684735546005E-4</v>
-      </c>
-      <c r="R280" s="15">
+        <v>-8.8420232098970796E-4</v>
+      </c>
+      <c r="R280" s="5">
         <v>73</v>
       </c>
       <c r="S280" s="5">
@@ -20854,7 +20875,7 @@
         <v>8.5668082466751394E-2</v>
       </c>
     </row>
-    <row r="281" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A281" s="18">
         <v>41899</v>
       </c>
@@ -20904,9 +20925,9 @@
         <v>1.5706982008869701E-2</v>
       </c>
       <c r="Q281" s="5">
-        <v>3.9784963802996502E-2</v>
-      </c>
-      <c r="R281" s="15">
+        <v>3.9628693658978399E-2</v>
+      </c>
+      <c r="R281" s="5">
         <v>-78</v>
       </c>
       <c r="S281" s="5">
@@ -20925,7 +20946,7 @@
         <v>9.5910587006146394E-2</v>
       </c>
     </row>
-    <row r="282" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A282" s="18">
         <v>41941</v>
       </c>
@@ -20975,9 +20996,9 @@
         <v>2.3969403639752002E-2</v>
       </c>
       <c r="Q282" s="5">
-        <v>5.1160195535794498E-2</v>
-      </c>
-      <c r="R282" s="15">
+        <v>5.1136957336181899E-2</v>
+      </c>
+      <c r="R282" s="5">
         <v>33</v>
       </c>
       <c r="S282" s="5">
@@ -20996,7 +21017,7 @@
         <v>-0.34314395790990199</v>
       </c>
     </row>
-    <row r="283" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A283" s="18">
         <v>41990</v>
       </c>
@@ -21046,9 +21067,9 @@
         <v>-6.1614904704722299E-2</v>
       </c>
       <c r="Q283" s="5">
-        <v>-3.5028664762521498E-2</v>
-      </c>
-      <c r="R283" s="15">
+        <v>-3.4975843379118701E-2</v>
+      </c>
+      <c r="R283" s="5">
         <v>96</v>
       </c>
       <c r="S283" s="5">
@@ -21067,7 +21088,7 @@
         <v>-0.51249587667171503</v>
       </c>
     </row>
-    <row r="284" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A284" s="18">
         <v>42032</v>
       </c>
@@ -21117,9 +21138,9 @@
         <v>-1.03124726083751E-2</v>
       </c>
       <c r="Q284" s="5">
-        <v>2.5038283162705701E-2</v>
-      </c>
-      <c r="R284" s="15">
+        <v>2.4990448724499299E-2</v>
+      </c>
+      <c r="R284" s="5">
         <v>9</v>
       </c>
       <c r="S284" s="5">
@@ -21138,7 +21159,7 @@
         <v>-0.57204985822675203</v>
       </c>
     </row>
-    <row r="285" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A285" s="18">
         <v>42081</v>
       </c>
@@ -21188,9 +21209,9 @@
         <v>-7.3293196556974693E-2</v>
       </c>
       <c r="Q285" s="5">
-        <v>-5.13409701952754E-2</v>
-      </c>
-      <c r="R285" s="15">
+        <v>-5.13848787919736E-2</v>
+      </c>
+      <c r="R285" s="5">
         <v>55</v>
       </c>
       <c r="S285" s="5">
@@ -21209,7 +21230,7 @@
         <v>-0.30756653732475298</v>
       </c>
     </row>
-    <row r="286" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A286" s="18">
         <v>42123</v>
       </c>
@@ -21259,9 +21280,9 @@
         <v>-3.2962807370041998E-3</v>
       </c>
       <c r="Q286" s="5">
-        <v>2.2103846086827798E-2</v>
-      </c>
-      <c r="R286" s="15">
+        <v>2.2019675483215501E-2</v>
+      </c>
+      <c r="R286" s="5">
         <v>-122</v>
       </c>
       <c r="S286" s="5">
@@ -21280,7 +21301,7 @@
         <v>-0.242609850068154</v>
       </c>
     </row>
-    <row r="287" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A287" s="18">
         <v>42172</v>
       </c>
@@ -21330,9 +21351,9 @@
         <v>-4.67512014408853E-2</v>
       </c>
       <c r="Q287" s="5">
-        <v>-5.0550590849920703E-2</v>
-      </c>
-      <c r="R287" s="15">
+        <v>-5.0587027518411001E-2</v>
+      </c>
+      <c r="R287" s="5">
         <v>60</v>
       </c>
       <c r="S287" s="5">
@@ -21351,7 +21372,7 @@
         <v>0.129755547038686</v>
       </c>
     </row>
-    <row r="288" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A288" s="18">
         <v>42214</v>
       </c>
@@ -21401,9 +21422,9 @@
         <v>-1.22812464494849E-2</v>
       </c>
       <c r="Q288" s="5">
-        <v>2.2870231126311098E-2</v>
-      </c>
-      <c r="R288" s="15">
+        <v>2.27707536724562E-2</v>
+      </c>
+      <c r="R288" s="5">
         <v>-7</v>
       </c>
       <c r="S288" s="5">
@@ -21422,7 +21443,7 @@
         <v>-0.24565656471955999</v>
       </c>
     </row>
-    <row r="289" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A289" s="18">
         <v>42264</v>
       </c>
@@ -21472,9 +21493,9 @@
         <v>-6.68153281952759E-2</v>
       </c>
       <c r="Q289" s="5">
-        <v>-3.2391050259442097E-2</v>
-      </c>
-      <c r="R289" s="15">
+        <v>-3.2459933673294097E-2</v>
+      </c>
+      <c r="R289" s="5">
         <v>-42</v>
       </c>
       <c r="S289" s="5">
@@ -21493,7 +21514,7 @@
         <v>-0.14769319800709099</v>
       </c>
     </row>
-    <row r="290" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A290" s="18">
         <v>42305</v>
       </c>
@@ -21543,9 +21564,9 @@
         <v>4.3983344491074002E-2</v>
       </c>
       <c r="Q290" s="5">
-        <v>6.6125320194912102E-2</v>
-      </c>
-      <c r="R290" s="15">
+        <v>6.6064104452235706E-2</v>
+      </c>
+      <c r="R290" s="5">
         <v>-58</v>
       </c>
       <c r="S290" s="5">
@@ -21564,7 +21585,7 @@
         <v>-5.6758809755311002E-2</v>
       </c>
     </row>
-    <row r="291" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A291" s="18">
         <v>42354</v>
       </c>
@@ -21614,9 +21635,9 @@
         <v>1.9567939379595001E-2</v>
       </c>
       <c r="Q291" s="5">
-        <v>4.2349830832177901E-2</v>
-      </c>
-      <c r="R291" s="15">
+        <v>4.2274183048025202E-2</v>
+      </c>
+      <c r="R291" s="5">
         <v>11</v>
       </c>
       <c r="S291" s="5">
@@ -21635,7 +21656,7 @@
         <v>-0.19552525825148501</v>
       </c>
     </row>
-    <row r="292" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A292" s="18">
         <v>42396</v>
       </c>
@@ -21685,9 +21706,9 @@
         <v>-3.1741397305871999E-2</v>
       </c>
       <c r="Q292" s="5">
-        <v>-4.2628800801307798E-3</v>
-      </c>
-      <c r="R292" s="15">
+        <v>-4.2300493934842101E-3</v>
+      </c>
+      <c r="R292" s="5">
         <v>91</v>
       </c>
       <c r="S292" s="5">
@@ -21706,7 +21727,7 @@
         <v>-0.280350387890754</v>
       </c>
     </row>
-    <row r="293" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A293" s="18">
         <v>42445</v>
       </c>
@@ -21756,9 +21777,9 @@
         <v>-9.0850225960583106E-2</v>
       </c>
       <c r="Q293" s="5">
-        <v>-8.11124650639026E-2</v>
-      </c>
-      <c r="R293" s="15">
+        <v>-8.1018688811223497E-2</v>
+      </c>
+      <c r="R293" s="5">
         <v>47</v>
       </c>
       <c r="S293" s="5">
@@ -21777,7 +21798,7 @@
         <v>-0.27859902744123599</v>
       </c>
     </row>
-    <row r="294" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A294" s="18">
         <v>42487</v>
       </c>
@@ -21827,9 +21848,9 @@
         <v>9.0271018473536396E-3</v>
       </c>
       <c r="Q294" s="5">
-        <v>3.7922760095962099E-3</v>
-      </c>
-      <c r="R294" s="15">
+        <v>3.8578587390043799E-3</v>
+      </c>
+      <c r="R294" s="5">
         <v>15</v>
       </c>
       <c r="S294" s="5">
@@ -21848,7 +21869,7 @@
         <v>-0.32998647430815398</v>
       </c>
     </row>
-    <row r="295" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A295" s="18">
         <v>42536</v>
       </c>
@@ -21898,9 +21919,9 @@
         <v>-4.8257203883145E-2</v>
       </c>
       <c r="Q295" s="5">
-        <v>-3.7253846337511901E-2</v>
-      </c>
-      <c r="R295" s="15">
+        <v>-3.7192813734582601E-2</v>
+      </c>
+      <c r="R295" s="5">
         <v>-117</v>
       </c>
       <c r="S295" s="5">
@@ -21919,7 +21940,7 @@
         <v>-0.26923549522046297</v>
       </c>
     </row>
-    <row r="296" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A296" s="18">
         <v>42578</v>
       </c>
@@ -21969,9 +21990,9 @@
         <v>6.5033928322253496E-3</v>
       </c>
       <c r="Q296" s="5">
-        <v>5.6133344613708497E-3</v>
-      </c>
-      <c r="R296" s="15">
+        <v>5.67636550997046E-3</v>
+      </c>
+      <c r="R296" s="5">
         <v>107</v>
       </c>
       <c r="S296" s="5">
@@ -21990,7 +22011,7 @@
         <v>-0.124645621203736</v>
       </c>
     </row>
-    <row r="297" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A297" s="18">
         <v>42634</v>
       </c>
@@ -22040,9 +22061,9 @@
         <v>-3.19306212282282E-2</v>
       </c>
       <c r="Q297" s="5">
-        <v>-1.6663610612227601E-2</v>
-      </c>
-      <c r="R297" s="15">
+        <v>-1.6756007083997399E-2</v>
+      </c>
+      <c r="R297" s="5">
         <v>-38</v>
       </c>
       <c r="S297" s="5">
@@ -22061,7 +22082,7 @@
         <v>7.5773516554625497E-2</v>
       </c>
     </row>
-    <row r="298" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A298" s="18">
         <v>42676</v>
       </c>
@@ -22111,9 +22132,9 @@
         <v>2.5472252685876601E-3</v>
       </c>
       <c r="Q298" s="5">
-        <v>1.4037910898829499E-2</v>
-      </c>
-      <c r="R298" s="15">
+        <v>1.40113454851275E-2</v>
+      </c>
+      <c r="R298" s="5">
         <v>-18</v>
       </c>
       <c r="S298" s="5">
@@ -22132,7 +22153,7 @@
         <v>7.0111702931493297E-2</v>
       </c>
     </row>
-    <row r="299" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A299" s="18">
         <v>42718</v>
       </c>
@@ -22182,9 +22203,9 @@
         <v>3.7307497663615602E-2</v>
       </c>
       <c r="Q299" s="5">
-        <v>3.61449147975254E-2</v>
-      </c>
-      <c r="R299" s="15">
+        <v>3.60508981680151E-2</v>
+      </c>
+      <c r="R299" s="5">
         <v>1</v>
       </c>
       <c r="S299" s="5">
@@ -22203,7 +22224,7 @@
         <v>0.248197027225288</v>
       </c>
     </row>
-    <row r="300" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A300" s="18">
         <v>42767</v>
       </c>
@@ -22253,9 +22274,9 @@
         <v>-2.2814350739087198E-2</v>
       </c>
       <c r="Q300" s="5">
-        <v>-1.00211196520137E-2</v>
-      </c>
-      <c r="R300" s="15">
+        <v>-1.0096609824247E-2</v>
+      </c>
+      <c r="R300" s="5">
         <v>-19</v>
       </c>
       <c r="S300" s="5">
@@ -22274,7 +22295,7 @@
         <v>-9.2953636114870605E-2</v>
       </c>
     </row>
-    <row r="301" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A301" s="18">
         <v>42809</v>
       </c>
@@ -22324,9 +22345,9 @@
         <v>-5.9587383064389002E-2</v>
       </c>
       <c r="Q301" s="5">
-        <v>-4.1377622133209099E-2</v>
-      </c>
-      <c r="R301" s="15">
+        <v>-4.1390127795227001E-2</v>
+      </c>
+      <c r="R301" s="5">
         <v>39</v>
       </c>
       <c r="S301" s="5">
@@ -22345,7 +22366,7 @@
         <v>-0.31208831257859299</v>
       </c>
     </row>
-    <row r="302" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A302" s="18">
         <v>42858</v>
       </c>
@@ -22395,9 +22416,9 @@
         <v>1.17684474103392E-2</v>
       </c>
       <c r="Q302" s="5">
-        <v>4.47004128117598E-2</v>
-      </c>
-      <c r="R302" s="15">
+        <v>4.4713033863999802E-2</v>
+      </c>
+      <c r="R302" s="5">
         <v>-80</v>
       </c>
       <c r="S302" s="5">
@@ -22416,7 +22437,7 @@
         <v>-0.53933523636758096</v>
       </c>
     </row>
-    <row r="303" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A303" s="18">
         <v>42900</v>
       </c>
@@ -22466,9 +22487,9 @@
         <v>1.9428743097512E-2</v>
       </c>
       <c r="Q303" s="5">
-        <v>3.9015830516990799E-2</v>
-      </c>
-      <c r="R303" s="15">
+        <v>3.9037870146486298E-2</v>
+      </c>
+      <c r="R303" s="5">
         <v>-44</v>
       </c>
       <c r="S303" s="5">
@@ -22487,7 +22508,7 @@
         <v>-0.279001274936512</v>
       </c>
     </row>
-    <row r="304" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A304" s="18">
         <v>42942</v>
       </c>
@@ -22537,9 +22558,9 @@
         <v>-1.22919748254872E-2</v>
       </c>
       <c r="Q304" s="5">
-        <v>-1.3674447695271401E-2</v>
-      </c>
-      <c r="R304" s="15">
+        <v>-1.3719076694972099E-2</v>
+      </c>
+      <c r="R304" s="5">
         <v>42</v>
       </c>
       <c r="S304" s="5">
@@ -22558,7 +22579,7 @@
         <v>0.194213333355856</v>
       </c>
     </row>
-    <row r="305" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A305" s="18">
         <v>42998</v>
       </c>
@@ -22608,9 +22629,9 @@
         <v>4.8770002922294803E-2</v>
       </c>
       <c r="Q305" s="5">
-        <v>6.6150720668338603E-2</v>
-      </c>
-      <c r="R305" s="15">
+        <v>6.6182215002351205E-2</v>
+      </c>
+      <c r="R305" s="5">
         <v>-27</v>
       </c>
       <c r="S305" s="5">
@@ -22629,7 +22650,7 @@
         <v>-0.32905042336708401</v>
       </c>
     </row>
-    <row r="306" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A306" s="18">
         <v>43040</v>
       </c>
@@ -22679,9 +22700,9 @@
         <v>4.6316791383137802E-3</v>
       </c>
       <c r="Q306" s="5">
-        <v>2.4206678728041602E-2</v>
-      </c>
-      <c r="R306" s="15">
+        <v>2.4185060581820898E-2</v>
+      </c>
+      <c r="R306" s="5">
         <v>-120</v>
       </c>
       <c r="S306" s="5">
@@ -22700,7 +22721,7 @@
         <v>-0.14301911746015999</v>
       </c>
     </row>
-    <row r="307" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A307" s="18">
         <v>43082</v>
       </c>
@@ -22750,9 +22771,9 @@
         <v>-8.0990573744235805E-3</v>
       </c>
       <c r="Q307" s="5">
-        <v>9.0861125569542103E-4</v>
-      </c>
-      <c r="R307" s="15">
+        <v>9.0510629330028795E-4</v>
+      </c>
+      <c r="R307" s="5">
         <v>30</v>
       </c>
       <c r="S307" s="5">
@@ -22771,7 +22792,7 @@
         <v>-0.16262003971939001</v>
       </c>
     </row>
-    <row r="308" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A308" s="18">
         <v>43131</v>
       </c>
@@ -22821,9 +22842,9 @@
         <v>7.2210405417671699E-3</v>
       </c>
       <c r="Q308" s="5">
-        <v>5.5741445871751597E-3</v>
-      </c>
-      <c r="R308" s="15">
+        <v>5.5354593527004699E-3</v>
+      </c>
+      <c r="R308" s="5">
         <v>-42</v>
       </c>
       <c r="S308" s="5">
@@ -22842,7 +22863,7 @@
         <v>8.8973149724551906E-2</v>
       </c>
     </row>
-    <row r="309" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A309" s="18">
         <v>43180</v>
       </c>
@@ -22892,9 +22913,9 @@
         <v>-5.3728431013224803E-3</v>
       </c>
       <c r="Q309" s="5">
-        <v>1.71340094050412E-3</v>
-      </c>
-      <c r="R309" s="15">
+        <v>1.78150527861177E-3</v>
+      </c>
+      <c r="R309" s="5">
         <v>108</v>
       </c>
       <c r="S309" s="5">
@@ -22913,7 +22934,7 @@
         <v>-0.24976122197179901</v>
       </c>
     </row>
-    <row r="310" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A310" s="18">
         <v>43222</v>
       </c>
@@ -22963,9 +22984,9 @@
         <v>-7.1053605131578303E-3</v>
       </c>
       <c r="Q310" s="5">
-        <v>2.0476792932862801E-2</v>
-      </c>
-      <c r="R310" s="15">
+        <v>2.0482878570403099E-2</v>
+      </c>
+      <c r="R310" s="5">
         <v>-75</v>
       </c>
       <c r="S310" s="5">
@@ -22984,7 +23005,7 @@
         <v>-3.8653376698218903E-2</v>
       </c>
     </row>
-    <row r="311" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A311" s="18">
         <v>43264</v>
       </c>
@@ -23034,9 +23055,9 @@
         <v>1.9763046590296401E-2</v>
       </c>
       <c r="Q311" s="5">
-        <v>2.91176825140659E-2</v>
-      </c>
-      <c r="R311" s="15">
+        <v>2.91738929280707E-2</v>
+      </c>
+      <c r="R311" s="5">
         <v>33</v>
       </c>
       <c r="S311" s="5">
@@ -23055,7 +23076,7 @@
         <v>-0.14828794553960101</v>
       </c>
     </row>
-    <row r="312" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A312" s="18">
         <v>43313</v>
       </c>
@@ -23105,9 +23126,9 @@
         <v>-4.4845913508268099E-3</v>
       </c>
       <c r="Q312" s="5">
-        <v>8.5470361561196893E-3</v>
-      </c>
-      <c r="R312" s="15">
+        <v>8.5050066415901897E-3</v>
+      </c>
+      <c r="R312" s="5">
         <v>18</v>
       </c>
       <c r="S312" s="5">
@@ -23126,7 +23147,7 @@
         <v>-7.0282961879591294E-2</v>
       </c>
     </row>
-    <row r="313" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A313" s="18">
         <v>43369</v>
       </c>
@@ -23176,9 +23197,9 @@
         <v>-4.4110474570905099E-3</v>
       </c>
       <c r="Q313" s="5">
-        <v>1.15672316605535E-2</v>
-      </c>
-      <c r="R313" s="15">
+        <v>1.15451220956692E-2</v>
+      </c>
+      <c r="R313" s="5">
         <v>9</v>
       </c>
       <c r="S313" s="5">
@@ -23197,7 +23218,7 @@
         <v>-0.216356725725666</v>
       </c>
     </row>
-    <row r="314" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A314" s="18">
         <v>43412</v>
       </c>
@@ -23247,9 +23268,9 @@
         <v>7.7966550986547298E-3</v>
       </c>
       <c r="Q314" s="5">
-        <v>2.17123154007383E-2</v>
-      </c>
-      <c r="R314" s="15">
+        <v>2.1740546521550601E-2</v>
+      </c>
+      <c r="R314" s="5">
         <v>62</v>
       </c>
       <c r="S314" s="5">
@@ -23268,7 +23289,7 @@
         <v>-0.11095140249581401</v>
       </c>
     </row>
-    <row r="315" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A315" s="18">
         <v>43453</v>
       </c>
@@ -23318,9 +23339,9 @@
         <v>2.0558305912111201E-2</v>
       </c>
       <c r="Q315" s="5">
-        <v>6.6097157341627799E-2</v>
-      </c>
-      <c r="R315" s="15">
+        <v>6.6183976156097599E-2</v>
+      </c>
+      <c r="R315" s="5">
         <v>-43</v>
       </c>
       <c r="S315" s="5">
@@ -23339,7 +23360,7 @@
         <v>-0.442361220546581</v>
       </c>
     </row>
-    <row r="316" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A316" s="18">
         <v>43495</v>
       </c>
@@ -23389,9 +23410,9 @@
         <v>-2.84086541751714E-2</v>
       </c>
       <c r="Q316" s="5">
-        <v>-3.3346006902556301E-3</v>
-      </c>
-      <c r="R316" s="15">
+        <v>-3.1788644331959101E-3</v>
+      </c>
+      <c r="R316" s="5">
         <v>136</v>
       </c>
       <c r="S316" s="5">
@@ -23410,7 +23431,7 @@
         <v>-0.63680229207341099</v>
       </c>
     </row>
-    <row r="317" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A317" s="18">
         <v>43544</v>
       </c>
@@ -23460,9 +23481,9 @@
         <v>-3.5787720427602698E-2</v>
       </c>
       <c r="Q317" s="5">
-        <v>-1.0564139089738901E-3</v>
-      </c>
-      <c r="R317" s="15">
+        <v>-1.0798323727353499E-3</v>
+      </c>
+      <c r="R317" s="5">
         <v>-160</v>
       </c>
       <c r="S317" s="5">
@@ -23481,7 +23502,7 @@
         <v>-0.51800925876444803</v>
       </c>
     </row>
-    <row r="318" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A318" s="18">
         <v>43586</v>
       </c>
@@ -23531,9 +23552,9 @@
         <v>-4.6075689866212202E-2</v>
       </c>
       <c r="Q318" s="5">
-        <v>-2.9443596666936599E-2</v>
-      </c>
-      <c r="R318" s="15">
+        <v>-2.9432408395435299E-2</v>
+      </c>
+      <c r="R318" s="5">
         <v>21</v>
       </c>
       <c r="S318" s="5">
@@ -23552,7 +23573,7 @@
         <v>-0.44699546269691198</v>
       </c>
     </row>
-    <row r="319" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A319" s="18">
         <v>43635</v>
       </c>
@@ -23602,9 +23623,9 @@
         <v>-8.7695978376241601E-2</v>
       </c>
       <c r="Q319" s="5">
-        <v>-3.6832603343950998E-2</v>
-      </c>
-      <c r="R319" s="15">
+        <v>-3.6831197559249601E-2</v>
+      </c>
+      <c r="R319" s="5">
         <v>-105</v>
       </c>
       <c r="S319" s="5">
@@ -23623,7 +23644,7 @@
         <v>-0.77076811870394701</v>
       </c>
     </row>
-    <row r="320" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A320" s="18">
         <v>43677</v>
       </c>
@@ -23673,9 +23694,9 @@
         <v>4.3488178417031301E-2</v>
       </c>
       <c r="Q320" s="5">
-        <v>5.3836996142473302E-2</v>
-      </c>
-      <c r="R320" s="15">
+        <v>5.3866421903555603E-2</v>
+      </c>
+      <c r="R320" s="5">
         <v>64</v>
       </c>
       <c r="S320" s="5">
@@ -23694,7 +23715,7 @@
         <v>-7.8063515982826306E-2</v>
       </c>
     </row>
-    <row r="321" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A321" s="18">
         <v>43726</v>
       </c>
@@ -23744,9 +23765,9 @@
         <v>3.5258309724114499E-2</v>
       </c>
       <c r="Q321" s="5">
-        <v>5.5629830343511003E-2</v>
-      </c>
-      <c r="R321" s="15">
+        <v>5.5669577033391003E-2</v>
+      </c>
+      <c r="R321" s="5">
         <v>-30</v>
       </c>
       <c r="S321" s="5">
@@ -23765,7 +23786,7 @@
         <v>-0.337223695176185</v>
       </c>
     </row>
-    <row r="322" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A322" s="18">
         <v>43749</v>
       </c>
@@ -23815,9 +23836,9 @@
         <v>-4.7838215606266204E-3</v>
       </c>
       <c r="Q322" s="5">
-        <v>2.2026727105900701E-2</v>
-      </c>
-      <c r="R322" s="15">
+        <v>2.2060529090206001E-2</v>
+      </c>
+      <c r="R322" s="5">
         <v>-9</v>
       </c>
       <c r="S322" s="5">
@@ -23836,7 +23857,7 @@
         <v>-0.26367464714021699</v>
       </c>
     </row>
-    <row r="323" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A323" s="18">
         <v>43768</v>
       </c>
@@ -23886,9 +23907,9 @@
         <v>1.50412118938918E-2</v>
       </c>
       <c r="Q323" s="5">
-        <v>3.4652016879378203E-2</v>
-      </c>
-      <c r="R323" s="15">
+        <v>3.4676607077074699E-2</v>
+      </c>
+      <c r="R323" s="5">
         <v>-9</v>
       </c>
       <c r="S323" s="5">
@@ -23907,7 +23928,7 @@
         <v>-0.20324710704947699</v>
       </c>
     </row>
-    <row r="324" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A324" s="18">
         <v>43810</v>
       </c>
@@ -23957,9 +23978,9 @@
         <v>-3.8747321644783E-3</v>
       </c>
       <c r="Q324" s="5">
-        <v>8.9503137103619096E-3</v>
-      </c>
-      <c r="R324" s="15">
+        <v>8.9639051182978796E-3</v>
+      </c>
+      <c r="R324" s="5">
         <v>86</v>
       </c>
       <c r="S324" s="5">
@@ -23978,7 +23999,7 @@
         <v>-0.27238615462975102</v>
       </c>
     </row>
-    <row r="325" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A325" s="18"/>
       <c r="B325" s="13"/>
       <c r="D325" s="5"/>
@@ -23995,25 +24016,26 @@
       <c r="O325" s="5"/>
       <c r="P325" s="5"/>
       <c r="Q325" s="5"/>
+      <c r="R325" s="5"/>
       <c r="S325" s="5"/>
       <c r="T325" s="5"/>
       <c r="U325" s="5"/>
       <c r="V325" s="5"/>
       <c r="W325" s="5"/>
     </row>
-    <row r="327" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A327" s="22"/>
       <c r="B327" s="9"/>
     </row>
-    <row r="328" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A328" s="22"/>
       <c r="B328" s="9"/>
     </row>
-    <row r="329" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A329" s="23"/>
       <c r="B329" s="10"/>
     </row>
-    <row r="330" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A330" s="23"/>
       <c r="B330" s="10"/>
     </row>

--- a/static/files/FOMC_Bauer_Swanson.xlsx
+++ b/static/files/FOMC_Bauer_Swanson.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2430645-FD4F-4F6C-A655-8E50F30B39E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="693" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8472" tabRatio="693"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="3" r:id="rId1"/>
@@ -21,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Author</author>
+    <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="J67" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="J67" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -43,7 +42,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J92" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="J92" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -60,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A171" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="A171" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="82">
   <si>
     <t>Date</t>
   </si>
@@ -343,11 +342,20 @@
   <si>
     <t>Columns R through W report the six macroeconomic and financial variables from Table 1 of Bauer-Swanson (2022), used to perform the orthogonalization described above:</t>
   </si>
+  <si>
+    <t>Change log:</t>
+  </si>
+  <si>
+    <t>4/28/2020 initial release</t>
+  </si>
+  <si>
+    <t>5/9/2020 corrected timing of employment growth (use current report if released morning of FOMC), affects columns MPS_ORTH, NFP_12M</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -510,8 +518,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -788,164 +796,179 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:B32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="195.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="195.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" s="16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" s="24"/>
     </row>
-    <row r="8" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B8" s="25" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" s="25" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="25" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" s="25"/>
     </row>
-    <row r="12" spans="2:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:2" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="25" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13" s="25" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B14" s="25" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B15" s="25" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="25" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="25" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B18" s="25" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B19" s="25" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="25" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="25" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="25" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="25" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="25" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="25" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="25" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="25" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" s="25" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="25"/>
     </row>
-    <row r="30" spans="2:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B30" s="26" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" s="26"/>
     </row>
-    <row r="32" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B32" s="26" t="s">
         <v>76</v>
       </c>
     </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="26" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" display="(link to working paper version of Bauer and Swanson, 2022)" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B6" r:id="rId1" display="(link to working paper version of Bauer and Swanson, 2022)"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -953,28 +976,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W330"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A84" sqref="A84"/>
-      <selection pane="bottomRight" activeCell="P6" sqref="P6"/>
+      <selection pane="bottomRight" activeCell="S67" sqref="S67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="21" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="17" width="10.42578125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.42578125" style="15" customWidth="1"/>
-    <col min="19" max="23" width="10.42578125" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="13.44140625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="23" width="10.44140625" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1045,7 +1066,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18">
         <v>32177</v>
       </c>
@@ -1095,9 +1116,9 @@
         <v>-1.7579717003537099E-2</v>
       </c>
       <c r="Q2" s="5">
-        <v>-3.80563487499379E-2</v>
-      </c>
-      <c r="R2" s="15">
+        <v>-3.8071699884985002E-2</v>
+      </c>
+      <c r="R2" s="5">
         <v>151</v>
       </c>
       <c r="S2" s="5">
@@ -1116,7 +1137,7 @@
         <v>0.24065017485693099</v>
       </c>
     </row>
-    <row r="3" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18">
         <v>32178</v>
       </c>
@@ -1166,13 +1187,13 @@
         <v>2.4710027670263E-3</v>
       </c>
       <c r="Q3" s="5">
-        <v>5.1782681892981299E-3</v>
-      </c>
-      <c r="R3" s="15">
+        <v>5.4282905849017803E-3</v>
+      </c>
+      <c r="R3" s="5">
         <v>-93</v>
       </c>
       <c r="S3" s="5">
-        <v>3.0878683909286102</v>
+        <v>3.0085769204157802</v>
       </c>
       <c r="T3" s="5">
         <v>-1.3938303261772599E-2</v>
@@ -1187,7 +1208,7 @@
         <v>0.232826151751165</v>
       </c>
     </row>
-    <row r="4" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18">
         <v>32184</v>
       </c>
@@ -1237,9 +1258,9 @@
         <v>3.7277410354340403E-4</v>
       </c>
       <c r="Q4" s="5">
-        <v>2.1993397862450099E-3</v>
-      </c>
-      <c r="R4" s="15">
+        <v>2.03029077651979E-3</v>
+      </c>
+      <c r="R4" s="5">
         <v>-93</v>
       </c>
       <c r="S4" s="5">
@@ -1258,7 +1279,7 @@
         <v>0.295690816944993</v>
       </c>
     </row>
-    <row r="5" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
         <v>32237</v>
       </c>
@@ -1308,9 +1329,9 @@
         <v>2.1228762851966499E-2</v>
       </c>
       <c r="Q5" s="5">
-        <v>-7.1001653661467096E-3</v>
-      </c>
-      <c r="R5" s="15">
+        <v>-7.2918108947671E-3</v>
+      </c>
+      <c r="R5" s="5">
         <v>62</v>
       </c>
       <c r="S5" s="5">
@@ -1329,7 +1350,7 @@
         <v>0.70322096558823299</v>
       </c>
     </row>
-    <row r="6" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18">
         <v>32238</v>
       </c>
@@ -1379,9 +1400,9 @@
         <v>2.7333028456602501E-2</v>
       </c>
       <c r="Q6" s="5">
-        <v>4.1119046043018399E-3</v>
-      </c>
-      <c r="R6" s="15">
+        <v>3.9136353266834897E-3</v>
+      </c>
+      <c r="R6" s="5">
         <v>62</v>
       </c>
       <c r="S6" s="5">
@@ -1400,7 +1421,7 @@
         <v>0.70101974141718704</v>
       </c>
     </row>
-    <row r="7" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
         <v>32239</v>
       </c>
@@ -1450,9 +1471,9 @@
         <v>-1.4257753533230199E-2</v>
       </c>
       <c r="Q7" s="5">
-        <v>-3.78358235503077E-2</v>
-      </c>
-      <c r="R7" s="15">
+        <v>-3.80389358263441E-2</v>
+      </c>
+      <c r="R7" s="5">
         <v>62</v>
       </c>
       <c r="S7" s="5">
@@ -1471,7 +1492,7 @@
         <v>0.69459993209284399</v>
       </c>
     </row>
-    <row r="8" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
         <v>32272</v>
       </c>
@@ -1521,9 +1542,9 @@
         <v>2.3868310158492001E-2</v>
       </c>
       <c r="Q8" s="5">
-        <v>2.13324653896819E-2</v>
-      </c>
-      <c r="R8" s="15">
+        <v>2.11340707129728E-2</v>
+      </c>
+      <c r="R8" s="5">
         <v>-80</v>
       </c>
       <c r="S8" s="5">
@@ -1542,7 +1563,7 @@
         <v>0.41264449192276498</v>
       </c>
     </row>
-    <row r="9" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
         <v>32273</v>
       </c>
@@ -1592,9 +1613,9 @@
         <v>-5.3043538424038597E-3</v>
       </c>
       <c r="Q9" s="5">
-        <v>-7.1502450399729802E-3</v>
-      </c>
-      <c r="R9" s="15">
+        <v>-7.3410470179555102E-3</v>
+      </c>
+      <c r="R9" s="5">
         <v>-80</v>
       </c>
       <c r="S9" s="5">
@@ -1613,7 +1634,7 @@
         <v>0.39351508986800998</v>
       </c>
     </row>
-    <row r="10" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
         <v>32281</v>
       </c>
@@ -1663,9 +1684,9 @@
         <v>1.96621626562038E-2</v>
       </c>
       <c r="Q10" s="5">
-        <v>1.9279033559076099E-2</v>
-      </c>
-      <c r="R10" s="15">
+        <v>1.9135874684469801E-2</v>
+      </c>
+      <c r="R10" s="5">
         <v>-80</v>
       </c>
       <c r="S10" s="5">
@@ -1684,7 +1705,7 @@
         <v>0.29545504159395097</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
         <v>32282</v>
       </c>
@@ -1734,9 +1755,9 @@
         <v>3.1727622512111697E-2</v>
       </c>
       <c r="Q11" s="5">
-        <v>3.5237929817165503E-2</v>
-      </c>
-      <c r="R11" s="15">
+        <v>3.5102827783595802E-2</v>
+      </c>
+      <c r="R11" s="5">
         <v>-80</v>
       </c>
       <c r="S11" s="5">
@@ -1755,7 +1776,7 @@
         <v>0.27365854052477101</v>
       </c>
     </row>
-    <row r="12" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
         <v>32283</v>
       </c>
@@ -1805,9 +1826,9 @@
         <v>2.4766765082143401E-3</v>
       </c>
       <c r="Q12" s="5">
-        <v>3.7531754386473199E-3</v>
-      </c>
-      <c r="R12" s="15">
+        <v>3.63096218975981E-3</v>
+      </c>
+      <c r="R12" s="5">
         <v>-80</v>
       </c>
       <c r="S12" s="5">
@@ -1826,7 +1847,7 @@
         <v>0.25421113624506703</v>
       </c>
     </row>
-    <row r="13" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
         <v>32288</v>
       </c>
@@ -1876,9 +1897,9 @@
         <v>2.6013571328892499E-2</v>
       </c>
       <c r="Q13" s="5">
-        <v>3.0049874999194499E-2</v>
-      </c>
-      <c r="R13" s="15">
+        <v>2.9942497852491302E-2</v>
+      </c>
+      <c r="R13" s="5">
         <v>-80</v>
       </c>
       <c r="S13" s="5">
@@ -1897,7 +1918,7 @@
         <v>0.218245836864492</v>
       </c>
     </row>
-    <row r="14" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
         <v>32289</v>
       </c>
@@ -1947,9 +1968,9 @@
         <v>2.1207306099962301E-2</v>
       </c>
       <c r="Q14" s="5">
-        <v>2.59955448878725E-2</v>
-      </c>
-      <c r="R14" s="15">
+        <v>2.58816391503955E-2</v>
+      </c>
+      <c r="R14" s="5">
         <v>-80</v>
       </c>
       <c r="S14" s="5">
@@ -1968,7 +1989,7 @@
         <v>0.21540335204473199</v>
       </c>
     </row>
-    <row r="15" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
         <v>32311</v>
       </c>
@@ -2018,9 +2039,9 @@
         <v>2.7348811467425901E-2</v>
       </c>
       <c r="Q15" s="5">
-        <v>1.11787451077471E-2</v>
-      </c>
-      <c r="R15" s="15">
+        <v>1.1147162247386299E-2</v>
+      </c>
+      <c r="R15" s="5">
         <v>-13.5</v>
       </c>
       <c r="S15" s="5">
@@ -2039,7 +2060,7 @@
         <v>0.17276955500570901</v>
       </c>
     </row>
-    <row r="16" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18">
         <v>32314</v>
       </c>
@@ -2089,9 +2110,9 @@
         <v>-1.6587342253956899E-2</v>
       </c>
       <c r="Q16" s="5">
-        <v>-3.37114797485066E-2</v>
-      </c>
-      <c r="R16" s="15">
+        <v>-3.37305014675158E-2</v>
+      </c>
+      <c r="R16" s="5">
         <v>-13.5</v>
       </c>
       <c r="S16" s="5">
@@ -2110,7 +2131,7 @@
         <v>0.17646195281089999</v>
       </c>
     </row>
-    <row r="17" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
         <v>32325</v>
       </c>
@@ -2160,9 +2181,9 @@
         <v>1.15872732561747E-2</v>
       </c>
       <c r="Q17" s="5">
-        <v>-6.6369511402836296E-3</v>
-      </c>
-      <c r="R17" s="15">
+        <v>-6.68049312263716E-3</v>
+      </c>
+      <c r="R17" s="5">
         <v>-13.5</v>
       </c>
       <c r="S17" s="5">
@@ -2181,7 +2202,7 @@
         <v>0.16167920236865799</v>
       </c>
     </row>
-    <row r="18" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18">
         <v>32343</v>
       </c>
@@ -2231,9 +2252,9 @@
         <v>2.3852527147665E-2</v>
       </c>
       <c r="Q18" s="5">
-        <v>-6.2470772064232901E-3</v>
-      </c>
-      <c r="R18" s="15">
+        <v>-6.2613739715097301E-3</v>
+      </c>
+      <c r="R18" s="5">
         <v>121</v>
       </c>
       <c r="S18" s="5">
@@ -2252,7 +2273,7 @@
         <v>0.24230111331781801</v>
       </c>
     </row>
-    <row r="19" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18">
         <v>32344</v>
       </c>
@@ -2302,9 +2323,9 @@
         <v>1.0357445613834599E-2</v>
       </c>
       <c r="Q19" s="5">
-        <v>-1.85850373875961E-2</v>
-      </c>
-      <c r="R19" s="15">
+        <v>-1.8597982640274801E-2</v>
+      </c>
+      <c r="R19" s="5">
         <v>121</v>
       </c>
       <c r="S19" s="5">
@@ -2323,7 +2344,7 @@
         <v>0.245311793081714</v>
       </c>
     </row>
-    <row r="20" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18">
         <v>32364</v>
       </c>
@@ -2373,9 +2394,9 @@
         <v>0.116370690716899</v>
       </c>
       <c r="Q20" s="5">
-        <v>9.3550287791235795E-2</v>
-      </c>
-      <c r="R20" s="15">
+        <v>9.3478198292056003E-2</v>
+      </c>
+      <c r="R20" s="5">
         <v>35</v>
       </c>
       <c r="S20" s="5">
@@ -2394,7 +2415,7 @@
         <v>0.37004980898869499</v>
       </c>
     </row>
-    <row r="21" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18">
         <v>32364</v>
       </c>
@@ -2444,9 +2465,9 @@
         <v>2.0844641266065701E-2</v>
       </c>
       <c r="Q21" s="5">
-        <v>-1.9757616595978801E-3</v>
-      </c>
-      <c r="R21" s="15">
+        <v>-2.0478511587776198E-3</v>
+      </c>
+      <c r="R21" s="5">
         <v>35</v>
       </c>
       <c r="S21" s="5">
@@ -2465,7 +2486,7 @@
         <v>0.37004980898869499</v>
       </c>
     </row>
-    <row r="22" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18">
         <v>32372</v>
       </c>
@@ -2515,9 +2536,9 @@
         <v>2.7333028456602598E-2</v>
       </c>
       <c r="Q22" s="5">
-        <v>1.0853136646709101E-2</v>
-      </c>
-      <c r="R22" s="15">
+        <v>1.0784084509145401E-2</v>
+      </c>
+      <c r="R22" s="5">
         <v>35</v>
       </c>
       <c r="S22" s="5">
@@ -2536,7 +2557,7 @@
         <v>0.33551781638861</v>
       </c>
     </row>
-    <row r="23" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18">
         <v>32407</v>
       </c>
@@ -2586,9 +2607,9 @@
         <v>-1.3522263311403E-2</v>
       </c>
       <c r="Q23" s="5">
-        <v>-1.68935233647597E-3</v>
-      </c>
-      <c r="R23" s="15">
+        <v>-1.83710679549518E-3</v>
+      </c>
+      <c r="R23" s="5">
         <v>-10</v>
       </c>
       <c r="S23" s="5">
@@ -2607,7 +2628,7 @@
         <v>0.140542180314252</v>
       </c>
     </row>
-    <row r="24" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="18">
         <v>32449</v>
       </c>
@@ -2657,9 +2678,9 @@
         <v>1.3091057934188599E-2</v>
       </c>
       <c r="Q24" s="5">
-        <v>1.0580430824304999E-2</v>
-      </c>
-      <c r="R24" s="15">
+        <v>1.04333738275257E-2</v>
+      </c>
+      <c r="R24" s="5">
         <v>-27.5</v>
       </c>
       <c r="S24" s="5">
@@ -2678,7 +2699,7 @@
         <v>0.29254284561914801</v>
       </c>
     </row>
-    <row r="25" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
         <v>32454</v>
       </c>
@@ -2728,9 +2749,9 @@
         <v>2.33898070331943E-2</v>
       </c>
       <c r="Q25" s="5">
-        <v>1.08932728109665E-2</v>
-      </c>
-      <c r="R25" s="15">
+        <v>1.0810432051049999E-2</v>
+      </c>
+      <c r="R25" s="5">
         <v>93</v>
       </c>
       <c r="S25" s="5">
@@ -2749,7 +2770,7 @@
         <v>0.32615131602538999</v>
       </c>
     </row>
-    <row r="26" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="18">
         <v>32455</v>
       </c>
@@ -2799,9 +2820,9 @@
         <v>3.2921448604339001E-2</v>
       </c>
       <c r="Q26" s="5">
-        <v>1.9648121599294001E-2</v>
-      </c>
-      <c r="R26" s="15">
+        <v>1.95708794186004E-2</v>
+      </c>
+      <c r="R26" s="5">
         <v>93</v>
       </c>
       <c r="S26" s="5">
@@ -2820,7 +2841,7 @@
         <v>0.34259966722331098</v>
       </c>
     </row>
-    <row r="27" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="18">
         <v>32492</v>
       </c>
@@ -2870,9 +2891,9 @@
         <v>4.0759304205950003E-2</v>
       </c>
       <c r="Q27" s="5">
-        <v>1.2161638598463399E-2</v>
-      </c>
-      <c r="R27" s="15">
+        <v>1.21799980758047E-2</v>
+      </c>
+      <c r="R27" s="5">
         <v>213</v>
       </c>
       <c r="S27" s="5">
@@ -2891,7 +2912,7 @@
         <v>0.21948237923010899</v>
       </c>
     </row>
-    <row r="28" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="18">
         <v>32514</v>
       </c>
@@ -2941,13 +2962,13 @@
         <v>4.3472450230423801E-3</v>
       </c>
       <c r="Q28" s="5">
-        <v>-1.8766005026078399E-2</v>
-      </c>
-      <c r="R28" s="15">
+        <v>-1.8714977102703201E-2</v>
+      </c>
+      <c r="R28" s="5">
         <v>29</v>
       </c>
       <c r="S28" s="5">
-        <v>3.0908841322157001</v>
+        <v>3.0749149144421399</v>
       </c>
       <c r="T28" s="5">
         <v>3.13052813880779E-2</v>
@@ -2962,7 +2983,7 @@
         <v>0.258062296668083</v>
       </c>
     </row>
-    <row r="29" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="18">
         <v>32517</v>
       </c>
@@ -3012,9 +3033,9 @@
         <v>-5.4356586190601802E-3</v>
       </c>
       <c r="Q29" s="5">
-        <v>-2.98934264230198E-2</v>
-      </c>
-      <c r="R29" s="15">
+        <v>-2.99107521016744E-2</v>
+      </c>
+      <c r="R29" s="5">
         <v>29</v>
       </c>
       <c r="S29" s="5">
@@ -3033,7 +3054,7 @@
         <v>0.25861641297676302</v>
       </c>
     </row>
-    <row r="30" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="18">
         <v>32518</v>
       </c>
@@ -3083,9 +3104,9 @@
         <v>1.3185122948031701E-2</v>
       </c>
       <c r="Q30" s="5">
-        <v>-9.7289879808459493E-3</v>
-      </c>
-      <c r="R30" s="15">
+        <v>-9.7554973921152605E-3</v>
+      </c>
+      <c r="R30" s="5">
         <v>29</v>
       </c>
       <c r="S30" s="5">
@@ -3104,7 +3125,7 @@
         <v>0.27122216737043298</v>
       </c>
     </row>
-    <row r="31" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="18">
         <v>32548</v>
       </c>
@@ -3154,9 +3175,9 @@
         <v>-2.7784401088707299E-2</v>
       </c>
       <c r="Q31" s="5">
-        <v>-6.4583976921637198E-2</v>
-      </c>
-      <c r="R31" s="15">
+        <v>-6.4589831558675107E-2</v>
+      </c>
+      <c r="R31" s="5">
         <v>153</v>
       </c>
       <c r="S31" s="5">
@@ -3175,7 +3196,7 @@
         <v>0.28017196397692601</v>
       </c>
     </row>
-    <row r="32" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="18">
         <v>32553</v>
       </c>
@@ -3225,9 +3246,9 @@
         <v>3.0004141784771399E-2</v>
       </c>
       <c r="Q32" s="5">
-        <v>-5.5214889661827802E-4</v>
-      </c>
-      <c r="R32" s="15">
+        <v>-5.8035571196947498E-4</v>
+      </c>
+      <c r="R32" s="5">
         <v>153</v>
       </c>
       <c r="S32" s="5">
@@ -3246,7 +3267,7 @@
         <v>0.248414954361831</v>
       </c>
     </row>
-    <row r="33" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="18">
         <v>32562</v>
       </c>
@@ -3296,9 +3317,9 @@
         <v>8.6582442504090695E-2</v>
       </c>
       <c r="Q33" s="5">
-        <v>5.1081439620055701E-2</v>
-      </c>
-      <c r="R33" s="15">
+        <v>5.1050131849108303E-2</v>
+      </c>
+      <c r="R33" s="5">
         <v>153</v>
       </c>
       <c r="S33" s="5">
@@ -3317,7 +3338,7 @@
         <v>0.23211176439425801</v>
       </c>
     </row>
-    <row r="34" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="18">
         <v>32563</v>
       </c>
@@ -3367,9 +3388,9 @@
         <v>6.5080960829153295E-2</v>
       </c>
       <c r="Q34" s="5">
-        <v>2.8904975356773801E-2</v>
-      </c>
-      <c r="R34" s="15">
+        <v>2.88864742129783E-2</v>
+      </c>
+      <c r="R34" s="5">
         <v>153</v>
       </c>
       <c r="S34" s="5">
@@ -3388,7 +3409,7 @@
         <v>0.22256226445510399</v>
       </c>
     </row>
-    <row r="35" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="18">
         <v>32563</v>
       </c>
@@ -3438,9 +3459,9 @@
         <v>-4.3640320839343702E-2</v>
       </c>
       <c r="Q35" s="5">
-        <v>-7.9816306311723206E-2</v>
-      </c>
-      <c r="R35" s="15">
+        <v>-7.98348074555187E-2</v>
+      </c>
+      <c r="R35" s="5">
         <v>153</v>
       </c>
       <c r="S35" s="5">
@@ -3459,7 +3480,7 @@
         <v>0.22256226445510399</v>
       </c>
     </row>
-    <row r="36" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="18">
         <v>32596</v>
       </c>
@@ -3509,9 +3530,9 @@
         <v>-2.20918066574874E-2</v>
       </c>
       <c r="Q36" s="5">
-        <v>-4.0323653802646901E-2</v>
-      </c>
-      <c r="R36" s="15">
+        <v>-4.0380391247823798E-2</v>
+      </c>
+      <c r="R36" s="5">
         <v>46.5</v>
       </c>
       <c r="S36" s="5">
@@ -3530,7 +3551,7 @@
         <v>0.23147795418492001</v>
       </c>
     </row>
-    <row r="37" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="18">
         <v>32645</v>
       </c>
@@ -3580,9 +3601,9 @@
         <v>-1.5577527186489E-2</v>
       </c>
       <c r="Q37" s="5">
-        <v>-1.65486313629872E-2</v>
-      </c>
-      <c r="R37" s="15">
+        <v>-1.6731759376159401E-2</v>
+      </c>
+      <c r="R37" s="5">
         <v>-103</v>
       </c>
       <c r="S37" s="5">
@@ -3601,7 +3622,7 @@
         <v>0.236802277083659</v>
       </c>
     </row>
-    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="18">
         <v>32665</v>
       </c>
@@ -3651,9 +3672,9 @@
         <v>-5.2289752211116897E-2</v>
       </c>
       <c r="Q38" s="5">
-        <v>-4.79541041233284E-2</v>
-      </c>
-      <c r="R38" s="15">
+        <v>-4.8194754329368601E-2</v>
+      </c>
+      <c r="R38" s="5">
         <v>-99</v>
       </c>
       <c r="S38" s="5">
@@ -3672,7 +3693,7 @@
         <v>0.24602539603930701</v>
       </c>
     </row>
-    <row r="39" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="18">
         <v>32696</v>
       </c>
@@ -3722,13 +3743,13 @@
         <v>-3.0050857766132699E-2</v>
       </c>
       <c r="Q39" s="5">
-        <v>-2.2813481097310601E-2</v>
-      </c>
-      <c r="R39" s="15">
+        <v>-2.1942477854892999E-2</v>
+      </c>
+      <c r="R39" s="5">
         <v>-17.5</v>
       </c>
       <c r="S39" s="5">
-        <v>2.7726967042150701</v>
+        <v>2.5320893637392299</v>
       </c>
       <c r="T39" s="5">
         <v>8.5127369990417798E-2</v>
@@ -3743,7 +3764,7 @@
         <v>0.18131071125442899</v>
       </c>
     </row>
-    <row r="40" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="18">
         <v>32714</v>
       </c>
@@ -3793,9 +3814,9 @@
         <v>-2.8437225063451699E-2</v>
       </c>
       <c r="Q40" s="5">
-        <v>-1.7055532855957602E-2</v>
-      </c>
-      <c r="R40" s="15">
+        <v>-1.7275187653192501E-2</v>
+      </c>
+      <c r="R40" s="5">
         <v>-17.5</v>
       </c>
       <c r="S40" s="5">
@@ -3814,7 +3835,7 @@
         <v>0.143099036342447</v>
       </c>
     </row>
-    <row r="41" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="18">
         <v>32715</v>
       </c>
@@ -3864,9 +3885,9 @@
         <v>-1.4332233058889801E-2</v>
       </c>
       <c r="Q41" s="5">
-        <v>7.2230559115102705E-5</v>
-      </c>
-      <c r="R41" s="15">
+        <v>-1.5259640685177299E-4</v>
+      </c>
+      <c r="R41" s="5">
         <v>-17.5</v>
       </c>
       <c r="S41" s="5">
@@ -3885,7 +3906,7 @@
         <v>0.13065570228943299</v>
       </c>
     </row>
-    <row r="42" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="18">
         <v>32716</v>
       </c>
@@ -3935,9 +3956,9 @@
         <v>-1.5530494679578399E-2</v>
       </c>
       <c r="Q42" s="5">
-        <v>-2.1401272224552698E-3</v>
-      </c>
-      <c r="R42" s="15">
+        <v>-2.37069708397718E-3</v>
+      </c>
+      <c r="R42" s="5">
         <v>-17.5</v>
       </c>
       <c r="S42" s="5">
@@ -3956,7 +3977,7 @@
         <v>0.114267050837612</v>
       </c>
     </row>
-    <row r="43" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="18">
         <v>32743</v>
       </c>
@@ -4006,9 +4027,9 @@
         <v>-2.34996550578578E-2</v>
       </c>
       <c r="Q43" s="5">
-        <v>-1.5948965454966699E-2</v>
-      </c>
-      <c r="R43" s="15">
+        <v>-1.60645669233975E-2</v>
+      </c>
+      <c r="R43" s="5">
         <v>9</v>
       </c>
       <c r="S43" s="5">
@@ -4027,7 +4048,7 @@
         <v>1.07383388602059E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="18">
         <v>32785</v>
       </c>
@@ -4077,9 +4098,9 @@
         <v>4.2373969983790999E-3</v>
       </c>
       <c r="Q44" s="5">
-        <v>-3.0432187050895001E-3</v>
-      </c>
-      <c r="R44" s="15">
+        <v>-3.1339595491447899E-3</v>
+      </c>
+      <c r="R44" s="5">
         <v>42</v>
       </c>
       <c r="S44" s="5">
@@ -4098,7 +4119,7 @@
         <v>7.78063774206776E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="18">
         <v>32797</v>
       </c>
@@ -4148,9 +4169,9 @@
         <v>1.6734746566989998E-2</v>
       </c>
       <c r="Q45" s="5">
-        <v>2.8639133923002401E-2</v>
-      </c>
-      <c r="R45" s="15">
+        <v>2.8555970804309699E-2</v>
+      </c>
+      <c r="R45" s="5">
         <v>-66</v>
       </c>
       <c r="S45" s="5">
@@ -4169,7 +4190,7 @@
         <v>7.3977613305449802E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="18">
         <v>32800</v>
       </c>
@@ -4219,9 +4240,9 @@
         <v>6.5398552259170201E-3</v>
       </c>
       <c r="Q46" s="5">
-        <v>1.8890148194599402E-2</v>
-      </c>
-      <c r="R46" s="15">
+        <v>1.8788177632122E-2</v>
+      </c>
+      <c r="R46" s="5">
         <v>-66</v>
       </c>
       <c r="S46" s="5">
@@ -4240,7 +4261,7 @@
         <v>4.0335209250892998E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="18">
         <v>32819</v>
       </c>
@@ -4290,9 +4311,9 @@
         <v>-6.8224270490321898E-2</v>
       </c>
       <c r="Q47" s="5">
-        <v>-6.3253103495084603E-2</v>
-      </c>
-      <c r="R47" s="15">
+        <v>-6.3179434682819904E-2</v>
+      </c>
+      <c r="R47" s="5">
         <v>78</v>
       </c>
       <c r="S47" s="5">
@@ -4311,7 +4332,7 @@
         <v>-0.14553797677289701</v>
       </c>
     </row>
-    <row r="48" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="18">
         <v>32820</v>
       </c>
@@ -4361,9 +4382,9 @@
         <v>4.02181995197309E-3</v>
       </c>
       <c r="Q48" s="5">
-        <v>1.03861199009298E-2</v>
-      </c>
-      <c r="R48" s="15">
+        <v>1.0456076489470599E-2</v>
+      </c>
+      <c r="R48" s="5">
         <v>78</v>
       </c>
       <c r="S48" s="5">
@@ -4382,7 +4403,7 @@
         <v>-0.14049344952039</v>
       </c>
     </row>
-    <row r="49" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="18">
         <v>32821</v>
       </c>
@@ -4432,9 +4453,9 @@
         <v>3.7441673695327103E-2</v>
       </c>
       <c r="Q49" s="5">
-        <v>4.5152133416859197E-2</v>
-      </c>
-      <c r="R49" s="15">
+        <v>4.5194630305089599E-2</v>
+      </c>
+      <c r="R49" s="5">
         <v>78</v>
       </c>
       <c r="S49" s="5">
@@ -4453,7 +4474,7 @@
         <v>-0.133972012973924</v>
       </c>
     </row>
-    <row r="50" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="18">
         <v>32827</v>
       </c>
@@ -4503,9 +4524,9 @@
         <v>1.60872798078734E-2</v>
       </c>
       <c r="Q50" s="5">
-        <v>2.41948690869121E-2</v>
-      </c>
-      <c r="R50" s="15">
+        <v>2.4217471800946098E-2</v>
+      </c>
+      <c r="R50" s="5">
         <v>78</v>
       </c>
       <c r="S50" s="5">
@@ -4524,7 +4545,7 @@
         <v>-0.139948297193877</v>
       </c>
     </row>
-    <row r="51" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="18">
         <v>32862</v>
       </c>
@@ -4574,9 +4595,9 @@
         <v>-2.9135424238057799E-2</v>
       </c>
       <c r="Q51" s="5">
-        <v>-2.7076216240819299E-2</v>
-      </c>
-      <c r="R51" s="15">
+        <v>-2.7059147873356101E-2</v>
+      </c>
+      <c r="R51" s="5">
         <v>45</v>
       </c>
       <c r="S51" s="5">
@@ -4595,7 +4616,7 @@
         <v>4.7635909374107499E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" s="18">
         <v>32912</v>
       </c>
@@ -4645,9 +4666,9 @@
         <v>1.08457414832184E-2</v>
       </c>
       <c r="Q52" s="5">
-        <v>1.0467227119681399E-2</v>
-      </c>
-      <c r="R52" s="15">
+        <v>1.0466287745384301E-2</v>
+      </c>
+      <c r="R52" s="5">
         <v>102.5</v>
       </c>
       <c r="S52" s="5">
@@ -4666,7 +4687,7 @@
         <v>0.12252831555862501</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" s="18">
         <v>32960</v>
       </c>
@@ -4716,9 +4737,9 @@
         <v>-2.47723962042024E-2</v>
       </c>
       <c r="Q53" s="5">
-        <v>-2.5716287194349399E-2</v>
-      </c>
-      <c r="R53" s="15">
+        <v>-2.5683169930848699E-2</v>
+      </c>
+      <c r="R53" s="5">
         <v>149.5</v>
       </c>
       <c r="S53" s="5">
@@ -4737,7 +4758,7 @@
         <v>3.5372756840896698E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" s="18">
         <v>33009</v>
       </c>
@@ -4787,9 +4808,9 @@
         <v>-1.7144127382248402E-2</v>
       </c>
       <c r="Q54" s="5">
-        <v>1.8040678864918901E-2</v>
-      </c>
-      <c r="R54" s="15">
+        <v>1.7824606988455501E-2</v>
+      </c>
+      <c r="R54" s="5">
         <v>-306</v>
       </c>
       <c r="S54" s="5">
@@ -4808,7 +4829,7 @@
         <v>4.0416210248652003E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" s="18">
         <v>33059</v>
       </c>
@@ -4858,9 +4879,9 @@
         <v>6.6926167545814401E-3</v>
       </c>
       <c r="Q55" s="5">
-        <v>2.1582239702345501E-2</v>
-      </c>
-      <c r="R55" s="15">
+        <v>2.1434223839850101E-2</v>
+      </c>
+      <c r="R55" s="5">
         <v>-68.5</v>
       </c>
       <c r="S55" s="5">
@@ -4879,7 +4900,7 @@
         <v>0.155180244674469</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" s="18">
         <v>33067</v>
       </c>
@@ -4929,9 +4950,9 @@
         <v>-3.3135787438025401E-2</v>
       </c>
       <c r="Q56" s="5">
-        <v>-2.2046648002268202E-2</v>
-      </c>
-      <c r="R56" s="15">
+        <v>-2.21787964530634E-2</v>
+      </c>
+      <c r="R56" s="5">
         <v>-60</v>
       </c>
       <c r="S56" s="5">
@@ -4950,7 +4971,7 @@
         <v>0.154871407677971</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" s="18">
         <v>33107</v>
       </c>
@@ -5000,9 +5021,9 @@
         <v>3.9220811969527302E-3</v>
       </c>
       <c r="Q57" s="5">
-        <v>3.9107577984399199E-2</v>
-      </c>
-      <c r="R57" s="15">
+        <v>3.9050729210087801E-2</v>
+      </c>
+      <c r="R57" s="5">
         <v>-219</v>
       </c>
       <c r="S57" s="5">
@@ -5021,7 +5042,7 @@
         <v>2.8324185969093699E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" s="18">
         <v>33149</v>
       </c>
@@ -5071,9 +5092,9 @@
         <v>-9.3946630532920107E-3</v>
       </c>
       <c r="Q58" s="5">
-        <v>-3.7866060947726299E-3</v>
-      </c>
-      <c r="R58" s="15">
+        <v>-3.7455896910782499E-3</v>
+      </c>
+      <c r="R58" s="5">
         <v>-42</v>
       </c>
       <c r="S58" s="5">
@@ -5092,7 +5113,7 @@
         <v>0.38691168104864399</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" s="18">
         <v>33175</v>
       </c>
@@ -5142,9 +5163,9 @@
         <v>4.36302803385778E-3</v>
       </c>
       <c r="Q59" s="5">
-        <v>2.32338572271895E-2</v>
-      </c>
-      <c r="R59" s="15">
+        <v>2.3267291867189701E-2</v>
+      </c>
+      <c r="R59" s="5">
         <v>-101</v>
       </c>
       <c r="S59" s="5">
@@ -5163,7 +5184,7 @@
         <v>0.38318025459949601</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" s="18">
         <v>33191</v>
       </c>
@@ -5213,9 +5234,9 @@
         <v>5.1730490657401901E-3</v>
       </c>
       <c r="Q60" s="5">
-        <v>1.36968893730312E-2</v>
-      </c>
-      <c r="R60" s="15">
+        <v>1.3689706862269601E-2</v>
+      </c>
+      <c r="R60" s="5">
         <v>-46</v>
       </c>
       <c r="S60" s="5">
@@ -5234,7 +5255,7 @@
         <v>0.50419741041802102</v>
       </c>
     </row>
-    <row r="61" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="18">
         <v>33192</v>
       </c>
@@ -5284,9 +5305,9 @@
         <v>1.6294157135006799E-3</v>
       </c>
       <c r="Q61" s="5">
-        <v>1.0588157213360601E-2</v>
-      </c>
-      <c r="R61" s="15">
+        <v>1.05756343126604E-2</v>
+      </c>
+      <c r="R61" s="5">
         <v>-46</v>
       </c>
       <c r="S61" s="5">
@@ -5305,7 +5326,7 @@
         <v>0.506069018187428</v>
       </c>
     </row>
-    <row r="62" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="18">
         <v>33193</v>
       </c>
@@ -5355,9 +5376,9 @@
         <v>5.3258105944047601E-3</v>
       </c>
       <c r="Q62" s="5">
-        <v>1.6627986933449801E-2</v>
-      </c>
-      <c r="R62" s="15">
+        <v>1.6616167449712099E-2</v>
+      </c>
+      <c r="R62" s="5">
         <v>-46</v>
       </c>
       <c r="S62" s="5">
@@ -5376,7 +5397,7 @@
         <v>0.505593303237997</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" s="18">
         <v>33214</v>
       </c>
@@ -5426,13 +5447,13 @@
         <v>-2.87314006384304E-2</v>
       </c>
       <c r="Q63" s="5">
-        <v>4.1858171314681001E-4</v>
-      </c>
-      <c r="R63" s="15">
+        <v>2.06016830779577E-3</v>
+      </c>
+      <c r="R63" s="5">
         <v>-192</v>
       </c>
       <c r="S63" s="5">
-        <v>0.81802487896549503</v>
+        <v>0.42391996171513602</v>
       </c>
       <c r="T63" s="5">
         <v>1.43239734972314E-2</v>
@@ -5447,7 +5468,7 @@
         <v>0.45379234667160701</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" s="18">
         <v>33225</v>
       </c>
@@ -5497,9 +5518,9 @@
         <v>-0.10962938414833499</v>
       </c>
       <c r="Q64" s="5">
-        <v>-7.9778544213463601E-2</v>
-      </c>
-      <c r="R64" s="15">
+        <v>-7.9953121922466702E-2</v>
+      </c>
+      <c r="R64" s="5">
         <v>-192</v>
       </c>
       <c r="S64" s="5">
@@ -5518,7 +5539,7 @@
         <v>0.51252736307160696</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" s="18">
         <v>33226</v>
       </c>
@@ -5568,9 +5589,9 @@
         <v>2.7433083737170998E-2</v>
       </c>
       <c r="Q65" s="5">
-        <v>5.52111961765714E-2</v>
-      </c>
-      <c r="R65" s="15">
+        <v>5.5037808970266201E-2</v>
+      </c>
+      <c r="R65" s="5">
         <v>-192</v>
       </c>
       <c r="S65" s="5">
@@ -5589,7 +5610,7 @@
         <v>0.52449275248393901</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66" s="18">
         <v>33246</v>
       </c>
@@ -5639,9 +5660,9 @@
         <v>-0.109487970102028</v>
       </c>
       <c r="Q66" s="5">
-        <v>-9.3998314360740395E-2</v>
-      </c>
-      <c r="R66" s="15">
+        <v>-9.4107841416189705E-2</v>
+      </c>
+      <c r="R66" s="5">
         <v>75</v>
       </c>
       <c r="S66" s="5">
@@ -5660,7 +5681,7 @@
         <v>0.55799292255090804</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67" s="18">
         <v>33270</v>
       </c>
@@ -5710,13 +5731,13 @@
         <v>-4.9813075702913601E-2</v>
       </c>
       <c r="Q67" s="5">
-        <v>-1.08227850721154E-2</v>
-      </c>
-      <c r="R67" s="15">
+        <v>-9.1553267486396105E-3</v>
+      </c>
+      <c r="R67" s="5">
         <v>-230</v>
       </c>
       <c r="S67" s="5">
-        <v>0.30274974730311</v>
+        <v>-0.13195636359011301</v>
       </c>
       <c r="T67" s="5">
         <v>0.130408523962219</v>
@@ -5731,7 +5752,7 @@
         <v>0.480941390692808</v>
       </c>
     </row>
-    <row r="68" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="18">
         <v>33270</v>
       </c>
@@ -5781,13 +5802,13 @@
         <v>-3.96500669090291E-2</v>
       </c>
       <c r="Q68" s="5">
-        <v>-6.5977627823086396E-4</v>
-      </c>
-      <c r="R68" s="15">
+        <v>1.0076820452448801E-3</v>
+      </c>
+      <c r="R68" s="5">
         <v>-230</v>
       </c>
       <c r="S68" s="5">
-        <v>0.30274974730311</v>
+        <v>-0.13195636359011301</v>
       </c>
       <c r="T68" s="5">
         <v>0.130408523962219</v>
@@ -5802,7 +5823,7 @@
         <v>0.480941390692808</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69" s="18">
         <v>33276</v>
       </c>
@@ -5852,9 +5873,9 @@
         <v>-4.9688195016884098E-3</v>
       </c>
       <c r="Q69" s="5">
-        <v>3.4968280739415297E-2</v>
-      </c>
-      <c r="R69" s="15">
+        <v>3.4674968667917902E-2</v>
+      </c>
+      <c r="R69" s="5">
         <v>-230</v>
       </c>
       <c r="S69" s="5">
@@ -5873,7 +5894,7 @@
         <v>0.43575444275757202</v>
       </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70" s="18">
         <v>33305</v>
       </c>
@@ -5923,13 +5944,13 @@
         <v>-6.5972963772618298E-2</v>
       </c>
       <c r="Q70" s="5">
-        <v>-4.79747006517545E-2</v>
-      </c>
-      <c r="R70" s="15">
+        <v>-4.5808701709932502E-2</v>
+      </c>
+      <c r="R70" s="5">
         <v>-77</v>
       </c>
       <c r="S70" s="5">
-        <v>-0.13195636359011301</v>
+        <v>-0.64262329881934499</v>
       </c>
       <c r="T70" s="5">
         <v>0.148297635016721</v>
@@ -5944,7 +5965,7 @@
         <v>0.37531333570282699</v>
       </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71" s="18">
         <v>33324</v>
       </c>
@@ -5994,9 +6015,9 @@
         <v>-3.7963611987741501E-2</v>
       </c>
       <c r="Q71" s="5">
-        <v>-1.6874393877696198E-2</v>
-      </c>
-      <c r="R71" s="15">
+        <v>-1.7022644301418401E-2</v>
+      </c>
+      <c r="R71" s="5">
         <v>-77</v>
       </c>
       <c r="S71" s="5">
@@ -6015,7 +6036,7 @@
         <v>0.402927022574805</v>
       </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72" s="18">
         <v>33358</v>
       </c>
@@ -6065,9 +6086,9 @@
         <v>-0.18824770696423301</v>
       </c>
       <c r="Q72" s="5">
-        <v>-0.17220903615299199</v>
-      </c>
-      <c r="R72" s="15">
+        <v>-0.17224225002235999</v>
+      </c>
+      <c r="R72" s="5">
         <v>-60</v>
       </c>
       <c r="S72" s="5">
@@ -6086,7 +6107,7 @@
         <v>0.293738898456673</v>
       </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73" s="18">
         <v>33358</v>
       </c>
@@ -6136,9 +6157,9 @@
         <v>2.73803774890722E-2</v>
       </c>
       <c r="Q73" s="5">
-        <v>4.3419048300312901E-2</v>
-      </c>
-      <c r="R73" s="15">
+        <v>4.3385834430944799E-2</v>
+      </c>
+      <c r="R73" s="5">
         <v>-60</v>
       </c>
       <c r="S73" s="5">
@@ -6157,7 +6178,7 @@
         <v>0.293738898456673</v>
       </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74" s="18">
         <v>33373</v>
       </c>
@@ -6207,9 +6228,9 @@
         <v>8.8849104319114105E-3</v>
       </c>
       <c r="Q74" s="5">
-        <v>3.03996543593478E-2</v>
-      </c>
-      <c r="R74" s="15">
+        <v>3.0429405436825201E-2</v>
+      </c>
+      <c r="R74" s="5">
         <v>11</v>
       </c>
       <c r="S74" s="5">
@@ -6228,7 +6249,7 @@
         <v>0.27724591543796601</v>
       </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75" s="18">
         <v>33424</v>
       </c>
@@ -6278,13 +6299,13 @@
         <v>9.1790860068859895E-3</v>
       </c>
       <c r="Q75" s="5">
-        <v>4.9496100780642198E-2</v>
-      </c>
-      <c r="R75" s="15">
+        <v>4.9234059566310898E-2</v>
+      </c>
+      <c r="R75" s="5">
         <v>-100</v>
       </c>
       <c r="S75" s="5">
-        <v>-1.4581528302137801</v>
+        <v>-1.39513697864349</v>
       </c>
       <c r="T75" s="5">
         <v>-1.6391884647682702E-2</v>
@@ -6299,7 +6320,7 @@
         <v>0.22707232485634199</v>
       </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76" s="18">
         <v>33456</v>
       </c>
@@ -6349,9 +6370,9 @@
         <v>-0.119976720492542</v>
       </c>
       <c r="Q76" s="5">
-        <v>-8.7199135945849202E-2</v>
-      </c>
-      <c r="R76" s="15">
+        <v>-8.7159112045439996E-2</v>
+      </c>
+      <c r="R76" s="5">
         <v>-101</v>
       </c>
       <c r="S76" s="5">
@@ -6370,7 +6391,7 @@
         <v>0.22410626906271799</v>
       </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77" s="18">
         <v>33471</v>
       </c>
@@ -6420,9 +6441,9 @@
         <v>1.6865734818108599E-2</v>
       </c>
       <c r="Q77" s="5">
-        <v>5.1433428715891398E-2</v>
-      </c>
-      <c r="R77" s="15">
+        <v>5.1465158208575702E-2</v>
+      </c>
+      <c r="R77" s="5">
         <v>-101</v>
       </c>
       <c r="S77" s="5">
@@ -6441,7 +6462,7 @@
         <v>0.17227703755086499</v>
       </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A78" s="18">
         <v>33494</v>
       </c>
@@ -6491,9 +6512,9 @@
         <v>5.2942445727575003E-3</v>
       </c>
       <c r="Q78" s="5">
-        <v>2.7180966531499502E-2</v>
-      </c>
-      <c r="R78" s="15">
+        <v>2.72992663156423E-2</v>
+      </c>
+      <c r="R78" s="5">
         <v>-6</v>
       </c>
       <c r="S78" s="5">
@@ -6512,7 +6533,7 @@
         <v>7.1450227602845306E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="18">
         <v>33494</v>
       </c>
@@ -6562,9 +6583,9 @@
         <v>8.5809421128432602E-3</v>
       </c>
       <c r="Q79" s="5">
-        <v>3.0467664071585299E-2</v>
-      </c>
-      <c r="R79" s="15">
+        <v>3.05859638557281E-2</v>
+      </c>
+      <c r="R79" s="5">
         <v>-6</v>
       </c>
       <c r="S79" s="5">
@@ -6583,7 +6604,7 @@
         <v>7.1450227602845306E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80" s="18">
         <v>33513</v>
       </c>
@@ -6633,9 +6654,9 @@
         <v>7.7810303506110198E-3</v>
       </c>
       <c r="Q80" s="5">
-        <v>2.38539757811424E-2</v>
-      </c>
-      <c r="R80" s="15">
+        <v>2.3999336945085398E-2</v>
+      </c>
+      <c r="R80" s="5">
         <v>-6</v>
       </c>
       <c r="S80" s="5">
@@ -6654,7 +6675,7 @@
         <v>1.09366028565534E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81" s="18">
         <v>33541</v>
       </c>
@@ -6704,9 +6725,9 @@
         <v>-6.7080832398561802E-3</v>
       </c>
       <c r="Q81" s="5">
-        <v>1.7082327723404799E-2</v>
-      </c>
-      <c r="R81" s="15">
+        <v>1.71898558456689E-2</v>
+      </c>
+      <c r="R81" s="5">
         <v>-16</v>
       </c>
       <c r="S81" s="5">
@@ -6725,7 +6746,7 @@
         <v>1.65089124019082E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A82" s="18">
         <v>33548</v>
       </c>
@@ -6775,9 +6796,9 @@
         <v>-0.101008740576812</v>
       </c>
       <c r="Q82" s="5">
-        <v>-7.5657065674364393E-2</v>
-      </c>
-      <c r="R82" s="15">
+        <v>-7.5565911063832605E-2</v>
+      </c>
+      <c r="R82" s="5">
         <v>-26</v>
       </c>
       <c r="S82" s="5">
@@ -6796,7 +6817,7 @@
         <v>1.5267013587267101E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="18">
         <v>33548</v>
       </c>
@@ -6846,9 +6867,9 @@
         <v>1.4294993296061599E-2</v>
       </c>
       <c r="Q83" s="5">
-        <v>3.9646668198509302E-2</v>
-      </c>
-      <c r="R83" s="15">
+        <v>3.9737822809041097E-2</v>
+      </c>
+      <c r="R83" s="5">
         <v>-26</v>
       </c>
       <c r="S83" s="5">
@@ -6867,7 +6888,7 @@
         <v>1.5267013587267101E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A84" s="18">
         <v>33578</v>
       </c>
@@ -6917,13 +6938,13 @@
         <v>1.4179471530221499E-2</v>
       </c>
       <c r="Q84" s="5">
-        <v>6.4320589512250004E-2</v>
-      </c>
-      <c r="R84" s="15">
+        <v>6.3912206980371894E-2</v>
+      </c>
+      <c r="R84" s="5">
         <v>-211</v>
       </c>
       <c r="S84" s="5">
-        <v>-0.92778678047249497</v>
+        <v>-0.84410413379494298</v>
       </c>
       <c r="T84" s="5">
         <v>-3.2790640407582401E-2</v>
@@ -6938,7 +6959,7 @@
         <v>0.118362573485726</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A85" s="18">
         <v>33590</v>
       </c>
@@ -6988,9 +7009,9 @@
         <v>9.1162704891356392E-3</v>
       </c>
       <c r="Q85" s="5">
-        <v>6.4299556357016105E-2</v>
-      </c>
-      <c r="R85" s="15">
+        <v>6.4208002375582399E-2</v>
+      </c>
+      <c r="R85" s="5">
         <v>-211</v>
       </c>
       <c r="S85" s="5">
@@ -7009,7 +7030,7 @@
         <v>0.11400571400765901</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A86" s="18">
         <v>33592</v>
       </c>
@@ -7059,9 +7080,9 @@
         <v>-0.29430262735857399</v>
       </c>
       <c r="Q86" s="5">
-        <v>-0.23753587751990399</v>
-      </c>
-      <c r="R86" s="15">
+        <v>-0.23763167406892199</v>
+      </c>
+      <c r="R86" s="5">
         <v>-211</v>
       </c>
       <c r="S86" s="5">
@@ -7080,7 +7101,7 @@
         <v>0.11621359603149101</v>
       </c>
     </row>
-    <row r="87" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="18">
         <v>33592</v>
       </c>
@@ -7130,9 +7151,9 @@
         <v>-3.7279609025498098E-3</v>
       </c>
       <c r="Q87" s="5">
-        <v>5.3038788936120199E-2</v>
-      </c>
-      <c r="R87" s="15">
+        <v>5.2942992387102601E-2</v>
+      </c>
+      <c r="R87" s="5">
         <v>-211</v>
       </c>
       <c r="S87" s="5">
@@ -7151,7 +7172,7 @@
         <v>0.11621359603149101</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A88" s="18">
         <v>33640</v>
       </c>
@@ -7201,9 +7222,9 @@
         <v>-2.5335017592146999E-3</v>
       </c>
       <c r="Q88" s="5">
-        <v>1.86705087462368E-2</v>
-      </c>
-      <c r="R88" s="15">
+        <v>1.86856307992356E-2</v>
+      </c>
+      <c r="R88" s="5">
         <v>81</v>
       </c>
       <c r="S88" s="5">
@@ -7222,7 +7243,7 @@
         <v>0.115556100767435</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A89" s="18">
         <v>33695</v>
       </c>
@@ -7272,9 +7293,9 @@
         <v>1.8295356496026999E-2</v>
       </c>
       <c r="Q89" s="5">
-        <v>2.3508835944071001E-2</v>
-      </c>
-      <c r="R89" s="15">
+        <v>2.3682164008345701E-2</v>
+      </c>
+      <c r="R89" s="5">
         <v>140</v>
       </c>
       <c r="S89" s="5">
@@ -7293,7 +7314,7 @@
         <v>6.0289835950788802E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A90" s="18">
         <v>33703</v>
       </c>
@@ -7343,9 +7364,9 @@
         <v>-0.249617225521539</v>
       </c>
       <c r="Q90" s="5">
-        <v>-0.224883855579358</v>
-      </c>
-      <c r="R90" s="15">
+        <v>-0.22478737681175501</v>
+      </c>
+      <c r="R90" s="5">
         <v>-49</v>
       </c>
       <c r="S90" s="5">
@@ -7364,7 +7385,7 @@
         <v>8.1214606029385406E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A91" s="18">
         <v>33744</v>
       </c>
@@ -7414,9 +7435,9 @@
         <v>2.5035005757526201E-2</v>
       </c>
       <c r="Q91" s="5">
-        <v>3.3005484956863999E-2</v>
-      </c>
-      <c r="R91" s="15">
+        <v>3.30888708692837E-2</v>
+      </c>
+      <c r="R91" s="5">
         <v>51</v>
       </c>
       <c r="S91" s="5">
@@ -7435,7 +7456,7 @@
         <v>0.120981671326408</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A92" s="18">
         <v>33787</v>
       </c>
@@ -7485,13 +7506,13 @@
         <v>3.6949677917379901E-2</v>
       </c>
       <c r="Q92" s="5">
-        <v>7.0126316375847306E-2</v>
-      </c>
-      <c r="R92" s="15">
+        <v>7.0112258018135504E-2</v>
+      </c>
+      <c r="R92" s="5">
         <v>-212</v>
       </c>
       <c r="S92" s="5">
-        <v>0.368837382981901</v>
+        <v>0.351073159817616</v>
       </c>
       <c r="T92" s="5">
         <v>2.4220444003844901E-2</v>
@@ -7506,7 +7527,7 @@
         <v>0.13169145776282701</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A93" s="18">
         <v>33835</v>
       </c>
@@ -7556,9 +7577,9 @@
         <v>-2.6395473065179598E-3</v>
       </c>
       <c r="Q93" s="5">
-        <v>1.7343940995691201E-3</v>
-      </c>
-      <c r="R93" s="15">
+        <v>1.7879435911592901E-3</v>
+      </c>
+      <c r="R93" s="5">
         <v>88</v>
       </c>
       <c r="S93" s="5">
@@ -7577,7 +7598,7 @@
         <v>0.13062798391987299</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A94" s="18">
         <v>33851</v>
       </c>
@@ -7627,13 +7648,13 @@
         <v>-1.6628701019683102E-2</v>
       </c>
       <c r="Q94" s="5">
-        <v>2.5854086070036E-2</v>
-      </c>
-      <c r="R94" s="15">
+        <v>2.5258731228814599E-2</v>
+      </c>
+      <c r="R94" s="5">
         <v>-233</v>
       </c>
       <c r="S94" s="5">
-        <v>0.46157117209837401</v>
+        <v>0.56620861558602797</v>
       </c>
       <c r="T94" s="5">
         <v>8.1435403778247206E-3</v>
@@ -7648,7 +7669,7 @@
         <v>7.6867080938262E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A95" s="18">
         <v>33884</v>
       </c>
@@ -7698,9 +7719,9 @@
         <v>7.7810303506110198E-3</v>
       </c>
       <c r="Q95" s="5">
-        <v>2.72203226158057E-2</v>
-      </c>
-      <c r="R95" s="15">
+        <v>2.72403824884557E-2</v>
+      </c>
+      <c r="R95" s="5">
         <v>-7</v>
       </c>
       <c r="S95" s="5">
@@ -7719,7 +7740,7 @@
         <v>8.7351717985330396E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A96" s="18">
         <v>33926</v>
       </c>
@@ -7769,9 +7790,9 @@
         <v>2.4239702601046402E-3</v>
       </c>
       <c r="Q96" s="5">
-        <v>1.77962165350464E-2</v>
-      </c>
-      <c r="R96" s="15">
+        <v>1.7824828079397E-2</v>
+      </c>
+      <c r="R96" s="5">
         <v>2</v>
       </c>
       <c r="S96" s="5">
@@ -7790,7 +7811,7 @@
         <v>8.9874719903071304E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A97" s="18">
         <v>33961</v>
       </c>
@@ -7840,9 +7861,9 @@
         <v>-6.4454736865271096E-3</v>
       </c>
       <c r="Q97" s="5">
-        <v>-1.0177609829897199E-3</v>
-      </c>
-      <c r="R97" s="15">
+        <v>-1.0073987800363899E-3</v>
+      </c>
+      <c r="R97" s="5">
         <v>45</v>
       </c>
       <c r="S97" s="5">
@@ -7861,7 +7882,7 @@
         <v>0.15882207246539301</v>
       </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A98" s="18">
         <v>34004</v>
       </c>
@@ -7911,9 +7932,9 @@
         <v>-1.6079589614999201E-3</v>
       </c>
       <c r="Q98" s="5">
-        <v>5.0677537479340796E-3</v>
-      </c>
-      <c r="R98" s="15">
+        <v>5.0263026611721403E-3</v>
+      </c>
+      <c r="R98" s="5">
         <v>-27</v>
       </c>
       <c r="S98" s="5">
@@ -7932,7 +7953,7 @@
         <v>0.181864751992172</v>
       </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A99" s="18">
         <v>34052</v>
       </c>
@@ -7982,9 +8003,9 @@
         <v>0</v>
       </c>
       <c r="Q99" s="5">
-        <v>-1.7780196778390399E-2</v>
-      </c>
-      <c r="R99" s="15">
+        <v>-1.7673892293430301E-2</v>
+      </c>
+      <c r="R99" s="5">
         <v>243</v>
       </c>
       <c r="S99" s="5">
@@ -8003,7 +8024,7 @@
         <v>6.1398906445158302E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A100" s="18">
         <v>34108</v>
       </c>
@@ -8053,9 +8074,9 @@
         <v>-1.8232540978281499E-2</v>
       </c>
       <c r="Q100" s="5">
-        <v>-1.14634761438277E-2</v>
-      </c>
-      <c r="R100" s="15">
+        <v>-1.1473040754526501E-2</v>
+      </c>
+      <c r="R100" s="5">
         <v>-31</v>
       </c>
       <c r="S100" s="5">
@@ -8074,7 +8095,7 @@
         <v>0.16282031531876101</v>
       </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A101" s="18">
         <v>34158</v>
       </c>
@@ -8124,9 +8145,9 @@
         <v>-1.45361460973739E-2</v>
       </c>
       <c r="Q101" s="5">
-        <v>-5.7212199838004704E-3</v>
-      </c>
-      <c r="R101" s="15">
+        <v>-5.76861261748704E-3</v>
+      </c>
+      <c r="R101" s="5">
         <v>-137</v>
       </c>
       <c r="S101" s="5">
@@ -8145,7 +8166,7 @@
         <v>0.212938228872282</v>
       </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A102" s="18">
         <v>34199</v>
       </c>
@@ -8195,9 +8216,9 @@
         <v>6.5082892042660498E-3</v>
       </c>
       <c r="Q102" s="5">
-        <v>-3.4545940639768498E-4</v>
-      </c>
-      <c r="R102" s="15">
+        <v>-3.7161583501830499E-4</v>
+      </c>
+      <c r="R102" s="5">
         <v>12</v>
       </c>
       <c r="S102" s="5">
@@ -8216,7 +8237,7 @@
         <v>0.25656874225495402</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A103" s="18">
         <v>34234</v>
       </c>
@@ -8266,9 +8287,9 @@
         <v>-6.1516146371077898E-3</v>
       </c>
       <c r="Q103" s="5">
-        <v>1.14510438936061E-2</v>
-      </c>
-      <c r="R103" s="15">
+        <v>1.1320047296274701E-2</v>
+      </c>
+      <c r="R103" s="5">
         <v>-189</v>
       </c>
       <c r="S103" s="5">
@@ -8287,7 +8308,7 @@
         <v>0.18817786463036301</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A104" s="18">
         <v>34290</v>
       </c>
@@ -8337,9 +8358,9 @@
         <v>2.00110561135096E-4</v>
       </c>
       <c r="Q104" s="5">
-        <v>-3.1066294454797599E-3</v>
-      </c>
-      <c r="R104" s="15">
+        <v>-3.1861522691693398E-3</v>
+      </c>
+      <c r="R104" s="5">
         <v>17</v>
       </c>
       <c r="S104" s="5">
@@ -8358,7 +8379,7 @@
         <v>0.24337397644837599</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A105" s="19">
         <v>34325</v>
       </c>
@@ -8408,9 +8429,9 @@
         <v>-3.0456367335167699E-3</v>
       </c>
       <c r="Q105" s="5">
-        <v>-5.7558572807141998E-3</v>
-      </c>
-      <c r="R105" s="15">
+        <v>-5.86348273200286E-3</v>
+      </c>
+      <c r="R105" s="5">
         <v>37</v>
       </c>
       <c r="S105" s="5">
@@ -8429,7 +8450,7 @@
         <v>0.27221765335014902</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A106" s="18">
         <v>34369</v>
       </c>
@@ -8479,13 +8500,13 @@
         <v>0.15041211893890299</v>
       </c>
       <c r="Q106" s="5">
-        <v>0.15176244157292401</v>
-      </c>
-      <c r="R106" s="15">
+        <v>0.15172060084063399</v>
+      </c>
+      <c r="R106" s="5">
         <v>-118</v>
       </c>
       <c r="S106" s="5">
-        <v>2.54196339336925</v>
+        <v>2.51914269726967</v>
       </c>
       <c r="T106" s="5">
         <v>2.5856129513433902E-2</v>
@@ -8500,7 +8521,7 @@
         <v>0.330375361763665</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A107" s="18">
         <v>34415</v>
       </c>
@@ -8550,9 +8571,9 @@
         <v>-5.43171092627752E-2</v>
       </c>
       <c r="Q107" s="5">
-        <v>-6.7437744759759402E-2</v>
-      </c>
-      <c r="R107" s="15">
+        <v>-6.74824561732177E-2</v>
+      </c>
+      <c r="R107" s="5">
         <v>67</v>
       </c>
       <c r="S107" s="5">
@@ -8571,7 +8592,7 @@
         <v>0.32039786752073901</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A108" s="18">
         <v>34442</v>
       </c>
@@ -8621,9 +8642,9 @@
         <v>9.0100183575856002E-2</v>
       </c>
       <c r="Q108" s="5">
-        <v>7.0721354872359601E-2</v>
-      </c>
-      <c r="R108" s="15">
+        <v>7.0725153623653197E-2</v>
+      </c>
+      <c r="R108" s="5">
         <v>226.5</v>
       </c>
       <c r="S108" s="5">
@@ -8642,7 +8663,7 @@
         <v>0.35813394913503899</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A109" s="18">
         <v>34471</v>
       </c>
@@ -8692,9 +8713,9 @@
         <v>-5.5980156825279903E-2</v>
       </c>
       <c r="Q109" s="5">
-        <v>-7.2844549130978598E-2</v>
-      </c>
-      <c r="R109" s="15">
+        <v>-7.2849930683302394E-2</v>
+      </c>
+      <c r="R109" s="5">
         <v>92</v>
       </c>
       <c r="S109" s="5">
@@ -8713,7 +8734,7 @@
         <v>0.385898127843537</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A110" s="18">
         <v>34521</v>
       </c>
@@ -8763,9 +8784,9 @@
         <v>1.05684757437845E-3</v>
       </c>
       <c r="Q110" s="5">
-        <v>-1.2840477963431201E-2</v>
-      </c>
-      <c r="R110" s="15">
+        <v>-1.2939349243823201E-2</v>
+      </c>
+      <c r="R110" s="5">
         <v>-84</v>
       </c>
       <c r="S110" s="5">
@@ -8784,7 +8805,7 @@
         <v>0.47968497470161298</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A111" s="18">
         <v>34562</v>
       </c>
@@ -8834,9 +8855,9 @@
         <v>2.33411172192231E-2</v>
       </c>
       <c r="Q111" s="5">
-        <v>5.7589785290337696E-3</v>
-      </c>
-      <c r="R111" s="15">
+        <v>5.6393508196292902E-3</v>
+      </c>
+      <c r="R111" s="5">
         <v>49</v>
       </c>
       <c r="S111" s="5">
@@ -8855,7 +8876,7 @@
         <v>0.39924042585915098</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A112" s="18">
         <v>34604</v>
       </c>
@@ -8905,9 +8926,9 @@
         <v>-1.3604929558489401E-2</v>
       </c>
       <c r="Q112" s="5">
-        <v>-1.9968744139368399E-2</v>
-      </c>
-      <c r="R112" s="15">
+        <v>-2.0162103148211999E-2</v>
+      </c>
+      <c r="R112" s="5">
         <v>-53.5</v>
       </c>
       <c r="S112" s="5">
@@ -8926,7 +8947,7 @@
         <v>0.44581863358236001</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A113" s="18">
         <v>34653</v>
       </c>
@@ -8976,9 +8997,9 @@
         <v>3.6916454588671502E-2</v>
       </c>
       <c r="Q113" s="5">
-        <v>3.5481211441771299E-2</v>
-      </c>
-      <c r="R113" s="15">
+        <v>3.5360473802021598E-2</v>
+      </c>
+      <c r="R113" s="5">
         <v>-51</v>
       </c>
       <c r="S113" s="5">
@@ -8997,7 +9018,7 @@
         <v>0.17100858364779101</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A114" s="18">
         <v>34688</v>
       </c>
@@ -9047,9 +9068,9 @@
         <v>-2.3535071685810301E-3</v>
       </c>
       <c r="Q114" s="5">
-        <v>-2.5150776091515802E-2</v>
-      </c>
-      <c r="R114" s="15">
+        <v>-2.5108373681375699E-2</v>
+      </c>
+      <c r="R114" s="5">
         <v>100</v>
       </c>
       <c r="S114" s="5">
@@ -9068,7 +9089,7 @@
         <v>0.22261213290628801</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A115" s="18">
         <v>34731</v>
       </c>
@@ -9118,9 +9139,9 @@
         <v>5.7725410830181498E-2</v>
       </c>
       <c r="Q115" s="5">
-        <v>4.4287927895270397E-2</v>
-      </c>
-      <c r="R115" s="15">
+        <v>4.4226235644262403E-2</v>
+      </c>
+      <c r="R115" s="5">
         <v>-4</v>
       </c>
       <c r="S115" s="5">
@@ -9139,7 +9160,7 @@
         <v>0.25749906556802499</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A116" s="18">
         <v>34786</v>
       </c>
@@ -9189,9 +9210,9 @@
         <v>2.3458296292122899E-2</v>
       </c>
       <c r="Q116" s="5">
-        <v>2.6169417061681398E-3</v>
-      </c>
-      <c r="R116" s="15">
+        <v>2.4519238877853599E-3</v>
+      </c>
+      <c r="R116" s="5">
         <v>86</v>
       </c>
       <c r="S116" s="5">
@@ -9210,7 +9231,7 @@
         <v>0.301481705224668</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A117" s="18">
         <v>34842</v>
       </c>
@@ -9260,9 +9281,9 @@
         <v>-6.6553769917536698E-3</v>
       </c>
       <c r="Q117" s="5">
-        <v>-2.7056266599014799E-3</v>
-      </c>
-      <c r="R117" s="15">
+        <v>-2.9128307356316701E-3</v>
+      </c>
+      <c r="R117" s="5">
         <v>-159</v>
       </c>
       <c r="S117" s="5">
@@ -9281,7 +9302,7 @@
         <v>0.21036273618263401</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A118" s="18">
         <v>34886</v>
       </c>
@@ -9331,9 +9352,9 @@
         <v>-0.25215196549347202</v>
       </c>
       <c r="Q118" s="5">
-        <v>-0.22766176421731199</v>
-      </c>
-      <c r="R118" s="15">
+        <v>-0.227930682611128</v>
+      </c>
+      <c r="R118" s="5">
         <v>-273.5</v>
       </c>
       <c r="S118" s="5">
@@ -9352,7 +9373,7 @@
         <v>0.112132737417891</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A119" s="18">
         <v>34933</v>
       </c>
@@ -9402,9 +9423,9 @@
         <v>5.4860493733159599E-2</v>
       </c>
       <c r="Q119" s="5">
-        <v>6.1989854033284698E-2</v>
-      </c>
-      <c r="R119" s="15">
+        <v>6.18267706980472E-2</v>
+      </c>
+      <c r="R119" s="5">
         <v>-70</v>
       </c>
       <c r="S119" s="5">
@@ -9423,7 +9444,7 @@
         <v>0.14810214695568799</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A120" s="18">
         <v>34968</v>
       </c>
@@ -9473,9 +9494,9 @@
         <v>6.7088824387379203E-2</v>
       </c>
       <c r="Q120" s="5">
-        <v>6.1464117446076098E-2</v>
-      </c>
-      <c r="R120" s="15">
+        <v>6.1416917514200503E-2</v>
+      </c>
+      <c r="R120" s="5">
         <v>84</v>
       </c>
       <c r="S120" s="5">
@@ -9494,7 +9515,7 @@
         <v>4.5102525257361997E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A121" s="18">
         <v>35018</v>
       </c>
@@ -9544,9 +9565,9 @@
         <v>3.5543974687313698E-2</v>
       </c>
       <c r="Q121" s="5">
-        <v>3.4582770302629302E-2</v>
-      </c>
-      <c r="R121" s="15">
+        <v>3.4545381767790199E-2</v>
+      </c>
+      <c r="R121" s="5">
         <v>-14</v>
       </c>
       <c r="S121" s="5">
@@ -9565,7 +9586,7 @@
         <v>4.2660749979937601E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A122" s="18">
         <v>35052</v>
       </c>
@@ -9615,9 +9636,9 @@
         <v>-4.3687261351516703E-2</v>
       </c>
       <c r="Q122" s="5">
-        <v>-4.0117442372984403E-2</v>
-      </c>
-      <c r="R122" s="15">
+        <v>-4.01423933888026E-2</v>
+      </c>
+      <c r="R122" s="5">
         <v>6</v>
       </c>
       <c r="S122" s="5">
@@ -9636,7 +9657,7 @@
         <v>-1.10095964337671E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A123" s="18">
         <v>35095</v>
       </c>
@@ -9686,9 +9707,9 @@
         <v>-3.9004573982519199E-2</v>
       </c>
       <c r="Q123" s="5">
-        <v>-3.7981286987086797E-2</v>
-      </c>
-      <c r="R123" s="15">
+        <v>-3.8060327189403199E-2</v>
+      </c>
+      <c r="R123" s="5">
         <v>11</v>
       </c>
       <c r="S123" s="5">
@@ -9707,7 +9728,7 @@
         <v>3.5633876659969199E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A124" s="18">
         <v>35150</v>
       </c>
@@ -9757,9 +9778,9 @@
         <v>2.6013571328892E-2</v>
       </c>
       <c r="Q124" s="5">
-        <v>-1.2663172728559701E-2</v>
-      </c>
-      <c r="R124" s="15">
+        <v>-1.25409954767283E-2</v>
+      </c>
+      <c r="R124" s="5">
         <v>408.5</v>
       </c>
       <c r="S124" s="5">
@@ -9778,7 +9799,7 @@
         <v>0.123506671847452</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A125" s="18">
         <v>35206</v>
       </c>
@@ -9828,9 +9849,9 @@
         <v>1.4179155004669101E-2</v>
       </c>
       <c r="Q125" s="5">
-        <v>2.0067149061408999E-2</v>
-      </c>
-      <c r="R125" s="15">
+        <v>1.9985937314954801E-2</v>
+      </c>
+      <c r="R125" s="5">
         <v>-125.5</v>
       </c>
       <c r="S125" s="5">
@@ -9849,7 +9870,7 @@
         <v>0.22304151713022</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A126" s="18">
         <v>35249</v>
       </c>
@@ -9899,9 +9920,9 @@
         <v>-3.0518013409064602E-2</v>
       </c>
       <c r="Q126" s="5">
-        <v>-3.9470663731293001E-2</v>
-      </c>
-      <c r="R126" s="15">
+        <v>-3.9511162327191603E-2</v>
+      </c>
+      <c r="R126" s="5">
         <v>178</v>
       </c>
       <c r="S126" s="5">
@@ -9920,7 +9941,7 @@
         <v>0.20295930777710999</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A127" s="18">
         <v>35297</v>
       </c>
@@ -9970,9 +9991,9 @@
         <v>2.5764152632274501E-3</v>
       </c>
       <c r="Q127" s="5">
-        <v>1.13020661831474E-2</v>
-      </c>
-      <c r="R127" s="15">
+        <v>1.12116946536433E-2</v>
+      </c>
+      <c r="R127" s="5">
         <v>3</v>
       </c>
       <c r="S127" s="5">
@@ -9991,7 +10012,7 @@
         <v>0.18099787593125899</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A128" s="18">
         <v>35332</v>
       </c>
@@ -10041,9 +10062,9 @@
         <v>-8.4058733488964602E-2</v>
       </c>
       <c r="Q128" s="5">
-        <v>-8.5388905798690795E-2</v>
-      </c>
-      <c r="R128" s="15">
+        <v>-8.5451528684484301E-2</v>
+      </c>
+      <c r="R128" s="5">
         <v>12.5</v>
       </c>
       <c r="S128" s="5">
@@ -10062,7 +10083,7 @@
         <v>0.17166322283329899</v>
       </c>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A129" s="18">
         <v>35382</v>
       </c>
@@ -10112,9 +10133,9 @@
         <v>-1.9367987081232701E-2</v>
       </c>
       <c r="Q129" s="5">
-        <v>-2.4971649055828798E-2</v>
-      </c>
-      <c r="R129" s="15">
+        <v>-2.5077463271617698E-2</v>
+      </c>
+      <c r="R129" s="5">
         <v>15</v>
       </c>
       <c r="S129" s="5">
@@ -10133,7 +10154,7 @@
         <v>0.19351291080376901</v>
       </c>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A130" s="18">
         <v>35416</v>
       </c>
@@ -10183,9 +10204,9 @@
         <v>-4.5137263210229099E-4</v>
       </c>
       <c r="Q130" s="5">
-        <v>1.8705931704287499E-3</v>
-      </c>
-      <c r="R130" s="15">
+        <v>1.77921687569351E-3</v>
+      </c>
+      <c r="R130" s="5">
         <v>-57</v>
       </c>
       <c r="S130" s="5">
@@ -10204,7 +10225,7 @@
         <v>9.2765460373854802E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A131" s="18">
         <v>35466</v>
       </c>
@@ -10254,9 +10275,9 @@
         <v>7.2826252115912801E-3</v>
       </c>
       <c r="Q131" s="5">
-        <v>-1.6445963249238402E-2</v>
-      </c>
-      <c r="R131" s="15">
+        <v>-1.6517986098627299E-2</v>
+      </c>
+      <c r="R131" s="5">
         <v>87</v>
       </c>
       <c r="S131" s="5">
@@ -10275,7 +10296,7 @@
         <v>0.28131189749338698</v>
       </c>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A132" s="18">
         <v>35514</v>
       </c>
@@ -10325,9 +10346,9 @@
         <v>6.6319140820484096E-2</v>
       </c>
       <c r="Q132" s="5">
-        <v>4.8082940275334302E-2</v>
-      </c>
-      <c r="R132" s="15">
+        <v>4.8005627231535702E-2</v>
+      </c>
+      <c r="R132" s="5">
         <v>116</v>
       </c>
       <c r="S132" s="5">
@@ -10346,7 +10367,7 @@
         <v>0.28712384215062298</v>
       </c>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A133" s="18">
         <v>35570</v>
       </c>
@@ -10396,9 +10417,9 @@
         <v>-6.1969921964828298E-2</v>
       </c>
       <c r="Q133" s="5">
-        <v>-6.2988824071134694E-2</v>
-      </c>
-      <c r="R133" s="15">
+        <v>-6.3087812601170704E-2</v>
+      </c>
+      <c r="R133" s="5">
         <v>-56</v>
       </c>
       <c r="S133" s="5">
@@ -10417,7 +10438,7 @@
         <v>0.200212963870227</v>
       </c>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A134" s="18">
         <v>35613</v>
       </c>
@@ -10467,9 +10488,9 @@
         <v>-6.9129458550017597E-4</v>
       </c>
       <c r="Q134" s="5">
-        <v>5.8206564673587797E-3</v>
-      </c>
-      <c r="R134" s="15">
+        <v>5.5671154232583503E-3</v>
+      </c>
+      <c r="R134" s="5">
         <v>-87</v>
       </c>
       <c r="S134" s="5">
@@ -10488,7 +10509,7 @@
         <v>0.142044709688428</v>
       </c>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A135" s="18">
         <v>35661</v>
       </c>
@@ -10538,9 +10559,9 @@
         <v>3.6962366181314001E-3</v>
       </c>
       <c r="Q135" s="5">
-        <v>2.8382552274740201E-3</v>
-      </c>
-      <c r="R135" s="15">
+        <v>2.7233708666209999E-3</v>
+      </c>
+      <c r="R135" s="5">
         <v>118</v>
       </c>
       <c r="S135" s="5">
@@ -10559,7 +10580,7 @@
         <v>5.7310590911736799E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A136" s="18">
         <v>35703</v>
       </c>
@@ -10609,9 +10630,9 @@
         <v>-4.7522555389756102E-3</v>
       </c>
       <c r="Q136" s="5">
-        <v>-7.2220024906206898E-3</v>
-      </c>
-      <c r="R136" s="15">
+        <v>-7.3121210740528103E-3</v>
+      </c>
+      <c r="R136" s="5">
         <v>-31</v>
       </c>
       <c r="S136" s="5">
@@ -10630,7 +10651,7 @@
         <v>0.104205843051107</v>
       </c>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A137" s="18">
         <v>35746</v>
       </c>
@@ -10680,9 +10701,9 @@
         <v>-3.0024662904863199E-2</v>
       </c>
       <c r="Q137" s="5">
-        <v>-3.0504677834303402E-2</v>
-      </c>
-      <c r="R137" s="15">
+        <v>-3.05113243543499E-2</v>
+      </c>
+      <c r="R137" s="5">
         <v>74</v>
       </c>
       <c r="S137" s="5">
@@ -10701,7 +10722,7 @@
         <v>7.2605029264435003E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A138" s="18">
         <v>35780</v>
       </c>
@@ -10751,9 +10772,9 @@
         <v>-6.5376374616835696E-3</v>
       </c>
       <c r="Q138" s="5">
-        <v>-2.0123991799851901E-2</v>
-      </c>
-      <c r="R138" s="15">
+        <v>-2.0098468824996999E-2</v>
+      </c>
+      <c r="R138" s="5">
         <v>204</v>
       </c>
       <c r="S138" s="5">
@@ -10772,7 +10793,7 @@
         <v>-3.5042217965933001E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A139" s="18">
         <v>35830</v>
       </c>
@@ -10822,9 +10843,9 @@
         <v>1.8800264029760899E-2</v>
       </c>
       <c r="Q139" s="5">
-        <v>1.4011718150861399E-2</v>
-      </c>
-      <c r="R139" s="15">
+        <v>1.3928161731578501E-2</v>
+      </c>
+      <c r="R139" s="5">
         <v>170</v>
       </c>
       <c r="S139" s="5">
@@ -10843,7 +10864,7 @@
         <v>-7.0429609709455596E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A140" s="18">
         <v>35885</v>
       </c>
@@ -10893,9 +10914,9 @@
         <v>4.65766532229229E-4</v>
       </c>
       <c r="Q140" s="5">
-        <v>-6.81831926354099E-3</v>
-      </c>
-      <c r="R140" s="15">
+        <v>-6.9911352975073598E-3</v>
+      </c>
+      <c r="R140" s="5">
         <v>60</v>
       </c>
       <c r="S140" s="5">
@@ -10914,7 +10935,7 @@
         <v>5.5464393270370602E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A141" s="18">
         <v>35934</v>
       </c>
@@ -10964,9 +10985,9 @@
         <v>-1.6610029853885901E-2</v>
       </c>
       <c r="Q141" s="5">
-        <v>-1.0459248533735199E-2</v>
-      </c>
-      <c r="R141" s="15">
+        <v>-1.0633467344855299E-2</v>
+      </c>
+      <c r="R141" s="5">
         <v>-8</v>
       </c>
       <c r="S141" s="5">
@@ -10985,7 +11006,7 @@
         <v>0.15012510976843599</v>
       </c>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A142" s="18">
         <v>35977</v>
       </c>
@@ -11035,9 +11056,9 @@
         <v>3.9796838170925997E-3</v>
       </c>
       <c r="Q142" s="5">
-        <v>1.1044496858369701E-2</v>
-      </c>
-      <c r="R142" s="15">
+        <v>1.09614631939151E-2</v>
+      </c>
+      <c r="R142" s="5">
         <v>71</v>
       </c>
       <c r="S142" s="5">
@@ -11056,7 +11077,7 @@
         <v>-5.9574310522990698E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A143" s="18">
         <v>36025</v>
       </c>
@@ -11106,9 +11127,9 @@
         <v>0</v>
       </c>
       <c r="Q143" s="5">
-        <v>2.0870003946123001E-2</v>
-      </c>
-      <c r="R143" s="15">
+        <v>2.0786685222657999E-2</v>
+      </c>
+      <c r="R143" s="5">
         <v>11</v>
       </c>
       <c r="S143" s="5">
@@ -11127,7 +11148,7 @@
         <v>-3.18002266610629E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A144" s="18">
         <v>36067</v>
       </c>
@@ -11177,9 +11198,9 @@
         <v>2.1409792688107099E-2</v>
       </c>
       <c r="Q144" s="5">
-        <v>5.0468696463404197E-2</v>
-      </c>
-      <c r="R144" s="15">
+        <v>5.0454120869158403E-2</v>
+      </c>
+      <c r="R144" s="5">
         <v>15</v>
       </c>
       <c r="S144" s="5">
@@ -11198,7 +11219,7 @@
         <v>-0.369353548586557</v>
       </c>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A145" s="18">
         <v>36083</v>
       </c>
@@ -11248,9 +11269,9 @@
         <v>-0.28331218147966503</v>
       </c>
       <c r="Q145" s="5">
-        <v>-0.23401810054401201</v>
-      </c>
-      <c r="R145" s="15">
+        <v>-0.234067397132217</v>
+      </c>
+      <c r="R145" s="5">
         <v>-131</v>
       </c>
       <c r="S145" s="5">
@@ -11269,7 +11290,7 @@
         <v>-0.28622214863809797</v>
       </c>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A146" s="18">
         <v>36116</v>
       </c>
@@ -11319,9 +11340,9 @@
         <v>-2.3590831916712299E-2</v>
       </c>
       <c r="Q146" s="5">
-        <v>-1.1578514143398101E-2</v>
-      </c>
-      <c r="R146" s="15">
+        <v>-1.1724831324122E-2</v>
+      </c>
+      <c r="R146" s="5">
         <v>-59</v>
       </c>
       <c r="S146" s="5">
@@ -11340,7 +11361,7 @@
         <v>-5.3491745059905896E-3</v>
       </c>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A147" s="18">
         <v>36151</v>
       </c>
@@ -11390,9 +11411,9 @@
         <v>1.4875408236142899E-3</v>
       </c>
       <c r="Q147" s="5">
-        <v>6.7335284656157698E-3</v>
-      </c>
-      <c r="R147" s="15">
+        <v>6.5518168458430798E-3</v>
+      </c>
+      <c r="R147" s="5">
         <v>97</v>
       </c>
       <c r="S147" s="5">
@@ -11411,7 +11432,7 @@
         <v>-0.115181660802941</v>
       </c>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A148" s="18">
         <v>36194</v>
       </c>
@@ -11461,9 +11482,9 @@
         <v>2.46089349738344E-3</v>
       </c>
       <c r="Q148" s="5">
-        <v>-6.4956601443827101E-3</v>
-      </c>
-      <c r="R148" s="15">
+        <v>-6.5995629801638899E-3</v>
+      </c>
+      <c r="R148" s="5">
         <v>178</v>
       </c>
       <c r="S148" s="5">
@@ -11482,7 +11503,7 @@
         <v>-9.8333171823071205E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A149" s="18">
         <v>36249</v>
       </c>
@@ -11532,9 +11553,9 @@
         <v>-2.59977883180726E-2</v>
       </c>
       <c r="Q149" s="5">
-        <v>-3.6990199893151499E-2</v>
-      </c>
-      <c r="R149" s="15">
+        <v>-3.7097916408473E-2</v>
+      </c>
+      <c r="R149" s="5">
         <v>25</v>
       </c>
       <c r="S149" s="5">
@@ -11553,7 +11574,7 @@
         <v>0.181229772847429</v>
       </c>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A150" s="18">
         <v>36298</v>
       </c>
@@ -11603,9 +11624,9 @@
         <v>0.114505077223303</v>
       </c>
       <c r="Q150" s="5">
-        <v>0.109544325021985</v>
-      </c>
-      <c r="R150" s="15">
+        <v>0.109461557186085</v>
+      </c>
+      <c r="R150" s="5">
         <v>9</v>
       </c>
       <c r="S150" s="5">
@@ -11624,7 +11645,7 @@
         <v>4.2339269879591801E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A151" s="18">
         <v>36341</v>
       </c>
@@ -11674,9 +11695,9 @@
         <v>-0.108994829145</v>
       </c>
       <c r="Q151" s="5">
-        <v>-9.3132871313048496E-2</v>
-      </c>
-      <c r="R151" s="15">
+        <v>-9.33598110955004E-2</v>
+      </c>
+      <c r="R151" s="5">
         <v>-209</v>
       </c>
       <c r="S151" s="5">
@@ -11695,7 +11716,7 @@
         <v>0.29427656335896901</v>
       </c>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A152" s="18">
         <v>36396</v>
       </c>
@@ -11745,9 +11766,9 @@
         <v>-2.0245265069775802E-3</v>
       </c>
       <c r="Q152" s="5">
-        <v>-2.1644758400830601E-2</v>
-      </c>
-      <c r="R152" s="15">
+        <v>-2.1599107118487299E-2</v>
+      </c>
+      <c r="R152" s="5">
         <v>110</v>
       </c>
       <c r="S152" s="5">
@@ -11766,7 +11787,7 @@
         <v>9.2041649023758401E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A153" s="18">
         <v>36438</v>
       </c>
@@ -11816,9 +11837,9 @@
         <v>8.1014089997654706E-2</v>
       </c>
       <c r="Q153" s="5">
-        <v>8.6258650338447804E-2</v>
-      </c>
-      <c r="R153" s="15">
+        <v>8.6237161831777903E-2</v>
+      </c>
+      <c r="R153" s="5">
         <v>-91</v>
       </c>
       <c r="S153" s="5">
@@ -11837,7 +11858,7 @@
         <v>0.167138921835319</v>
       </c>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A154" s="18">
         <v>36480</v>
       </c>
@@ -11887,9 +11908,9 @@
         <v>6.8763264390740805E-2</v>
       </c>
       <c r="Q154" s="5">
-        <v>5.9036374739022401E-2</v>
-      </c>
-      <c r="R154" s="15">
+        <v>5.9017232873180697E-2</v>
+      </c>
+      <c r="R154" s="5">
         <v>12</v>
       </c>
       <c r="S154" s="5">
@@ -11908,7 +11929,7 @@
         <v>7.1746677326678499E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A155" s="18">
         <v>36515</v>
       </c>
@@ -11958,9 +11979,9 @@
         <v>3.5098275796392298E-2</v>
       </c>
       <c r="Q155" s="5">
-        <v>2.1013028276959701E-2</v>
-      </c>
-      <c r="R155" s="15">
+        <v>2.0936100205642402E-2</v>
+      </c>
+      <c r="R155" s="5">
         <v>24</v>
       </c>
       <c r="S155" s="5">
@@ -11979,7 +12000,7 @@
         <v>0.28925777288753601</v>
       </c>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A156" s="18">
         <v>36558</v>
       </c>
@@ -12029,9 +12050,9 @@
         <v>1.88832535825777E-3</v>
       </c>
       <c r="Q156" s="5">
-        <v>-2.2472606363240201E-2</v>
-      </c>
-      <c r="R156" s="15">
+        <v>-2.2429123886522299E-2</v>
+      </c>
+      <c r="R156" s="5">
         <v>90</v>
       </c>
       <c r="S156" s="5">
@@ -12050,7 +12071,7 @@
         <v>0.15557652439029501</v>
       </c>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A157" s="18">
         <v>36606</v>
       </c>
@@ -12100,9 +12121,9 @@
         <v>-4.0846354697107396E-3</v>
       </c>
       <c r="Q157" s="5">
-        <v>7.8857639188171305E-3</v>
-      </c>
-      <c r="R157" s="15">
+        <v>7.8138438542705198E-3</v>
+      </c>
+      <c r="R157" s="5">
         <v>-180</v>
       </c>
       <c r="S157" s="5">
@@ -12121,7 +12142,7 @@
         <v>1.4094889807285699E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A158" s="18">
         <v>36662</v>
       </c>
@@ -12171,9 +12192,9 @@
         <v>5.6087274957733899E-2</v>
       </c>
       <c r="Q158" s="5">
-        <v>4.5320134948397997E-2</v>
-      </c>
-      <c r="R158" s="15">
+        <v>4.5309660541225198E-2</v>
+      </c>
+      <c r="R158" s="5">
         <v>20</v>
       </c>
       <c r="S158" s="5">
@@ -12192,7 +12213,7 @@
         <v>0.166028368832949</v>
       </c>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A159" s="18">
         <v>36705</v>
       </c>
@@ -12242,9 +12263,9 @@
         <v>-3.0679495096667599E-2</v>
       </c>
       <c r="Q159" s="5">
-        <v>-2.19056180833898E-2</v>
-      </c>
-      <c r="R159" s="15">
+        <v>-2.19777000894338E-2</v>
+      </c>
+      <c r="R159" s="5">
         <v>-129</v>
       </c>
       <c r="S159" s="5">
@@ -12263,7 +12284,7 @@
         <v>0.242478782030736</v>
       </c>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A160" s="18">
         <v>36760</v>
       </c>
@@ -12313,9 +12334,9 @@
         <v>1.4668596053124599E-2</v>
       </c>
       <c r="Q160" s="5">
-        <v>2.9501094634869499E-2</v>
-      </c>
-      <c r="R160" s="15">
+        <v>2.9364595925639801E-2</v>
+      </c>
+      <c r="R160" s="5">
         <v>-182</v>
       </c>
       <c r="S160" s="5">
@@ -12334,7 +12355,7 @@
         <v>0.15159955873615999</v>
       </c>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A161" s="18">
         <v>36802</v>
       </c>
@@ -12384,9 +12405,9 @@
         <v>4.38020120741257E-2</v>
       </c>
       <c r="Q161" s="5">
-        <v>5.6030998433776298E-2</v>
-      </c>
-      <c r="R161" s="15">
+        <v>5.5956895298045102E-2</v>
+      </c>
+      <c r="R161" s="5">
         <v>-70</v>
       </c>
       <c r="S161" s="5">
@@ -12405,7 +12426,7 @@
         <v>0.114086885763902</v>
       </c>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A162" s="18">
         <v>36845</v>
       </c>
@@ -12455,9 +12476,9 @@
         <v>5.2257553138354102E-3</v>
       </c>
       <c r="Q162" s="5">
-        <v>1.9096107248134101E-2</v>
-      </c>
-      <c r="R162" s="15">
+        <v>1.9125474686801799E-2</v>
+      </c>
+      <c r="R162" s="5">
         <v>-46</v>
       </c>
       <c r="S162" s="5">
@@ -12476,7 +12497,7 @@
         <v>8.3015202871917299E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A163" s="18">
         <v>36879</v>
       </c>
@@ -12526,9 +12547,9 @@
         <v>2.23957749765584E-2</v>
       </c>
       <c r="Q163" s="5">
-        <v>5.16259509233934E-2</v>
-      </c>
-      <c r="R163" s="15">
+        <v>5.1663481644588297E-2</v>
+      </c>
+      <c r="R163" s="5">
         <v>-54</v>
       </c>
       <c r="S163" s="5">
@@ -12547,7 +12568,7 @@
         <v>-8.8927536844124799E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A164" s="18">
         <v>36894</v>
       </c>
@@ -12597,9 +12618,9 @@
         <v>-0.13473066140056</v>
       </c>
       <c r="Q164" s="5">
-        <v>-9.9153925042615804E-2</v>
-      </c>
-      <c r="R164" s="15">
+        <v>-9.9094627663623203E-2</v>
+      </c>
+      <c r="R164" s="5">
         <v>-54</v>
       </c>
       <c r="S164" s="5">
@@ -12618,7 +12639,7 @@
         <v>-0.21412137488518701</v>
       </c>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A165" s="18">
         <v>36922</v>
       </c>
@@ -12668,9 +12689,9 @@
         <v>-1.11946484232855E-2</v>
       </c>
       <c r="Q165" s="5">
-        <v>9.1329607157861203E-3</v>
-      </c>
-      <c r="R165" s="15">
+        <v>9.0952871017578093E-3</v>
+      </c>
+      <c r="R165" s="5">
         <v>-10</v>
       </c>
       <c r="S165" s="5">
@@ -12689,7 +12710,7 @@
         <v>-0.14804862028561999</v>
       </c>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A166" s="18">
         <v>36970</v>
       </c>
@@ -12739,9 +12760,9 @@
         <v>-7.4526480176260304E-2</v>
       </c>
       <c r="Q166" s="5">
-        <v>-2.79971199360784E-2</v>
-      </c>
-      <c r="R166" s="15">
+        <v>-2.7985477120797402E-2</v>
+      </c>
+      <c r="R166" s="5">
         <v>60</v>
       </c>
       <c r="S166" s="5">
@@ -12760,7 +12781,7 @@
         <v>-0.20486524279208501</v>
       </c>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A167" s="18">
         <v>36999</v>
       </c>
@@ -12810,9 +12831,9 @@
         <v>-0.31069606327489302</v>
       </c>
       <c r="Q167" s="5">
-        <v>-0.248758343382876</v>
-      </c>
-      <c r="R167" s="15">
+        <v>-0.24880703561019801</v>
+      </c>
+      <c r="R167" s="5">
         <v>-149</v>
       </c>
       <c r="S167" s="5">
@@ -12831,7 +12852,7 @@
         <v>-0.29695385919296402</v>
       </c>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A168" s="18">
         <v>37026</v>
       </c>
@@ -12881,9 +12902,9 @@
         <v>-0.13740048818679901</v>
       </c>
       <c r="Q168" s="5">
-        <v>-7.2989482556644406E-2</v>
-      </c>
-      <c r="R168" s="15">
+        <v>-7.31554224397888E-2</v>
+      </c>
+      <c r="R168" s="5">
         <v>-258</v>
       </c>
       <c r="S168" s="5">
@@ -12902,7 +12923,7 @@
         <v>-5.84189103824576E-3</v>
       </c>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A169" s="18">
         <v>37069</v>
       </c>
@@ -12952,9 +12973,9 @@
         <v>7.6806443451090597E-2</v>
       </c>
       <c r="Q169" s="5">
-        <v>0.109078855559728</v>
-      </c>
-      <c r="R169" s="15">
+        <v>0.10899169235448999</v>
+      </c>
+      <c r="R169" s="5">
         <v>6</v>
       </c>
       <c r="S169" s="5">
@@ -12973,7 +12994,7 @@
         <v>-8.4712078113713701E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A170" s="18">
         <v>37124</v>
       </c>
@@ -13023,9 +13044,9 @@
         <v>-3.6339450921091497E-2</v>
       </c>
       <c r="Q170" s="5">
-        <v>1.9629146841251E-3</v>
-      </c>
-      <c r="R170" s="15">
+        <v>2.0481610771130999E-3</v>
+      </c>
+      <c r="R170" s="5">
         <v>8</v>
       </c>
       <c r="S170" s="5">
@@ -13044,7 +13065,7 @@
         <v>-3.0800844701350399E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A171" s="20">
         <v>37151</v>
       </c>
@@ -13096,7 +13117,7 @@
       <c r="Q171" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="R171" s="14">
+      <c r="R171" s="6">
         <v>-68</v>
       </c>
       <c r="S171" s="6">
@@ -13115,7 +13136,7 @@
         <v>-0.136249711714689</v>
       </c>
     </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A172" s="18">
         <v>37166</v>
       </c>
@@ -13165,9 +13186,9 @@
         <v>-6.2751372108426198E-2</v>
       </c>
       <c r="Q172" s="5">
-        <v>-2.3733015118144601E-3</v>
-      </c>
-      <c r="R172" s="15">
+        <v>-2.32115501471898E-3</v>
+      </c>
+      <c r="R172" s="5">
         <v>-68</v>
       </c>
       <c r="S172" s="5">
@@ -13186,7 +13207,7 @@
         <v>-0.122475771933742</v>
       </c>
     </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A173" s="18">
         <v>37201</v>
       </c>
@@ -13236,9 +13257,9 @@
         <v>-0.16123672019566601</v>
       </c>
       <c r="Q173" s="5">
-        <v>-9.0492627293543404E-2</v>
-      </c>
-      <c r="R173" s="15">
+        <v>-9.0539044920573394E-2</v>
+      </c>
+      <c r="R173" s="5">
         <v>-140</v>
       </c>
       <c r="S173" s="5">
@@ -13257,7 +13278,7 @@
         <v>-0.115300509613309</v>
       </c>
     </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A174" s="18">
         <v>37236</v>
       </c>
@@ -13307,9 +13328,9 @@
         <v>-7.0266186030778499E-2</v>
       </c>
       <c r="Q174" s="5">
-        <v>-2.42713984708252E-3</v>
-      </c>
-      <c r="R174" s="15">
+        <v>-2.5713094015034099E-3</v>
+      </c>
+      <c r="R174" s="5">
         <v>-131</v>
       </c>
       <c r="S174" s="5">
@@ -13328,7 +13349,7 @@
         <v>-4.4802772977370502E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A175" s="18">
         <v>37286</v>
       </c>
@@ -13378,9 +13399,9 @@
         <v>2.74431930068108E-2</v>
       </c>
       <c r="Q175" s="5">
-        <v>5.1801051164316603E-2</v>
-      </c>
-      <c r="R175" s="15">
+        <v>5.1902719263175502E-2</v>
+      </c>
+      <c r="R175" s="5">
         <v>46</v>
       </c>
       <c r="S175" s="5">
@@ -13399,7 +13420,7 @@
         <v>7.9869667028929794E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A176" s="18">
         <v>37334</v>
       </c>
@@ -13449,9 +13470,9 @@
         <v>-6.9265335053882701E-2</v>
       </c>
       <c r="Q176" s="5">
-        <v>-7.3380685846876501E-2</v>
-      </c>
-      <c r="R176" s="15">
+        <v>-7.3082229485927602E-2</v>
+      </c>
+      <c r="R176" s="5">
         <v>66</v>
       </c>
       <c r="S176" s="5">
@@ -13470,7 +13491,7 @@
         <v>9.6740966727959996E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A177" s="18">
         <v>37383</v>
       </c>
@@ -13520,9 +13541,9 @@
         <v>-4.5077590091061E-2</v>
       </c>
       <c r="Q177" s="5">
-        <v>-3.0085282623365999E-2</v>
-      </c>
-      <c r="R177" s="15">
+        <v>-2.9840238180246E-2</v>
+      </c>
+      <c r="R177" s="5">
         <v>-10</v>
       </c>
       <c r="S177" s="5">
@@ -13541,7 +13562,7 @@
         <v>0.168316176961115</v>
       </c>
     </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A178" s="18">
         <v>37433</v>
       </c>
@@ -13591,9 +13612,9 @@
         <v>1.1849882809493201E-2</v>
       </c>
       <c r="Q178" s="5">
-        <v>4.8045521917246099E-2</v>
-      </c>
-      <c r="R178" s="15">
+        <v>4.8268641584863298E-2</v>
+      </c>
+      <c r="R178" s="5">
         <v>-24</v>
       </c>
       <c r="S178" s="5">
@@ -13612,7 +13633,7 @@
         <v>0.14499135625517301</v>
       </c>
     </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A179" s="18">
         <v>37481</v>
       </c>
@@ -13662,9 +13683,9 @@
         <v>-0.11883553187950301</v>
       </c>
       <c r="Q179" s="5">
-        <v>-7.3793199496373599E-2</v>
-      </c>
-      <c r="R179" s="15">
+        <v>-7.3544127457254999E-2</v>
+      </c>
+      <c r="R179" s="5">
         <v>-49</v>
       </c>
       <c r="S179" s="5">
@@ -13683,7 +13704,7 @@
         <v>-8.6332623979311698E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A180" s="18">
         <v>37523</v>
       </c>
@@ -13733,9 +13754,9 @@
         <v>-1.27810993483951E-2</v>
       </c>
       <c r="Q180" s="5">
-        <v>9.6169877256357707E-3</v>
-      </c>
-      <c r="R180" s="15">
+        <v>9.9769636024275993E-3</v>
+      </c>
+      <c r="R180" s="5">
         <v>9</v>
       </c>
       <c r="S180" s="5">
@@ -13754,7 +13775,7 @@
         <v>4.2209630892592602E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A181" s="18">
         <v>37566</v>
       </c>
@@ -13804,9 +13825,9 @@
         <v>-8.3170640001249505E-2</v>
       </c>
       <c r="Q181" s="5">
-        <v>-8.6218195749143398E-2</v>
-      </c>
-      <c r="R181" s="15">
+        <v>-8.6126728194908603E-2</v>
+      </c>
+      <c r="R181" s="5">
         <v>-5</v>
       </c>
       <c r="S181" s="5">
@@ -13825,7 +13846,7 @@
         <v>0.25900445918897902</v>
       </c>
     </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A182" s="18">
         <v>37600</v>
       </c>
@@ -13875,9 +13896,9 @@
         <v>2.0409368170344298E-2</v>
       </c>
       <c r="Q182" s="5">
-        <v>4.3820767627100403E-2</v>
-      </c>
-      <c r="R182" s="15">
+        <v>4.3831966287785303E-2</v>
+      </c>
+      <c r="R182" s="5">
         <v>-65</v>
       </c>
       <c r="S182" s="5">
@@ -13896,7 +13917,7 @@
         <v>0.25009578097618701</v>
       </c>
     </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A183" s="18">
         <v>37650</v>
       </c>
@@ -13946,9 +13967,9 @@
         <v>5.0689684755028198E-2</v>
       </c>
       <c r="Q183" s="5">
-        <v>6.5231492232572297E-2</v>
-      </c>
-      <c r="R183" s="15">
+        <v>6.5309658725249201E-2</v>
+      </c>
+      <c r="R183" s="5">
         <v>-121</v>
       </c>
       <c r="S183" s="5">
@@ -13967,7 +13988,7 @@
         <v>0.358081827652944</v>
       </c>
     </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A184" s="18">
         <v>37698</v>
       </c>
@@ -14017,9 +14038,9 @@
         <v>-1.2381799913316E-3</v>
       </c>
       <c r="Q184" s="5">
-        <v>4.2911317411986602E-2</v>
-      </c>
-      <c r="R184" s="15">
+        <v>4.28797592188261E-2</v>
+      </c>
+      <c r="R184" s="5">
         <v>-328</v>
       </c>
       <c r="S184" s="5">
@@ -14038,7 +14059,7 @@
         <v>0.21120447864375999</v>
       </c>
     </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A185" s="18">
         <v>37747</v>
       </c>
@@ -14088,9 +14109,9 @@
         <v>-9.3798394026593804E-2</v>
       </c>
       <c r="Q185" s="5">
-        <v>-8.5184933812762306E-2</v>
-      </c>
-      <c r="R185" s="15">
+        <v>-8.5231079865045106E-2</v>
+      </c>
+      <c r="R185" s="5">
         <v>2</v>
       </c>
       <c r="S185" s="5">
@@ -14109,7 +14130,7 @@
         <v>0.413152220294912</v>
       </c>
     </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A186" s="18">
         <v>37797</v>
       </c>
@@ -14159,9 +14180,9 @@
         <v>0.13091603176154901</v>
       </c>
       <c r="Q186" s="5">
-        <v>0.131408205208246</v>
-      </c>
-      <c r="R186" s="15">
+        <v>0.13149181069822199</v>
+      </c>
+      <c r="R186" s="5">
         <v>8</v>
       </c>
       <c r="S186" s="5">
@@ -14180,7 +14201,7 @@
         <v>0.177881093887162</v>
       </c>
     </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A187" s="18">
         <v>37845</v>
       </c>
@@ -14230,9 +14251,9 @@
         <v>-3.9334190650425802E-2</v>
       </c>
       <c r="Q187" s="5">
-        <v>-2.2498151833432699E-2</v>
-      </c>
-      <c r="R187" s="15">
+        <v>-2.25792583965993E-2</v>
+      </c>
+      <c r="R187" s="5">
         <v>-54</v>
       </c>
       <c r="S187" s="5">
@@ -14251,7 +14272,7 @@
         <v>0.388580377779769</v>
       </c>
     </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A188" s="18">
         <v>37880</v>
       </c>
@@ -14301,9 +14322,9 @@
         <v>-2.7178293095339299E-3</v>
       </c>
       <c r="Q188" s="5">
-        <v>2.3999185772825001E-2</v>
-      </c>
-      <c r="R188" s="15">
+        <v>2.38949268297729E-2</v>
+      </c>
+      <c r="R188" s="5">
         <v>-108</v>
       </c>
       <c r="S188" s="5">
@@ -14322,7 +14343,7 @@
         <v>0.41233297090655202</v>
       </c>
     </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A189" s="18">
         <v>37922</v>
       </c>
@@ -14372,9 +14393,9 @@
         <v>-9.0985196261360701E-2</v>
       </c>
       <c r="Q189" s="5">
-        <v>-0.107847387058991</v>
-      </c>
-      <c r="R189" s="15">
+        <v>-0.107724864698936</v>
+      </c>
+      <c r="R189" s="5">
         <v>77</v>
       </c>
       <c r="S189" s="5">
@@ -14393,7 +14414,7 @@
         <v>0.49623275735779998</v>
       </c>
     </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A190" s="18">
         <v>37964</v>
       </c>
@@ -14443,9 +14464,9 @@
         <v>3.4295786001956097E-2</v>
       </c>
       <c r="Q190" s="5">
-        <v>2.9696012570446E-2</v>
-      </c>
-      <c r="R190" s="15">
+        <v>2.9801354161600801E-2</v>
+      </c>
+      <c r="R190" s="5">
         <v>-90</v>
       </c>
       <c r="S190" s="5">
@@ -14464,7 +14485,7 @@
         <v>0.31271487725309599</v>
       </c>
     </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A191" s="18">
         <v>38014</v>
       </c>
@@ -14514,9 +14535,9 @@
         <v>0.142004548968686</v>
       </c>
       <c r="Q191" s="5">
-        <v>0.14149554566103201</v>
-      </c>
-      <c r="R191" s="15">
+        <v>0.14147670804347501</v>
+      </c>
+      <c r="R191" s="5">
         <v>-147</v>
       </c>
       <c r="S191" s="5">
@@ -14535,7 +14556,7 @@
         <v>0.373192777226793</v>
       </c>
     </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A192" s="18">
         <v>38062</v>
       </c>
@@ -14585,9 +14606,9 @@
         <v>-6.8257493819024406E-2</v>
       </c>
       <c r="Q192" s="5">
-        <v>-7.5326964286664203E-2</v>
-      </c>
-      <c r="R192" s="15">
+        <v>-7.5312445100950198E-2</v>
+      </c>
+      <c r="R192" s="5">
         <v>-104</v>
       </c>
       <c r="S192" s="5">
@@ -14606,7 +14627,7 @@
         <v>0.57245410553135601</v>
       </c>
     </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A193" s="18">
         <v>38111</v>
       </c>
@@ -14656,9 +14677,9 @@
         <v>-8.5400712103454095E-4</v>
       </c>
       <c r="Q193" s="5">
-        <v>-2.9333449705184499E-2</v>
-      </c>
-      <c r="R193" s="15">
+        <v>-2.9191966049758301E-2</v>
+      </c>
+      <c r="R193" s="5">
         <v>208</v>
       </c>
       <c r="S193" s="5">
@@ -14677,7 +14698,7 @@
         <v>0.53616992421222998</v>
       </c>
     </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A194" s="18">
         <v>38168</v>
       </c>
@@ -14727,9 +14748,9 @@
         <v>-2.1330877633994199E-2</v>
       </c>
       <c r="Q194" s="5">
-        <v>-1.2170769775156E-2</v>
-      </c>
-      <c r="R194" s="15">
+        <v>-1.2217393659952501E-2</v>
+      </c>
+      <c r="R194" s="5">
         <v>28</v>
       </c>
       <c r="S194" s="5">
@@ -14748,7 +14769,7 @@
         <v>0.235442409816842</v>
       </c>
     </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A195" s="18">
         <v>38209</v>
       </c>
@@ -14798,9 +14819,9 @@
         <v>4.6288430042031301E-2</v>
       </c>
       <c r="Q195" s="5">
-        <v>7.3689907391159395E-2</v>
-      </c>
-      <c r="R195" s="15">
+        <v>7.3643958846517199E-2</v>
+      </c>
+      <c r="R195" s="5">
         <v>-193</v>
       </c>
       <c r="S195" s="5">
@@ -14819,7 +14840,7 @@
         <v>0.227262058082317</v>
       </c>
     </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A196" s="18">
         <v>38251</v>
       </c>
@@ -14869,9 +14890,9 @@
         <v>-2.0240614083685101E-2</v>
       </c>
       <c r="Q196" s="5">
-        <v>-1.31139351592364E-2</v>
-      </c>
-      <c r="R196" s="15">
+        <v>-1.3058585788595299E-2</v>
+      </c>
+      <c r="R196" s="5">
         <v>-6</v>
       </c>
       <c r="S196" s="5">
@@ -14890,7 +14911,7 @@
         <v>5.0357777284215699E-2</v>
       </c>
     </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A197" s="18">
         <v>38301</v>
       </c>
@@ -14940,9 +14961,9 @@
         <v>-2.9520584024652699E-2</v>
       </c>
       <c r="Q197" s="5">
-        <v>-5.8980011895784799E-2</v>
-      </c>
-      <c r="R197" s="15">
+        <v>-5.8895290967011002E-2</v>
+      </c>
+      <c r="R197" s="5">
         <v>157</v>
       </c>
       <c r="S197" s="5">
@@ -14961,7 +14982,7 @@
         <v>0.23084989301644801</v>
       </c>
     </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A198" s="18">
         <v>38335</v>
       </c>
@@ -15011,9 +15032,9 @@
         <v>-1.41872047728583E-2</v>
       </c>
       <c r="Q198" s="5">
-        <v>-1.7742721687571999E-2</v>
-      </c>
-      <c r="R198" s="15">
+        <v>-1.7778347753794801E-2</v>
+      </c>
+      <c r="R198" s="5">
         <v>-87</v>
       </c>
       <c r="S198" s="5">
@@ -15032,7 +15053,7 @@
         <v>0.27972229226408302</v>
       </c>
     </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A199" s="18">
         <v>38385</v>
       </c>
@@ -15082,9 +15103,9 @@
         <v>-1.9494395485847901E-2</v>
       </c>
       <c r="Q199" s="5">
-        <v>-2.4485091851694198E-2</v>
-      </c>
-      <c r="R199" s="15">
+        <v>-2.4532985013612001E-2</v>
+      </c>
+      <c r="R199" s="5">
         <v>-18</v>
       </c>
       <c r="S199" s="5">
@@ -15103,7 +15124,7 @@
         <v>0.38277367096471399</v>
       </c>
     </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A200" s="18">
         <v>38433</v>
       </c>
@@ -15153,9 +15174,9 @@
         <v>8.0149354500621495E-2</v>
       </c>
       <c r="Q200" s="5">
-        <v>6.3453476499022901E-2</v>
-      </c>
-      <c r="R200" s="15">
+        <v>6.3512343152116402E-2</v>
+      </c>
+      <c r="R200" s="5">
         <v>43</v>
       </c>
       <c r="S200" s="5">
@@ -15174,7 +15195,7 @@
         <v>0.39072805218724699</v>
       </c>
     </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A201" s="18">
         <v>38475</v>
       </c>
@@ -15224,9 +15245,9 @@
         <v>1.9470879232388601E-2</v>
       </c>
       <c r="Q201" s="5">
-        <v>2.1594885539050701E-2</v>
-      </c>
-      <c r="R201" s="15">
+        <v>2.1588226250711402E-2</v>
+      </c>
+      <c r="R201" s="5">
         <v>-115</v>
       </c>
       <c r="S201" s="5">
@@ -15245,7 +15266,7 @@
         <v>0.31978894881991299</v>
       </c>
     </row>
-    <row r="202" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A202" s="18">
         <v>38533</v>
       </c>
@@ -15295,9 +15316,9 @@
         <v>5.0283738607175103E-2</v>
       </c>
       <c r="Q202" s="5">
-        <v>5.8732523120316502E-2</v>
-      </c>
-      <c r="R202" s="15">
+        <v>5.8699070746647902E-2</v>
+      </c>
+      <c r="R202" s="5">
         <v>-97</v>
       </c>
       <c r="S202" s="5">
@@ -15316,7 +15337,7 @@
         <v>0.17900613396006099</v>
       </c>
     </row>
-    <row r="203" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A203" s="18">
         <v>38573</v>
       </c>
@@ -15366,9 +15387,9 @@
         <v>-1.7386425362658799E-2</v>
       </c>
       <c r="Q203" s="5">
-        <v>-3.2153690459934298E-2</v>
-      </c>
-      <c r="R203" s="15">
+        <v>-3.2123747864615103E-2</v>
+      </c>
+      <c r="R203" s="5">
         <v>27</v>
       </c>
       <c r="S203" s="5">
@@ -15387,7 +15408,7 @@
         <v>0.212175126456152</v>
       </c>
     </row>
-    <row r="204" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A204" s="18">
         <v>38615</v>
       </c>
@@ -15437,9 +15458,9 @@
         <v>1.8450335788918099E-2</v>
       </c>
       <c r="Q204" s="5">
-        <v>1.46757040375793E-2</v>
-      </c>
-      <c r="R204" s="15">
+        <v>1.4675587359118E-2</v>
+      </c>
+      <c r="R204" s="5">
         <v>-21</v>
       </c>
       <c r="S204" s="5">
@@ -15458,7 +15479,7 @@
         <v>0.14149170627997601</v>
       </c>
     </row>
-    <row r="205" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A205" s="18">
         <v>38657</v>
       </c>
@@ -15508,9 +15529,9 @@
         <v>6.3905496741915599E-3</v>
       </c>
       <c r="Q205" s="5">
-        <v>-4.0181814589696904E-3</v>
-      </c>
-      <c r="R205" s="15">
+        <v>-3.9562024539102E-3</v>
+      </c>
+      <c r="R205" s="5">
         <v>108</v>
       </c>
       <c r="S205" s="5">
@@ -15529,7 +15550,7 @@
         <v>0.1846102292914</v>
       </c>
     </row>
-    <row r="206" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A206" s="18">
         <v>38699</v>
       </c>
@@ -15579,9 +15600,9 @@
         <v>-2.7693843336216099E-2</v>
       </c>
       <c r="Q206" s="5">
-        <v>-4.00219833929992E-2</v>
-      </c>
-      <c r="R206" s="15">
+        <v>-4.0019924700125803E-2</v>
+      </c>
+      <c r="R206" s="5">
         <v>6</v>
       </c>
       <c r="S206" s="5">
@@ -15600,7 +15621,7 @@
         <v>0.31797807421930002</v>
       </c>
     </row>
-    <row r="207" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A207" s="18">
         <v>38748</v>
       </c>
@@ -15650,9 +15671,9 @@
         <v>3.2571888173447097E-2</v>
       </c>
       <c r="Q207" s="5">
-        <v>3.0192922779573101E-2</v>
-      </c>
-      <c r="R207" s="15">
+        <v>3.0113670907767801E-2</v>
+      </c>
+      <c r="R207" s="5">
         <v>-92</v>
       </c>
       <c r="S207" s="5">
@@ -15671,7 +15692,7 @@
         <v>0.22569724767521901</v>
       </c>
     </row>
-    <row r="208" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A208" s="18">
         <v>38804</v>
       </c>
@@ -15721,9 +15742,9 @@
         <v>5.01552707011092E-2</v>
       </c>
       <c r="Q208" s="5">
-        <v>4.8090746260520102E-2</v>
-      </c>
-      <c r="R208" s="15">
+        <v>4.8018968681689603E-2</v>
+      </c>
+      <c r="R208" s="5">
         <v>43</v>
       </c>
       <c r="S208" s="5">
@@ -15742,7 +15763,7 @@
         <v>0.25715865463580101</v>
       </c>
     </row>
-    <row r="209" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A209" s="18">
         <v>38847</v>
       </c>
@@ -15792,9 +15813,9 @@
         <v>5.7326441865364099E-2</v>
       </c>
       <c r="Q209" s="5">
-        <v>5.3890870373715101E-2</v>
-      </c>
-      <c r="R209" s="15">
+        <v>5.3836770157337302E-2</v>
+      </c>
+      <c r="R209" s="5">
         <v>-62</v>
       </c>
       <c r="S209" s="5">
@@ -15813,7 +15834,7 @@
         <v>0.14608577876067699</v>
       </c>
     </row>
-    <row r="210" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A210" s="18">
         <v>38897</v>
       </c>
@@ -15863,9 +15884,9 @@
         <v>-4.2071502879349999E-2</v>
       </c>
       <c r="Q210" s="5">
-        <v>-2.7519496903904601E-2</v>
-      </c>
-      <c r="R210" s="15">
+        <v>-2.7545007780206601E-2</v>
+      </c>
+      <c r="R210" s="5">
         <v>-105</v>
       </c>
       <c r="S210" s="5">
@@ -15884,7 +15905,7 @@
         <v>9.93106350987637E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A211" s="18">
         <v>38937</v>
       </c>
@@ -15934,9 +15955,9 @@
         <v>-3.3483656177402198E-2</v>
       </c>
       <c r="Q211" s="5">
-        <v>-2.3005254055737299E-2</v>
-      </c>
-      <c r="R211" s="15">
+        <v>-2.2988903431008501E-2</v>
+      </c>
+      <c r="R211" s="5">
         <v>-33</v>
       </c>
       <c r="S211" s="5">
@@ -15955,7 +15976,7 @@
         <v>8.3418326414009897E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A212" s="18">
         <v>38980</v>
       </c>
@@ -16005,9 +16026,9 @@
         <v>1.88502916700381E-2</v>
       </c>
       <c r="Q212" s="5">
-        <v>3.07072143780012E-2</v>
-      </c>
-      <c r="R212" s="15">
+        <v>3.0658438504900298E-2</v>
+      </c>
+      <c r="R212" s="5">
         <v>3</v>
       </c>
       <c r="S212" s="5">
@@ -16026,7 +16047,7 @@
         <v>-3.0621643997641699E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A213" s="18">
         <v>39015</v>
       </c>
@@ -16076,9 +16097,9 @@
         <v>-1.03702334912951E-2</v>
       </c>
       <c r="Q213" s="5">
-        <v>-1.0427652983091499E-3</v>
-      </c>
-      <c r="R213" s="15">
+        <v>-1.1151227669485299E-3</v>
+      </c>
+      <c r="R213" s="5">
         <v>-74</v>
       </c>
       <c r="S213" s="5">
@@ -16097,7 +16118,7 @@
         <v>-4.2710630264817799E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A214" s="18">
         <v>39063</v>
       </c>
@@ -16147,9 +16168,9 @@
         <v>-3.4645034540175701E-2</v>
       </c>
       <c r="Q214" s="5">
-        <v>-3.7803497423560303E-2</v>
-      </c>
-      <c r="R214" s="15">
+        <v>-3.7759645015540202E-2</v>
+      </c>
+      <c r="R214" s="5">
         <v>22</v>
       </c>
       <c r="S214" s="5">
@@ -16168,7 +16189,7 @@
         <v>-0.14264117484854899</v>
       </c>
     </row>
-    <row r="215" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A215" s="18">
         <v>39113</v>
       </c>
@@ -16218,9 +16239,9 @@
         <v>-9.6134447802357203E-3</v>
       </c>
       <c r="Q215" s="5">
-        <v>-2.8362067643440498E-3</v>
-      </c>
-      <c r="R215" s="15">
+        <v>-2.8398450688046401E-3</v>
+      </c>
+      <c r="R215" s="5">
         <v>52</v>
       </c>
       <c r="S215" s="5">
@@ -16239,7 +16260,7 @@
         <v>-4.2069910757505498E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A216" s="18">
         <v>39162</v>
       </c>
@@ -16289,9 +16310,9 @@
         <v>-9.7927015585465002E-2</v>
       </c>
       <c r="Q216" s="5">
-        <v>-6.9261448162568101E-2</v>
-      </c>
-      <c r="R216" s="15">
+        <v>-6.9211391377176107E-2</v>
+      </c>
+      <c r="R216" s="5">
         <v>-3</v>
       </c>
       <c r="S216" s="5">
@@ -16310,7 +16331,7 @@
         <v>-0.44363812614067399</v>
       </c>
     </row>
-    <row r="217" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A217" s="18">
         <v>39211</v>
       </c>
@@ -16360,9 +16381,9 @@
         <v>4.1039987128268E-2</v>
       </c>
       <c r="Q217" s="5">
-        <v>4.7753667118996902E-2</v>
-      </c>
-      <c r="R217" s="15">
+        <v>4.7791331668118602E-2</v>
+      </c>
+      <c r="R217" s="5">
         <v>-18</v>
       </c>
       <c r="S217" s="5">
@@ -16381,7 +16402,7 @@
         <v>-7.4969123578710106E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A218" s="18">
         <v>39261</v>
       </c>
@@ -16431,9 +16452,9 @@
         <v>1.5317754503759599E-2</v>
       </c>
       <c r="Q218" s="5">
-        <v>6.9074331334952402E-3</v>
-      </c>
-      <c r="R218" s="15">
+        <v>6.81187758402442E-3</v>
+      </c>
+      <c r="R218" s="5">
         <v>17</v>
       </c>
       <c r="S218" s="5">
@@ -16452,7 +16473,7 @@
         <v>0.56673868285681295</v>
       </c>
     </row>
-    <row r="219" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A219" s="18">
         <v>39301</v>
       </c>
@@ -16502,9 +16523,9 @@
         <v>-1.9048394014117401E-2</v>
       </c>
       <c r="Q219" s="5">
-        <v>1.4316905014856199E-2</v>
-      </c>
-      <c r="R219" s="15">
+        <v>1.4297052453867899E-2</v>
+      </c>
+      <c r="R219" s="5">
         <v>-38</v>
       </c>
       <c r="S219" s="5">
@@ -16523,7 +16544,7 @@
         <v>-0.191985676215113</v>
       </c>
     </row>
-    <row r="220" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A220" s="18">
         <v>39304</v>
       </c>
@@ -16573,9 +16594,9 @@
         <v>3.8905151753018401E-3</v>
       </c>
       <c r="Q220" s="5">
-        <v>4.0792343316446197E-2</v>
-      </c>
-      <c r="R220" s="15">
+        <v>4.0795989268245902E-2</v>
+      </c>
+      <c r="R220" s="5">
         <v>-38</v>
       </c>
       <c r="S220" s="5">
@@ -16594,7 +16615,7 @@
         <v>-0.30491364266791998</v>
       </c>
     </row>
-    <row r="221" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A221" s="18">
         <v>39311</v>
       </c>
@@ -16644,9 +16665,9 @@
         <v>-4.7417005940329E-2</v>
       </c>
       <c r="Q221" s="5">
-        <v>2.8968753336633202E-3</v>
-      </c>
-      <c r="R221" s="15">
+        <v>2.8908773366053001E-3</v>
+      </c>
+      <c r="R221" s="5">
         <v>-38</v>
       </c>
       <c r="S221" s="5">
@@ -16665,7 +16686,7 @@
         <v>-0.46285185258292699</v>
       </c>
     </row>
-    <row r="222" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A222" s="18">
         <v>39343</v>
       </c>
@@ -16715,9 +16736,9 @@
         <v>-0.18059077422036601</v>
       </c>
       <c r="Q222" s="5">
-        <v>-0.12895412087612401</v>
-      </c>
-      <c r="R222" s="15">
+        <v>-0.128892121904053</v>
+      </c>
+      <c r="R222" s="5">
         <v>-117</v>
       </c>
       <c r="S222" s="5">
@@ -16736,7 +16757,7 @@
         <v>-0.70046035714569599</v>
       </c>
     </row>
-    <row r="223" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A223" s="18">
         <v>39386</v>
       </c>
@@ -16786,9 +16807,9 @@
         <v>7.6837290752797105E-2</v>
       </c>
       <c r="Q223" s="5">
-        <v>9.2291545518824902E-2</v>
-      </c>
-      <c r="R223" s="15">
+        <v>9.23485731288676E-2</v>
+      </c>
+      <c r="R223" s="5">
         <v>0</v>
       </c>
       <c r="S223" s="5">
@@ -16807,7 +16828,7 @@
         <v>-0.276912930056609</v>
       </c>
     </row>
-    <row r="224" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A224" s="18">
         <v>39427</v>
       </c>
@@ -16857,9 +16878,9 @@
         <v>7.2198191072367704E-2</v>
       </c>
       <c r="Q224" s="5">
-        <v>0.103108188159799</v>
-      </c>
-      <c r="R224" s="15">
+        <v>0.103199707175979</v>
+      </c>
+      <c r="R224" s="5">
         <v>29</v>
       </c>
       <c r="S224" s="5">
@@ -16878,7 +16899,7 @@
         <v>-0.74308466618234703</v>
       </c>
     </row>
-    <row r="225" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A225" s="18">
         <v>39469</v>
       </c>
@@ -16928,9 +16949,9 @@
         <v>-9.3238840796603994E-2</v>
       </c>
       <c r="Q225" s="5">
-        <v>-4.3969932475302898E-2</v>
-      </c>
-      <c r="R225" s="15">
+        <v>-4.3849158332496398E-2</v>
+      </c>
+      <c r="R225" s="5">
         <v>-48</v>
       </c>
       <c r="S225" s="5">
@@ -16949,7 +16970,7 @@
         <v>-0.50503309315547096</v>
       </c>
     </row>
-    <row r="226" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A226" s="18">
         <v>39477</v>
       </c>
@@ -16999,9 +17020,9 @@
         <v>-0.11388240589476099</v>
       </c>
       <c r="Q226" s="5">
-        <v>-6.8714244457453E-2</v>
-      </c>
-      <c r="R226" s="15">
+        <v>-6.8640803372464698E-2</v>
+      </c>
+      <c r="R226" s="5">
         <v>-48</v>
       </c>
       <c r="S226" s="5">
@@ -17020,7 +17041,7 @@
         <v>-0.43461733845280498</v>
       </c>
     </row>
-    <row r="227" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A227" s="18">
         <v>39518</v>
       </c>
@@ -17070,9 +17091,9 @@
         <v>8.0322795412158393E-2</v>
       </c>
       <c r="Q227" s="5">
-        <v>0.107450857511891</v>
-      </c>
-      <c r="R227" s="15">
+        <v>0.10756404291728</v>
+      </c>
+      <c r="R227" s="5">
         <v>-93</v>
       </c>
       <c r="S227" s="5">
@@ -17091,7 +17112,7 @@
         <v>-5.2473386985697403E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A228" s="18">
         <v>39525</v>
       </c>
@@ -17141,9 +17162,9 @@
         <v>2.40488652062971E-2</v>
       </c>
       <c r="Q228" s="5">
-        <v>5.84611702405868E-2</v>
-      </c>
-      <c r="R228" s="15">
+        <v>5.85614151009307E-2</v>
+      </c>
+      <c r="R228" s="5">
         <v>-93</v>
       </c>
       <c r="S228" s="5">
@@ -17162,7 +17183,7 @@
         <v>-0.10464066944481699</v>
       </c>
     </row>
-    <row r="229" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A229" s="18">
         <v>39568</v>
       </c>
@@ -17212,9 +17233,9 @@
         <v>-7.3657711345158694E-2</v>
       </c>
       <c r="Q229" s="5">
-        <v>-6.1556935640716702E-2</v>
-      </c>
-      <c r="R229" s="15">
+        <v>-6.1493905300217797E-2</v>
+      </c>
+      <c r="R229" s="5">
         <v>-30</v>
       </c>
       <c r="S229" s="5">
@@ -17233,7 +17254,7 @@
         <v>-0.101253811322283</v>
       </c>
     </row>
-    <row r="230" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A230" s="18">
         <v>39624</v>
       </c>
@@ -17283,9 +17304,9 @@
         <v>-5.8450330938782699E-2</v>
       </c>
       <c r="Q230" s="5">
-        <v>-5.35763191777089E-2</v>
-      </c>
-      <c r="R230" s="15">
+        <v>-5.3358204431879601E-2</v>
+      </c>
+      <c r="R230" s="5">
         <v>1</v>
       </c>
       <c r="S230" s="5">
@@ -17304,7 +17325,7 @@
         <v>-3.20309505553188E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A231" s="18">
         <v>39665</v>
       </c>
@@ -17354,9 +17375,9 @@
         <v>-2.7924426024309799E-2</v>
       </c>
       <c r="Q231" s="5">
-        <v>5.3978724249232404E-3</v>
-      </c>
-      <c r="R231" s="15">
+        <v>5.5216229446751301E-3</v>
+      </c>
+      <c r="R231" s="5">
         <v>14</v>
       </c>
       <c r="S231" s="5">
@@ -17375,7 +17396,7 @@
         <v>0.128514386917428</v>
       </c>
     </row>
-    <row r="232" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A232" s="18">
         <v>39707</v>
       </c>
@@ -17425,9 +17446,9 @@
         <v>8.7384764677786303E-2</v>
       </c>
       <c r="Q232" s="5">
-        <v>0.15470569404420401</v>
-      </c>
-      <c r="R232" s="15">
+        <v>0.15467126927077501</v>
+      </c>
+      <c r="R232" s="5">
         <v>-11</v>
       </c>
       <c r="S232" s="5">
@@ -17446,7 +17467,7 @@
         <v>2.4161016835037099E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A233" s="18">
         <v>39729</v>
       </c>
@@ -17496,9 +17517,9 @@
         <v>7.6223855335945598E-3</v>
       </c>
       <c r="Q233" s="5">
-        <v>0.113536337603472</v>
-      </c>
-      <c r="R233" s="15">
+        <v>0.11346309852671201</v>
+      </c>
+      <c r="R233" s="5">
         <v>-59</v>
       </c>
       <c r="S233" s="5">
@@ -17517,7 +17538,7 @@
         <v>-0.11991530295227</v>
       </c>
     </row>
-    <row r="234" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A234" s="18">
         <v>39750</v>
       </c>
@@ -17567,9 +17588,9 @@
         <v>-5.5569228636537099E-2</v>
       </c>
       <c r="Q234" s="5">
-        <v>6.8706966678225401E-2</v>
-      </c>
-      <c r="R234" s="15">
+        <v>6.8568275069314802E-2</v>
+      </c>
+      <c r="R234" s="5">
         <v>-59</v>
       </c>
       <c r="S234" s="5">
@@ -17588,7 +17609,7 @@
         <v>-0.173734009809562</v>
       </c>
     </row>
-    <row r="235" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A235" s="18">
         <v>39798</v>
       </c>
@@ -17638,9 +17659,9 @@
         <v>-0.26998925136026902</v>
       </c>
       <c r="Q235" s="5">
-        <v>-0.129683542203126</v>
-      </c>
-      <c r="R235" s="15">
+        <v>-0.12973349541785301</v>
+      </c>
+      <c r="R235" s="5">
         <v>-238</v>
       </c>
       <c r="S235" s="5">
@@ -17659,7 +17680,7 @@
         <v>-8.2116987250297702E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A236" s="18">
         <v>39841</v>
       </c>
@@ -17709,9 +17730,9 @@
         <v>-9.5369057531215808E-3</v>
       </c>
       <c r="Q236" s="5">
-        <v>2.7931241091405001E-2</v>
-      </c>
-      <c r="R236" s="15">
+        <v>2.8086672172424901E-2</v>
+      </c>
+      <c r="R236" s="5">
         <v>-44</v>
       </c>
       <c r="S236" s="5">
@@ -17730,7 +17751,7 @@
         <v>0.40133541592472399</v>
       </c>
     </row>
-    <row r="237" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A237" s="18">
         <v>39890</v>
       </c>
@@ -17780,9 +17801,9 @@
         <v>-6.6671077278378899E-2</v>
       </c>
       <c r="Q237" s="5">
-        <v>-2.75976180320117E-2</v>
-      </c>
-      <c r="R237" s="15">
+        <v>-2.7276406440584801E-2</v>
+      </c>
+      <c r="R237" s="5">
         <v>-21</v>
       </c>
       <c r="S237" s="5">
@@ -17801,7 +17822,7 @@
         <v>0.35790882272491198</v>
       </c>
     </row>
-    <row r="238" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A238" s="18">
         <v>39932</v>
       </c>
@@ -17851,9 +17872,9 @@
         <v>1.7042380410179199E-2</v>
       </c>
       <c r="Q238" s="5">
-        <v>3.1857311810451497E-2</v>
-      </c>
-      <c r="R238" s="15">
+        <v>3.2114514950330401E-2</v>
+      </c>
+      <c r="R238" s="5">
         <v>-13</v>
       </c>
       <c r="S238" s="5">
@@ -17872,7 +17893,7 @@
         <v>0.57138996207039905</v>
       </c>
     </row>
-    <row r="239" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A239" s="18">
         <v>39988</v>
       </c>
@@ -17922,9 +17943,9 @@
         <v>4.5660937890575903E-2</v>
       </c>
       <c r="Q239" s="5">
-        <v>5.3873307500390301E-2</v>
-      </c>
-      <c r="R239" s="15">
+        <v>5.4146470470404197E-2</v>
+      </c>
+      <c r="R239" s="5">
         <v>155</v>
       </c>
       <c r="S239" s="5">
@@ -17943,7 +17964,7 @@
         <v>0.156362846021952</v>
       </c>
     </row>
-    <row r="240" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A240" s="18">
         <v>40037</v>
       </c>
@@ -17993,9 +18014,9 @@
         <v>-1.48420369646616E-2</v>
       </c>
       <c r="Q240" s="5">
-        <v>2.4330580325319E-3</v>
-      </c>
-      <c r="R240" s="15">
+        <v>2.7857604305253502E-3</v>
+      </c>
+      <c r="R240" s="5">
         <v>83</v>
       </c>
       <c r="S240" s="5">
@@ -18014,7 +18035,7 @@
         <v>0.22621020620507801</v>
       </c>
     </row>
-    <row r="241" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A241" s="18">
         <v>40079</v>
       </c>
@@ -18064,9 +18085,9 @@
         <v>-0.106904089792526</v>
       </c>
       <c r="Q241" s="5">
-        <v>-9.7088354700146401E-2</v>
-      </c>
-      <c r="R241" s="15">
+        <v>-9.6775195341774298E-2</v>
+      </c>
+      <c r="R241" s="5">
         <v>9</v>
       </c>
       <c r="S241" s="5">
@@ -18085,7 +18106,7 @@
         <v>0.28741573435651901</v>
       </c>
     </row>
-    <row r="242" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A242" s="18">
         <v>40121</v>
       </c>
@@ -18135,9 +18156,9 @@
         <v>-2.1852555094851199E-2</v>
       </c>
       <c r="Q242" s="5">
-        <v>-1.8220148393131E-3</v>
-      </c>
-      <c r="R242" s="15">
+        <v>-1.5650610650928801E-3</v>
+      </c>
+      <c r="R242" s="5">
         <v>-90</v>
       </c>
       <c r="S242" s="5">
@@ -18156,7 +18177,7 @@
         <v>0.60142341252787201</v>
       </c>
     </row>
-    <row r="243" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A243" s="18">
         <v>40163</v>
       </c>
@@ -18206,9 +18227,9 @@
         <v>6.1200486154557397E-3</v>
       </c>
       <c r="Q243" s="5">
-        <v>1.70817811132094E-3</v>
-      </c>
-      <c r="R243" s="15">
+        <v>2.0186605402691799E-3</v>
+      </c>
+      <c r="R243" s="5">
         <v>103</v>
       </c>
       <c r="S243" s="5">
@@ -18227,7 +18248,7 @@
         <v>0.58611172422091395</v>
       </c>
     </row>
-    <row r="244" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A244" s="18">
         <v>40205</v>
       </c>
@@ -18277,9 +18298,9 @@
         <v>2.8908874884028001E-2</v>
       </c>
       <c r="Q244" s="5">
-        <v>6.4034139955661901E-2</v>
-      </c>
-      <c r="R244" s="15">
+        <v>6.4203630889177396E-2</v>
+      </c>
+      <c r="R244" s="5">
         <v>-85</v>
       </c>
       <c r="S244" s="5">
@@ -18298,7 +18319,7 @@
         <v>0.390079724301024</v>
       </c>
     </row>
-    <row r="245" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A245" s="18">
         <v>40253</v>
       </c>
@@ -18348,9 +18369,9 @@
         <v>-3.93309859698842E-2</v>
       </c>
       <c r="Q245" s="5">
-        <v>-1.9711206185354501E-2</v>
-      </c>
-      <c r="R245" s="15">
+        <v>-1.9560152928288301E-2</v>
+      </c>
+      <c r="R245" s="5">
         <v>14</v>
       </c>
       <c r="S245" s="5">
@@ -18369,7 +18390,7 @@
         <v>0.31931072442683001</v>
       </c>
     </row>
-    <row r="246" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A246" s="18">
         <v>40296</v>
       </c>
@@ -18419,9 +18440,9 @@
         <v>-7.8308997281229809E-3</v>
       </c>
       <c r="Q246" s="5">
-        <v>1.57488934481733E-4</v>
-      </c>
-      <c r="R246" s="15">
+        <v>2.6367841843450698E-4</v>
+      </c>
+      <c r="R246" s="5">
         <v>-38</v>
       </c>
       <c r="S246" s="5">
@@ -18440,7 +18461,7 @@
         <v>0.43089669380475998</v>
       </c>
     </row>
-    <row r="247" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A247" s="18">
         <v>40352</v>
       </c>
@@ -18490,9 +18511,9 @@
         <v>6.5690452205569997E-3</v>
       </c>
       <c r="Q247" s="5">
-        <v>3.01440287737854E-2</v>
-      </c>
-      <c r="R247" s="15">
+        <v>3.0253523689922499E-2</v>
+      </c>
+      <c r="R247" s="5">
         <v>-69</v>
       </c>
       <c r="S247" s="5">
@@ -18511,7 +18532,7 @@
         <v>0.26002322066718597</v>
       </c>
     </row>
-    <row r="248" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A248" s="18">
         <v>40400</v>
       </c>
@@ -18561,9 +18582,9 @@
         <v>-2.5020367925782602E-2</v>
       </c>
       <c r="Q248" s="5">
-        <v>-6.9394968632469399E-3</v>
-      </c>
-      <c r="R248" s="15">
+        <v>-6.7957833900500102E-3</v>
+      </c>
+      <c r="R248" s="5">
         <v>-76</v>
       </c>
       <c r="S248" s="5">
@@ -18582,7 +18603,7 @@
         <v>-4.1484539424258997E-2</v>
       </c>
     </row>
-    <row r="249" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A249" s="18">
         <v>40442</v>
       </c>
@@ -18632,9 +18653,9 @@
         <v>-1.10536365713832E-2</v>
       </c>
       <c r="Q249" s="5">
-        <v>-1.8775509956523301E-2</v>
-      </c>
-      <c r="R249" s="15">
+        <v>-1.8610451403285998E-2</v>
+      </c>
+      <c r="R249" s="5">
         <v>44</v>
       </c>
       <c r="S249" s="5">
@@ -18653,7 +18674,7 @@
         <v>0.21979549179468799</v>
       </c>
     </row>
-    <row r="250" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A250" s="18">
         <v>40485</v>
       </c>
@@ -18703,9 +18724,9 @@
         <v>-3.1413014441086899E-3</v>
       </c>
       <c r="Q250" s="5">
-        <v>-6.1797687834669098E-3</v>
-      </c>
-      <c r="R250" s="15">
+        <v>-6.11341206383251E-3</v>
+      </c>
+      <c r="R250" s="5">
         <v>-100</v>
       </c>
       <c r="S250" s="5">
@@ -18724,7 +18745,7 @@
         <v>0.30687756014705703</v>
       </c>
     </row>
-    <row r="251" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A251" s="18">
         <v>40526</v>
       </c>
@@ -18774,9 +18795,9 @@
         <v>-3.7776720172792398E-3</v>
       </c>
       <c r="Q251" s="5">
-        <v>-7.8519764013998492E-3</v>
-      </c>
-      <c r="R251" s="15">
+        <v>-7.9379659464460101E-3</v>
+      </c>
+      <c r="R251" s="5">
         <v>-111</v>
       </c>
       <c r="S251" s="5">
@@ -18795,7 +18816,7 @@
         <v>0.39468693926836501</v>
       </c>
     </row>
-    <row r="252" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A252" s="18">
         <v>40569</v>
       </c>
@@ -18845,9 +18866,9 @@
         <v>-1.1435130833862E-2</v>
       </c>
       <c r="Q252" s="5">
-        <v>-9.0656839752977399E-3</v>
-      </c>
-      <c r="R252" s="15">
+        <v>-9.1795801670024706E-3</v>
+      </c>
+      <c r="R252" s="5">
         <v>-42</v>
       </c>
       <c r="S252" s="5">
@@ -18866,7 +18887,7 @@
         <v>0.336062461770196</v>
       </c>
     </row>
-    <row r="253" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A253" s="18">
         <v>40617</v>
       </c>
@@ -18916,9 +18937,9 @@
         <v>6.7534240552631396E-3</v>
       </c>
       <c r="Q253" s="5">
-        <v>2.99438632844324E-3</v>
-      </c>
-      <c r="R253" s="15">
+        <v>2.98955668631897E-3</v>
+      </c>
+      <c r="R253" s="5">
         <v>17</v>
       </c>
       <c r="S253" s="5">
@@ -18937,7 +18958,7 @@
         <v>0.22918129902791101</v>
       </c>
     </row>
-    <row r="254" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A254" s="18">
         <v>40660</v>
       </c>
@@ -18987,9 +19008,9 @@
         <v>-1.1466538592732899E-2</v>
       </c>
       <c r="Q254" s="5">
-        <v>-2.5648122862203498E-2</v>
-      </c>
-      <c r="R254" s="15">
+        <v>-2.5588607749716101E-2</v>
+      </c>
+      <c r="R254" s="5">
         <v>31</v>
       </c>
       <c r="S254" s="5">
@@ -19008,7 +19029,7 @@
         <v>0.24672560698812701</v>
       </c>
     </row>
-    <row r="255" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A255" s="18">
         <v>40716</v>
       </c>
@@ -19058,9 +19079,9 @@
         <v>4.9631457605077197E-3</v>
       </c>
       <c r="Q255" s="5">
-        <v>2.38291788941731E-2</v>
-      </c>
-      <c r="R255" s="15">
+        <v>2.37397994246491E-2</v>
+      </c>
+      <c r="R255" s="5">
         <v>-144</v>
       </c>
       <c r="S255" s="5">
@@ -19079,7 +19100,7 @@
         <v>0.379623427058496</v>
       </c>
     </row>
-    <row r="256" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A256" s="18">
         <v>40764</v>
       </c>
@@ -19129,9 +19150,9 @@
         <v>-2.0416238374984599E-2</v>
       </c>
       <c r="Q256" s="5">
-        <v>-6.3223682691445297E-3</v>
-      </c>
-      <c r="R256" s="15">
+        <v>-6.2140727935921002E-3</v>
+      </c>
+      <c r="R256" s="5">
         <v>7</v>
       </c>
       <c r="S256" s="5">
@@ -19150,7 +19171,7 @@
         <v>0.411232638539199</v>
       </c>
     </row>
-    <row r="257" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A257" s="18">
         <v>40807</v>
       </c>
@@ -19200,9 +19221,9 @@
         <v>6.05648034566834E-2</v>
       </c>
       <c r="Q257" s="5">
-        <v>6.6824213730882001E-2</v>
-      </c>
-      <c r="R257" s="15">
+        <v>6.6829073950882195E-2</v>
+      </c>
+      <c r="R257" s="5">
         <v>-120</v>
       </c>
       <c r="S257" s="5">
@@ -19221,7 +19242,7 @@
         <v>0.50754284819180595</v>
       </c>
     </row>
-    <row r="258" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A258" s="18">
         <v>40849</v>
       </c>
@@ -19271,9 +19292,9 @@
         <v>1.42579117960067E-2</v>
       </c>
       <c r="Q258" s="5">
-        <v>2.1488148150016099E-2</v>
-      </c>
-      <c r="R258" s="15">
+        <v>2.1528386831507901E-2</v>
+      </c>
+      <c r="R258" s="5">
         <v>47</v>
       </c>
       <c r="S258" s="5">
@@ -19292,7 +19313,7 @@
         <v>0.24886598258592199</v>
       </c>
     </row>
-    <row r="259" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A259" s="18">
         <v>40890</v>
       </c>
@@ -19342,9 +19363,9 @@
         <v>8.4328674090484706E-3</v>
       </c>
       <c r="Q259" s="5">
-        <v>1.8228109716134699E-2</v>
-      </c>
-      <c r="R259" s="15">
+        <v>1.80681135791954E-2</v>
+      </c>
+      <c r="R259" s="5">
         <v>-5</v>
       </c>
       <c r="S259" s="5">
@@ -19363,7 +19384,7 @@
         <v>0.35827276832691102</v>
       </c>
     </row>
-    <row r="260" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A260" s="18">
         <v>40933</v>
       </c>
@@ -19413,9 +19434,9 @@
         <v>-2.0477857429255501E-2</v>
       </c>
       <c r="Q260" s="5">
-        <v>-3.5388800883999399E-2</v>
-      </c>
-      <c r="R260" s="15">
+        <v>-3.54902801244385E-2</v>
+      </c>
+      <c r="R260" s="5">
         <v>50</v>
       </c>
       <c r="S260" s="5">
@@ -19434,7 +19455,7 @@
         <v>0.557081385393977</v>
       </c>
     </row>
-    <row r="261" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A261" s="18">
         <v>40981</v>
       </c>
@@ -19484,9 +19505,9 @@
         <v>1.2444452443175E-2</v>
       </c>
       <c r="Q261" s="5">
-        <v>-9.5349739495070394E-3</v>
-      </c>
-      <c r="R261" s="15">
+        <v>-9.6213590148172805E-3</v>
+      </c>
+      <c r="R261" s="5">
         <v>17</v>
       </c>
       <c r="S261" s="5">
@@ -19505,7 +19526,7 @@
         <v>0.56068648790430697</v>
       </c>
     </row>
-    <row r="262" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A262" s="18">
         <v>41024</v>
       </c>
@@ -19555,9 +19576,9 @@
         <v>3.9796838171003296E-3</v>
       </c>
       <c r="Q262" s="5">
-        <v>2.36306236167081E-3</v>
-      </c>
-      <c r="R262" s="15">
+        <v>2.2055045973686E-3</v>
+      </c>
+      <c r="R262" s="5">
         <v>-90</v>
       </c>
       <c r="S262" s="5">
@@ -19576,7 +19597,7 @@
         <v>0.59005230202847703</v>
       </c>
     </row>
-    <row r="263" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A263" s="18">
         <v>41080</v>
       </c>
@@ -19626,9 +19647,9 @@
         <v>1.9557211003589502E-2</v>
       </c>
       <c r="Q263" s="5">
-        <v>3.8260866234286997E-2</v>
-      </c>
-      <c r="R263" s="15">
+        <v>3.8214425307845801E-2</v>
+      </c>
+      <c r="R263" s="5">
         <v>-89</v>
       </c>
       <c r="S263" s="5">
@@ -19647,7 +19668,7 @@
         <v>0.231028841293688</v>
       </c>
     </row>
-    <row r="264" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A264" s="18">
         <v>41122</v>
       </c>
@@ -19697,9 +19718,9 @@
         <v>1.36822972391229E-2</v>
       </c>
       <c r="Q264" s="5">
-        <v>1.21380905039307E-2</v>
-      </c>
-      <c r="R264" s="15">
+        <v>1.2145884909210499E-2</v>
+      </c>
+      <c r="R264" s="5">
         <v>-10</v>
       </c>
       <c r="S264" s="5">
@@ -19718,7 +19739,7 @@
         <v>0.34659804261324401</v>
       </c>
     </row>
-    <row r="265" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A265" s="18">
         <v>41165</v>
       </c>
@@ -19768,9 +19789,9 @@
         <v>1.4902015611812499E-2</v>
       </c>
       <c r="Q265" s="5">
-        <v>-7.4015885268509697E-3</v>
-      </c>
-      <c r="R265" s="15">
+        <v>-7.4546865737261199E-3</v>
+      </c>
+      <c r="R265" s="5">
         <v>-39</v>
       </c>
       <c r="S265" s="5">
@@ -19789,7 +19810,7 @@
         <v>0.43818928663916101</v>
       </c>
     </row>
-    <row r="266" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A266" s="18">
         <v>41206</v>
       </c>
@@ -19839,9 +19860,9 @@
         <v>-3.1407758870699698E-5</v>
       </c>
       <c r="Q266" s="5">
-        <v>-8.1414091429033806E-3</v>
-      </c>
-      <c r="R266" s="15">
+        <v>-8.2528172320951304E-3</v>
+      </c>
+      <c r="R266" s="5">
         <v>-6</v>
       </c>
       <c r="S266" s="5">
@@ -19860,7 +19881,7 @@
         <v>0.53089529294015203</v>
       </c>
     </row>
-    <row r="267" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A267" s="18">
         <v>41255</v>
       </c>
@@ -19910,9 +19931,9 @@
         <v>-4.8605375203394502E-3</v>
       </c>
       <c r="Q267" s="5">
-        <v>-1.37459426270346E-2</v>
-      </c>
-      <c r="R267" s="15">
+        <v>-1.3855169203579499E-2</v>
+      </c>
+      <c r="R267" s="5">
         <v>36</v>
       </c>
       <c r="S267" s="5">
@@ -19931,7 +19952,7 @@
         <v>0.74281097934756701</v>
       </c>
     </row>
-    <row r="268" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A268" s="18">
         <v>41304</v>
       </c>
@@ -19981,9 +20002,9 @@
         <v>-3.17570433634644E-3</v>
       </c>
       <c r="Q268" s="5">
-        <v>-1.5533330336041099E-2</v>
-      </c>
-      <c r="R268" s="15">
+        <v>-1.5690879147313201E-2</v>
+      </c>
+      <c r="R268" s="5">
         <v>0</v>
       </c>
       <c r="S268" s="5">
@@ -20002,7 +20023,7 @@
         <v>0.75343652834934705</v>
       </c>
     </row>
-    <row r="269" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A269" s="18">
         <v>41353</v>
       </c>
@@ -20052,9 +20073,9 @@
         <v>2.6550137917886901E-3</v>
       </c>
       <c r="Q269" s="5">
-        <v>-1.47590276995109E-2</v>
-      </c>
-      <c r="R269" s="15">
+        <v>-1.4883385498788201E-2</v>
+      </c>
+      <c r="R269" s="5">
         <v>84</v>
       </c>
       <c r="S269" s="5">
@@ -20073,7 +20094,7 @@
         <v>0.64709694198024903</v>
       </c>
     </row>
-    <row r="270" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A270" s="18">
         <v>41395</v>
       </c>
@@ -20123,9 +20144,9 @@
         <v>-1.3668061601807E-3</v>
       </c>
       <c r="Q270" s="5">
-        <v>1.8764026349227601E-3</v>
-      </c>
-      <c r="R270" s="15">
+        <v>1.7280746662291101E-3</v>
+      </c>
+      <c r="R270" s="5">
         <v>-97</v>
       </c>
       <c r="S270" s="5">
@@ -20144,7 +20165,7 @@
         <v>0.52775953816124399</v>
       </c>
     </row>
-    <row r="271" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A271" s="18">
         <v>41444</v>
       </c>
@@ -20194,9 +20215,9 @@
         <v>1.87171369391079E-3</v>
       </c>
       <c r="Q271" s="5">
-        <v>-1.85938230371376E-3</v>
-      </c>
-      <c r="R271" s="15">
+        <v>-2.0581304314677101E-3</v>
+      </c>
+      <c r="R271" s="5">
         <v>5</v>
       </c>
       <c r="S271" s="5">
@@ -20215,7 +20236,7 @@
         <v>0.70906055206284202</v>
       </c>
     </row>
-    <row r="272" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A272" s="18">
         <v>41486</v>
       </c>
@@ -20265,9 +20286,9 @@
         <v>-3.1335682014698302E-3</v>
       </c>
       <c r="Q272" s="5">
-        <v>2.6342099743732598E-4</v>
-      </c>
-      <c r="R272" s="15">
+        <v>-4.4929985134082799E-5</v>
+      </c>
+      <c r="R272" s="5">
         <v>30</v>
       </c>
       <c r="S272" s="5">
@@ -20286,7 +20307,7 @@
         <v>0.77412495678338</v>
       </c>
     </row>
-    <row r="273" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A273" s="18">
         <v>41535</v>
       </c>
@@ -20336,9 +20357,9 @@
         <v>-1.2817561742086101E-2</v>
       </c>
       <c r="Q273" s="5">
-        <v>-1.2761849947818499E-2</v>
-      </c>
-      <c r="R273" s="15">
+        <v>-1.2996371278102501E-2</v>
+      </c>
+      <c r="R273" s="5">
         <v>-8</v>
       </c>
       <c r="S273" s="5">
@@ -20357,7 +20378,7 @@
         <v>0.68817287206917199</v>
       </c>
     </row>
-    <row r="274" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A274" s="18">
         <v>41577</v>
       </c>
@@ -20407,9 +20428,9 @@
         <v>-1.3130477666750299E-4</v>
       </c>
       <c r="Q274" s="5">
-        <v>-1.16427845935395E-2</v>
-      </c>
-      <c r="R274" s="15">
+        <v>-1.17583506143236E-2</v>
+      </c>
+      <c r="R274" s="5">
         <v>-32</v>
       </c>
       <c r="S274" s="5">
@@ -20428,7 +20449,7 @@
         <v>0.62547254325660295</v>
       </c>
     </row>
-    <row r="275" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A275" s="18">
         <v>41626</v>
       </c>
@@ -20478,9 +20499,9 @@
         <v>2.8649170970250098E-3</v>
       </c>
       <c r="Q275" s="5">
-        <v>-1.55183852547616E-2</v>
-      </c>
-      <c r="R275" s="15">
+        <v>-1.5653925621799899E-2</v>
+      </c>
+      <c r="R275" s="5">
         <v>23</v>
       </c>
       <c r="S275" s="5">
@@ -20499,7 +20520,7 @@
         <v>0.77999886528917095</v>
       </c>
     </row>
-    <row r="276" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A276" s="18">
         <v>41668</v>
       </c>
@@ -20549,9 +20570,9 @@
         <v>-6.0985918634480604E-4</v>
       </c>
       <c r="Q276" s="5">
-        <v>1.18450593206061E-2</v>
-      </c>
-      <c r="R276" s="15">
+        <v>1.16789488662404E-2</v>
+      </c>
+      <c r="R276" s="5">
         <v>-122</v>
       </c>
       <c r="S276" s="5">
@@ -20570,7 +20591,7 @@
         <v>0.39246713566267699</v>
       </c>
     </row>
-    <row r="277" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A277" s="18">
         <v>41717</v>
       </c>
@@ -20620,9 +20641,9 @@
         <v>1.6421792847824999E-2</v>
       </c>
       <c r="Q277" s="5">
-        <v>5.0418038986336398E-3</v>
-      </c>
-      <c r="R277" s="15">
+        <v>5.0458960423063904E-3</v>
+      </c>
+      <c r="R277" s="5">
         <v>30</v>
       </c>
       <c r="S277" s="5">
@@ -20641,7 +20662,7 @@
         <v>0.25532347468300998</v>
       </c>
     </row>
-    <row r="278" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A278" s="18">
         <v>41759</v>
       </c>
@@ -20691,9 +20712,9 @@
         <v>2.58936140345686E-3</v>
       </c>
       <c r="Q278" s="5">
-        <v>-5.5565558959324796E-3</v>
-      </c>
-      <c r="R278" s="15">
+        <v>-5.5672265909694199E-3</v>
+      </c>
+      <c r="R278" s="5">
         <v>-3</v>
       </c>
       <c r="S278" s="5">
@@ -20712,7 +20733,7 @@
         <v>0.20895406789104901</v>
       </c>
     </row>
-    <row r="279" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A279" s="18">
         <v>41808</v>
       </c>
@@ -20762,9 +20783,9 @@
         <v>7.6917034460438297E-3</v>
       </c>
       <c r="Q279" s="5">
-        <v>1.3122030464911101E-2</v>
-      </c>
-      <c r="R279" s="15">
+        <v>1.30440209137702E-2</v>
+      </c>
+      <c r="R279" s="5">
         <v>-3</v>
       </c>
       <c r="S279" s="5">
@@ -20783,7 +20804,7 @@
         <v>0.137423761737204</v>
       </c>
     </row>
-    <row r="280" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A280" s="18">
         <v>41850</v>
       </c>
@@ -20833,9 +20854,9 @@
         <v>-6.3984411796070301E-3</v>
       </c>
       <c r="Q280" s="5">
-        <v>-8.1732684735546005E-4</v>
-      </c>
-      <c r="R280" s="15">
+        <v>-8.8420232098970796E-4</v>
+      </c>
+      <c r="R280" s="5">
         <v>73</v>
       </c>
       <c r="S280" s="5">
@@ -20854,7 +20875,7 @@
         <v>8.5668082466751394E-2</v>
       </c>
     </row>
-    <row r="281" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A281" s="18">
         <v>41899</v>
       </c>
@@ -20904,9 +20925,9 @@
         <v>1.5706982008869701E-2</v>
       </c>
       <c r="Q281" s="5">
-        <v>3.9784963802996502E-2</v>
-      </c>
-      <c r="R281" s="15">
+        <v>3.9628693658978399E-2</v>
+      </c>
+      <c r="R281" s="5">
         <v>-78</v>
       </c>
       <c r="S281" s="5">
@@ -20925,7 +20946,7 @@
         <v>9.5910587006146394E-2</v>
       </c>
     </row>
-    <row r="282" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A282" s="18">
         <v>41941</v>
       </c>
@@ -20975,9 +20996,9 @@
         <v>2.3969403639752002E-2</v>
       </c>
       <c r="Q282" s="5">
-        <v>5.1160195535794498E-2</v>
-      </c>
-      <c r="R282" s="15">
+        <v>5.1136957336181899E-2</v>
+      </c>
+      <c r="R282" s="5">
         <v>33</v>
       </c>
       <c r="S282" s="5">
@@ -20996,7 +21017,7 @@
         <v>-0.34314395790990199</v>
       </c>
     </row>
-    <row r="283" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A283" s="18">
         <v>41990</v>
       </c>
@@ -21046,9 +21067,9 @@
         <v>-6.1614904704722299E-2</v>
       </c>
       <c r="Q283" s="5">
-        <v>-3.5028664762521498E-2</v>
-      </c>
-      <c r="R283" s="15">
+        <v>-3.4975843379118701E-2</v>
+      </c>
+      <c r="R283" s="5">
         <v>96</v>
       </c>
       <c r="S283" s="5">
@@ -21067,7 +21088,7 @@
         <v>-0.51249587667171503</v>
       </c>
     </row>
-    <row r="284" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A284" s="18">
         <v>42032</v>
       </c>
@@ -21117,9 +21138,9 @@
         <v>-1.03124726083751E-2</v>
       </c>
       <c r="Q284" s="5">
-        <v>2.5038283162705701E-2</v>
-      </c>
-      <c r="R284" s="15">
+        <v>2.4990448724499299E-2</v>
+      </c>
+      <c r="R284" s="5">
         <v>9</v>
       </c>
       <c r="S284" s="5">
@@ -21138,7 +21159,7 @@
         <v>-0.57204985822675203</v>
       </c>
     </row>
-    <row r="285" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A285" s="18">
         <v>42081</v>
       </c>
@@ -21188,9 +21209,9 @@
         <v>-7.3293196556974693E-2</v>
       </c>
       <c r="Q285" s="5">
-        <v>-5.13409701952754E-2</v>
-      </c>
-      <c r="R285" s="15">
+        <v>-5.13848787919736E-2</v>
+      </c>
+      <c r="R285" s="5">
         <v>55</v>
       </c>
       <c r="S285" s="5">
@@ -21209,7 +21230,7 @@
         <v>-0.30756653732475298</v>
       </c>
     </row>
-    <row r="286" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A286" s="18">
         <v>42123</v>
       </c>
@@ -21259,9 +21280,9 @@
         <v>-3.2962807370041998E-3</v>
       </c>
       <c r="Q286" s="5">
-        <v>2.2103846086827798E-2</v>
-      </c>
-      <c r="R286" s="15">
+        <v>2.2019675483215501E-2</v>
+      </c>
+      <c r="R286" s="5">
         <v>-122</v>
       </c>
       <c r="S286" s="5">
@@ -21280,7 +21301,7 @@
         <v>-0.242609850068154</v>
       </c>
     </row>
-    <row r="287" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A287" s="18">
         <v>42172</v>
       </c>
@@ -21330,9 +21351,9 @@
         <v>-4.67512014408853E-2</v>
       </c>
       <c r="Q287" s="5">
-        <v>-5.0550590849920703E-2</v>
-      </c>
-      <c r="R287" s="15">
+        <v>-5.0587027518411001E-2</v>
+      </c>
+      <c r="R287" s="5">
         <v>60</v>
       </c>
       <c r="S287" s="5">
@@ -21351,7 +21372,7 @@
         <v>0.129755547038686</v>
       </c>
     </row>
-    <row r="288" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A288" s="18">
         <v>42214</v>
       </c>
@@ -21401,9 +21422,9 @@
         <v>-1.22812464494849E-2</v>
       </c>
       <c r="Q288" s="5">
-        <v>2.2870231126311098E-2</v>
-      </c>
-      <c r="R288" s="15">
+        <v>2.27707536724562E-2</v>
+      </c>
+      <c r="R288" s="5">
         <v>-7</v>
       </c>
       <c r="S288" s="5">
@@ -21422,7 +21443,7 @@
         <v>-0.24565656471955999</v>
       </c>
     </row>
-    <row r="289" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A289" s="18">
         <v>42264</v>
       </c>
@@ -21472,9 +21493,9 @@
         <v>-6.68153281952759E-2</v>
       </c>
       <c r="Q289" s="5">
-        <v>-3.2391050259442097E-2</v>
-      </c>
-      <c r="R289" s="15">
+        <v>-3.2459933673294097E-2</v>
+      </c>
+      <c r="R289" s="5">
         <v>-42</v>
       </c>
       <c r="S289" s="5">
@@ -21493,7 +21514,7 @@
         <v>-0.14769319800709099</v>
       </c>
     </row>
-    <row r="290" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A290" s="18">
         <v>42305</v>
       </c>
@@ -21543,9 +21564,9 @@
         <v>4.3983344491074002E-2</v>
       </c>
       <c r="Q290" s="5">
-        <v>6.6125320194912102E-2</v>
-      </c>
-      <c r="R290" s="15">
+        <v>6.6064104452235706E-2</v>
+      </c>
+      <c r="R290" s="5">
         <v>-58</v>
       </c>
       <c r="S290" s="5">
@@ -21564,7 +21585,7 @@
         <v>-5.6758809755311002E-2</v>
       </c>
     </row>
-    <row r="291" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A291" s="18">
         <v>42354</v>
       </c>
@@ -21614,9 +21635,9 @@
         <v>1.9567939379595001E-2</v>
       </c>
       <c r="Q291" s="5">
-        <v>4.2349830832177901E-2</v>
-      </c>
-      <c r="R291" s="15">
+        <v>4.2274183048025202E-2</v>
+      </c>
+      <c r="R291" s="5">
         <v>11</v>
       </c>
       <c r="S291" s="5">
@@ -21635,7 +21656,7 @@
         <v>-0.19552525825148501</v>
       </c>
     </row>
-    <row r="292" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A292" s="18">
         <v>42396</v>
       </c>
@@ -21685,9 +21706,9 @@
         <v>-3.1741397305871999E-2</v>
       </c>
       <c r="Q292" s="5">
-        <v>-4.2628800801307798E-3</v>
-      </c>
-      <c r="R292" s="15">
+        <v>-4.2300493934842101E-3</v>
+      </c>
+      <c r="R292" s="5">
         <v>91</v>
       </c>
       <c r="S292" s="5">
@@ -21706,7 +21727,7 @@
         <v>-0.280350387890754</v>
       </c>
     </row>
-    <row r="293" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A293" s="18">
         <v>42445</v>
       </c>
@@ -21756,9 +21777,9 @@
         <v>-9.0850225960583106E-2</v>
       </c>
       <c r="Q293" s="5">
-        <v>-8.11124650639026E-2</v>
-      </c>
-      <c r="R293" s="15">
+        <v>-8.1018688811223497E-2</v>
+      </c>
+      <c r="R293" s="5">
         <v>47</v>
       </c>
       <c r="S293" s="5">
@@ -21777,7 +21798,7 @@
         <v>-0.27859902744123599</v>
       </c>
     </row>
-    <row r="294" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A294" s="18">
         <v>42487</v>
       </c>
@@ -21827,9 +21848,9 @@
         <v>9.0271018473536396E-3</v>
       </c>
       <c r="Q294" s="5">
-        <v>3.7922760095962099E-3</v>
-      </c>
-      <c r="R294" s="15">
+        <v>3.8578587390043799E-3</v>
+      </c>
+      <c r="R294" s="5">
         <v>15</v>
       </c>
       <c r="S294" s="5">
@@ -21848,7 +21869,7 @@
         <v>-0.32998647430815398</v>
       </c>
     </row>
-    <row r="295" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A295" s="18">
         <v>42536</v>
       </c>
@@ -21898,9 +21919,9 @@
         <v>-4.8257203883145E-2</v>
       </c>
       <c r="Q295" s="5">
-        <v>-3.7253846337511901E-2</v>
-      </c>
-      <c r="R295" s="15">
+        <v>-3.7192813734582601E-2</v>
+      </c>
+      <c r="R295" s="5">
         <v>-117</v>
       </c>
       <c r="S295" s="5">
@@ -21919,7 +21940,7 @@
         <v>-0.26923549522046297</v>
       </c>
     </row>
-    <row r="296" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A296" s="18">
         <v>42578</v>
       </c>
@@ -21969,9 +21990,9 @@
         <v>6.5033928322253496E-3</v>
       </c>
       <c r="Q296" s="5">
-        <v>5.6133344613708497E-3</v>
-      </c>
-      <c r="R296" s="15">
+        <v>5.67636550997046E-3</v>
+      </c>
+      <c r="R296" s="5">
         <v>107</v>
       </c>
       <c r="S296" s="5">
@@ -21990,7 +22011,7 @@
         <v>-0.124645621203736</v>
       </c>
     </row>
-    <row r="297" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A297" s="18">
         <v>42634</v>
       </c>
@@ -22040,9 +22061,9 @@
         <v>-3.19306212282282E-2</v>
       </c>
       <c r="Q297" s="5">
-        <v>-1.6663610612227601E-2</v>
-      </c>
-      <c r="R297" s="15">
+        <v>-1.6756007083997399E-2</v>
+      </c>
+      <c r="R297" s="5">
         <v>-38</v>
       </c>
       <c r="S297" s="5">
@@ -22061,7 +22082,7 @@
         <v>7.5773516554625497E-2</v>
       </c>
     </row>
-    <row r="298" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A298" s="18">
         <v>42676</v>
       </c>
@@ -22111,9 +22132,9 @@
         <v>2.5472252685876601E-3</v>
       </c>
       <c r="Q298" s="5">
-        <v>1.4037910898829499E-2</v>
-      </c>
-      <c r="R298" s="15">
+        <v>1.40113454851275E-2</v>
+      </c>
+      <c r="R298" s="5">
         <v>-18</v>
       </c>
       <c r="S298" s="5">
@@ -22132,7 +22153,7 @@
         <v>7.0111702931493297E-2</v>
       </c>
     </row>
-    <row r="299" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A299" s="18">
         <v>42718</v>
       </c>
@@ -22182,9 +22203,9 @@
         <v>3.7307497663615602E-2</v>
       </c>
       <c r="Q299" s="5">
-        <v>3.61449147975254E-2</v>
-      </c>
-      <c r="R299" s="15">
+        <v>3.60508981680151E-2</v>
+      </c>
+      <c r="R299" s="5">
         <v>1</v>
       </c>
       <c r="S299" s="5">
@@ -22203,7 +22224,7 @@
         <v>0.248197027225288</v>
       </c>
     </row>
-    <row r="300" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A300" s="18">
         <v>42767</v>
       </c>
@@ -22253,9 +22274,9 @@
         <v>-2.2814350739087198E-2</v>
       </c>
       <c r="Q300" s="5">
-        <v>-1.00211196520137E-2</v>
-      </c>
-      <c r="R300" s="15">
+        <v>-1.0096609824247E-2</v>
+      </c>
+      <c r="R300" s="5">
         <v>-19</v>
       </c>
       <c r="S300" s="5">
@@ -22274,7 +22295,7 @@
         <v>-9.2953636114870605E-2</v>
       </c>
     </row>
-    <row r="301" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A301" s="18">
         <v>42809</v>
       </c>
@@ -22324,9 +22345,9 @@
         <v>-5.9587383064389002E-2</v>
       </c>
       <c r="Q301" s="5">
-        <v>-4.1377622133209099E-2</v>
-      </c>
-      <c r="R301" s="15">
+        <v>-4.1390127795227001E-2</v>
+      </c>
+      <c r="R301" s="5">
         <v>39</v>
       </c>
       <c r="S301" s="5">
@@ -22345,7 +22366,7 @@
         <v>-0.31208831257859299</v>
       </c>
     </row>
-    <row r="302" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A302" s="18">
         <v>42858</v>
       </c>
@@ -22395,9 +22416,9 @@
         <v>1.17684474103392E-2</v>
       </c>
       <c r="Q302" s="5">
-        <v>4.47004128117598E-2</v>
-      </c>
-      <c r="R302" s="15">
+        <v>4.4713033863999802E-2</v>
+      </c>
+      <c r="R302" s="5">
         <v>-80</v>
       </c>
       <c r="S302" s="5">
@@ -22416,7 +22437,7 @@
         <v>-0.53933523636758096</v>
       </c>
     </row>
-    <row r="303" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A303" s="18">
         <v>42900</v>
       </c>
@@ -22466,9 +22487,9 @@
         <v>1.9428743097512E-2</v>
       </c>
       <c r="Q303" s="5">
-        <v>3.9015830516990799E-2</v>
-      </c>
-      <c r="R303" s="15">
+        <v>3.9037870146486298E-2</v>
+      </c>
+      <c r="R303" s="5">
         <v>-44</v>
       </c>
       <c r="S303" s="5">
@@ -22487,7 +22508,7 @@
         <v>-0.279001274936512</v>
       </c>
     </row>
-    <row r="304" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A304" s="18">
         <v>42942</v>
       </c>
@@ -22537,9 +22558,9 @@
         <v>-1.22919748254872E-2</v>
       </c>
       <c r="Q304" s="5">
-        <v>-1.3674447695271401E-2</v>
-      </c>
-      <c r="R304" s="15">
+        <v>-1.3719076694972099E-2</v>
+      </c>
+      <c r="R304" s="5">
         <v>42</v>
       </c>
       <c r="S304" s="5">
@@ -22558,7 +22579,7 @@
         <v>0.194213333355856</v>
       </c>
     </row>
-    <row r="305" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A305" s="18">
         <v>42998</v>
       </c>
@@ -22608,9 +22629,9 @@
         <v>4.8770002922294803E-2</v>
       </c>
       <c r="Q305" s="5">
-        <v>6.6150720668338603E-2</v>
-      </c>
-      <c r="R305" s="15">
+        <v>6.6182215002351205E-2</v>
+      </c>
+      <c r="R305" s="5">
         <v>-27</v>
       </c>
       <c r="S305" s="5">
@@ -22629,7 +22650,7 @@
         <v>-0.32905042336708401</v>
       </c>
     </row>
-    <row r="306" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A306" s="18">
         <v>43040</v>
       </c>
@@ -22679,9 +22700,9 @@
         <v>4.6316791383137802E-3</v>
       </c>
       <c r="Q306" s="5">
-        <v>2.4206678728041602E-2</v>
-      </c>
-      <c r="R306" s="15">
+        <v>2.4185060581820898E-2</v>
+      </c>
+      <c r="R306" s="5">
         <v>-120</v>
       </c>
       <c r="S306" s="5">
@@ -22700,7 +22721,7 @@
         <v>-0.14301911746015999</v>
       </c>
     </row>
-    <row r="307" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A307" s="18">
         <v>43082</v>
       </c>
@@ -22750,9 +22771,9 @@
         <v>-8.0990573744235805E-3</v>
       </c>
       <c r="Q307" s="5">
-        <v>9.0861125569542103E-4</v>
-      </c>
-      <c r="R307" s="15">
+        <v>9.0510629330028795E-4</v>
+      </c>
+      <c r="R307" s="5">
         <v>30</v>
       </c>
       <c r="S307" s="5">
@@ -22771,7 +22792,7 @@
         <v>-0.16262003971939001</v>
       </c>
     </row>
-    <row r="308" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A308" s="18">
         <v>43131</v>
       </c>
@@ -22821,9 +22842,9 @@
         <v>7.2210405417671699E-3</v>
       </c>
       <c r="Q308" s="5">
-        <v>5.5741445871751597E-3</v>
-      </c>
-      <c r="R308" s="15">
+        <v>5.5354593527004699E-3</v>
+      </c>
+      <c r="R308" s="5">
         <v>-42</v>
       </c>
       <c r="S308" s="5">
@@ -22842,7 +22863,7 @@
         <v>8.8973149724551906E-2</v>
       </c>
     </row>
-    <row r="309" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A309" s="18">
         <v>43180</v>
       </c>
@@ -22892,9 +22913,9 @@
         <v>-5.3728431013224803E-3</v>
       </c>
       <c r="Q309" s="5">
-        <v>1.71340094050412E-3</v>
-      </c>
-      <c r="R309" s="15">
+        <v>1.78150527861177E-3</v>
+      </c>
+      <c r="R309" s="5">
         <v>108</v>
       </c>
       <c r="S309" s="5">
@@ -22913,7 +22934,7 @@
         <v>-0.24976122197179901</v>
       </c>
     </row>
-    <row r="310" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A310" s="18">
         <v>43222</v>
       </c>
@@ -22963,9 +22984,9 @@
         <v>-7.1053605131578303E-3</v>
       </c>
       <c r="Q310" s="5">
-        <v>2.0476792932862801E-2</v>
-      </c>
-      <c r="R310" s="15">
+        <v>2.0482878570403099E-2</v>
+      </c>
+      <c r="R310" s="5">
         <v>-75</v>
       </c>
       <c r="S310" s="5">
@@ -22984,7 +23005,7 @@
         <v>-3.8653376698218903E-2</v>
       </c>
     </row>
-    <row r="311" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A311" s="18">
         <v>43264</v>
       </c>
@@ -23034,9 +23055,9 @@
         <v>1.9763046590296401E-2</v>
       </c>
       <c r="Q311" s="5">
-        <v>2.91176825140659E-2</v>
-      </c>
-      <c r="R311" s="15">
+        <v>2.91738929280707E-2</v>
+      </c>
+      <c r="R311" s="5">
         <v>33</v>
       </c>
       <c r="S311" s="5">
@@ -23055,7 +23076,7 @@
         <v>-0.14828794553960101</v>
       </c>
     </row>
-    <row r="312" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A312" s="18">
         <v>43313</v>
       </c>
@@ -23105,9 +23126,9 @@
         <v>-4.4845913508268099E-3</v>
       </c>
       <c r="Q312" s="5">
-        <v>8.5470361561196893E-3</v>
-      </c>
-      <c r="R312" s="15">
+        <v>8.5050066415901897E-3</v>
+      </c>
+      <c r="R312" s="5">
         <v>18</v>
       </c>
       <c r="S312" s="5">
@@ -23126,7 +23147,7 @@
         <v>-7.0282961879591294E-2</v>
       </c>
     </row>
-    <row r="313" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A313" s="18">
         <v>43369</v>
       </c>
@@ -23176,9 +23197,9 @@
         <v>-4.4110474570905099E-3</v>
       </c>
       <c r="Q313" s="5">
-        <v>1.15672316605535E-2</v>
-      </c>
-      <c r="R313" s="15">
+        <v>1.15451220956692E-2</v>
+      </c>
+      <c r="R313" s="5">
         <v>9</v>
       </c>
       <c r="S313" s="5">
@@ -23197,7 +23218,7 @@
         <v>-0.216356725725666</v>
       </c>
     </row>
-    <row r="314" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A314" s="18">
         <v>43412</v>
       </c>
@@ -23247,9 +23268,9 @@
         <v>7.7966550986547298E-3</v>
       </c>
       <c r="Q314" s="5">
-        <v>2.17123154007383E-2</v>
-      </c>
-      <c r="R314" s="15">
+        <v>2.1740546521550601E-2</v>
+      </c>
+      <c r="R314" s="5">
         <v>62</v>
       </c>
       <c r="S314" s="5">
@@ -23268,7 +23289,7 @@
         <v>-0.11095140249581401</v>
       </c>
     </row>
-    <row r="315" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A315" s="18">
         <v>43453</v>
       </c>
@@ -23318,9 +23339,9 @@
         <v>2.0558305912111201E-2</v>
       </c>
       <c r="Q315" s="5">
-        <v>6.6097157341627799E-2</v>
-      </c>
-      <c r="R315" s="15">
+        <v>6.6183976156097599E-2</v>
+      </c>
+      <c r="R315" s="5">
         <v>-43</v>
       </c>
       <c r="S315" s="5">
@@ -23339,7 +23360,7 @@
         <v>-0.442361220546581</v>
       </c>
     </row>
-    <row r="316" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A316" s="18">
         <v>43495</v>
       </c>
@@ -23389,9 +23410,9 @@
         <v>-2.84086541751714E-2</v>
       </c>
       <c r="Q316" s="5">
-        <v>-3.3346006902556301E-3</v>
-      </c>
-      <c r="R316" s="15">
+        <v>-3.1788644331959101E-3</v>
+      </c>
+      <c r="R316" s="5">
         <v>136</v>
       </c>
       <c r="S316" s="5">
@@ -23410,7 +23431,7 @@
         <v>-0.63680229207341099</v>
       </c>
     </row>
-    <row r="317" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A317" s="18">
         <v>43544</v>
       </c>
@@ -23460,9 +23481,9 @@
         <v>-3.5787720427602698E-2</v>
       </c>
       <c r="Q317" s="5">
-        <v>-1.0564139089738901E-3</v>
-      </c>
-      <c r="R317" s="15">
+        <v>-1.0798323727353499E-3</v>
+      </c>
+      <c r="R317" s="5">
         <v>-160</v>
       </c>
       <c r="S317" s="5">
@@ -23481,7 +23502,7 @@
         <v>-0.51800925876444803</v>
       </c>
     </row>
-    <row r="318" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A318" s="18">
         <v>43586</v>
       </c>
@@ -23531,9 +23552,9 @@
         <v>-4.6075689866212202E-2</v>
       </c>
       <c r="Q318" s="5">
-        <v>-2.9443596666936599E-2</v>
-      </c>
-      <c r="R318" s="15">
+        <v>-2.9432408395435299E-2</v>
+      </c>
+      <c r="R318" s="5">
         <v>21</v>
       </c>
       <c r="S318" s="5">
@@ -23552,7 +23573,7 @@
         <v>-0.44699546269691198</v>
       </c>
     </row>
-    <row r="319" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A319" s="18">
         <v>43635</v>
       </c>
@@ -23602,9 +23623,9 @@
         <v>-8.7695978376241601E-2</v>
       </c>
       <c r="Q319" s="5">
-        <v>-3.6832603343950998E-2</v>
-      </c>
-      <c r="R319" s="15">
+        <v>-3.6831197559249601E-2</v>
+      </c>
+      <c r="R319" s="5">
         <v>-105</v>
       </c>
       <c r="S319" s="5">
@@ -23623,7 +23644,7 @@
         <v>-0.77076811870394701</v>
       </c>
     </row>
-    <row r="320" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A320" s="18">
         <v>43677</v>
       </c>
@@ -23673,9 +23694,9 @@
         <v>4.3488178417031301E-2</v>
       </c>
       <c r="Q320" s="5">
-        <v>5.3836996142473302E-2</v>
-      </c>
-      <c r="R320" s="15">
+        <v>5.3866421903555603E-2</v>
+      </c>
+      <c r="R320" s="5">
         <v>64</v>
       </c>
       <c r="S320" s="5">
@@ -23694,7 +23715,7 @@
         <v>-7.8063515982826306E-2</v>
       </c>
     </row>
-    <row r="321" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A321" s="18">
         <v>43726</v>
       </c>
@@ -23744,9 +23765,9 @@
         <v>3.5258309724114499E-2</v>
       </c>
       <c r="Q321" s="5">
-        <v>5.5629830343511003E-2</v>
-      </c>
-      <c r="R321" s="15">
+        <v>5.5669577033391003E-2</v>
+      </c>
+      <c r="R321" s="5">
         <v>-30</v>
       </c>
       <c r="S321" s="5">
@@ -23765,7 +23786,7 @@
         <v>-0.337223695176185</v>
       </c>
     </row>
-    <row r="322" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A322" s="18">
         <v>43749</v>
       </c>
@@ -23815,9 +23836,9 @@
         <v>-4.7838215606266204E-3</v>
       </c>
       <c r="Q322" s="5">
-        <v>2.2026727105900701E-2</v>
-      </c>
-      <c r="R322" s="15">
+        <v>2.2060529090206001E-2</v>
+      </c>
+      <c r="R322" s="5">
         <v>-9</v>
       </c>
       <c r="S322" s="5">
@@ -23836,7 +23857,7 @@
         <v>-0.26367464714021699</v>
       </c>
     </row>
-    <row r="323" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A323" s="18">
         <v>43768</v>
       </c>
@@ -23886,9 +23907,9 @@
         <v>1.50412118938918E-2</v>
       </c>
       <c r="Q323" s="5">
-        <v>3.4652016879378203E-2</v>
-      </c>
-      <c r="R323" s="15">
+        <v>3.4676607077074699E-2</v>
+      </c>
+      <c r="R323" s="5">
         <v>-9</v>
       </c>
       <c r="S323" s="5">
@@ -23907,7 +23928,7 @@
         <v>-0.20324710704947699</v>
       </c>
     </row>
-    <row r="324" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A324" s="18">
         <v>43810</v>
       </c>
@@ -23957,9 +23978,9 @@
         <v>-3.8747321644783E-3</v>
       </c>
       <c r="Q324" s="5">
-        <v>8.9503137103619096E-3</v>
-      </c>
-      <c r="R324" s="15">
+        <v>8.9639051182978796E-3</v>
+      </c>
+      <c r="R324" s="5">
         <v>86</v>
       </c>
       <c r="S324" s="5">
@@ -23978,7 +23999,7 @@
         <v>-0.27238615462975102</v>
       </c>
     </row>
-    <row r="325" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A325" s="18"/>
       <c r="B325" s="13"/>
       <c r="D325" s="5"/>
@@ -23995,25 +24016,26 @@
       <c r="O325" s="5"/>
       <c r="P325" s="5"/>
       <c r="Q325" s="5"/>
+      <c r="R325" s="5"/>
       <c r="S325" s="5"/>
       <c r="T325" s="5"/>
       <c r="U325" s="5"/>
       <c r="V325" s="5"/>
       <c r="W325" s="5"/>
     </row>
-    <row r="327" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A327" s="22"/>
       <c r="B327" s="9"/>
     </row>
-    <row r="328" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A328" s="22"/>
       <c r="B328" s="9"/>
     </row>
-    <row r="329" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A329" s="23"/>
       <c r="B329" s="10"/>
     </row>
-    <row r="330" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A330" s="23"/>
       <c r="B330" s="10"/>
     </row>
